--- a/db/MDU.xlsx
+++ b/db/MDU.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coreserv\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coreserv-v2\coreserv-mdu\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF84A7E4-3456-4B29-A614-03156AC16D67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1" xr2:uid="{856D42F6-88BB-4441-A1E3-079CB2B84A18}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="RFP Dashboard" sheetId="9" r:id="rId1"/>
@@ -49,12 +48,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Raymund A. Enage</author>
   </authors>
   <commentList>
-    <comment ref="J79" authorId="0" shapeId="0" xr:uid="{03623657-F473-4C6F-890D-231C80349D41}">
+    <comment ref="J79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -78,7 +77,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K79" authorId="0" shapeId="0" xr:uid="{740D2A91-48E0-44F1-9960-DEB6F39E69A9}">
+    <comment ref="K79" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -107,7 +106,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>tc={FA487048-5338-457D-9C18-F6B77FCC2543}</author>
     <author>tc={A1FAA29A-217C-48DF-BD87-6C0939B85494}</author>
@@ -119,7 +118,7 @@
     <author>tc={A4E9201A-B7FA-4F12-9806-17549FBD3CE2}</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{FA487048-5338-457D-9C18-F6B77FCC2543}">
+    <comment ref="H1" authorId="0" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -137,7 +136,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{A1FAA29A-217C-48DF-BD87-6C0939B85494}">
+    <comment ref="B11" authorId="1" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -154,7 +153,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="2" shapeId="0" xr:uid="{081441D1-4BAB-4444-AFBF-AC16A668023F}">
+    <comment ref="B12" authorId="2" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -171,7 +170,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{93FCA9AD-14BB-473E-ADF7-7033F86DE4BE}">
+    <comment ref="B20" authorId="3" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -188,7 +187,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="4" shapeId="0" xr:uid="{D16946E3-2D46-4431-8F60-8FA91941B1A6}">
+    <comment ref="B21" authorId="4" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -205,7 +204,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="5" shapeId="0" xr:uid="{E4B861AA-C8F6-4385-A323-2FDC1D889F69}">
+    <comment ref="B73" authorId="5" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -223,7 +222,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="6" shapeId="0" xr:uid="{A9E8AB78-AA07-47EE-83FF-16BECAB2D05F}">
+    <comment ref="B74" authorId="6" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -241,7 +240,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD94" authorId="7" shapeId="0" xr:uid="{A4E9201A-B7FA-4F12-9806-17549FBD3CE2}">
+    <comment ref="AD94" authorId="7" shapeId="0">
       <text>
         <r>
           <rPr>
@@ -7853,7 +7852,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -7865,7 +7864,7 @@
     <numFmt numFmtId="170" formatCode="[$₱-464]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="53" x14ac:knownFonts="1">
+  <fonts count="53">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9621,11 +9620,107 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="39" fontId="16" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -9645,110 +9740,14 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="39" fontId="16" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2" xr:uid="{EBE95EE8-97A8-4DAA-B2E5-862F0B447093}"/>
-    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{C7D2CE43-A9C1-4A07-8417-AA24E0B042ED}"/>
+    <cellStyle name="Comma 2" xfId="2"/>
+    <cellStyle name="Comma 2 2" xfId="4"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{3D96001D-85AE-4F86-891F-2AE4E8D2EF9B}"/>
+    <cellStyle name="Hyperlink 2" xfId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 9" xfId="5" xr:uid="{E9EA57FD-3C75-4F4E-855B-6270888AC113}"/>
+    <cellStyle name="Normal 9" xfId="5"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -10227,7 +10226,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RFP"/>
@@ -11695,7 +11694,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D70FE409-4973-4790-9E9D-881B3DDC6779}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11705,7 +11704,7 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="71" bestFit="1" customWidth="1"/>
@@ -11733,12 +11732,12 @@
     <col min="36" max="16384" width="7.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:35">
       <c r="A1" s="8" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:35">
       <c r="B4" s="72" t="s">
         <v>845</v>
       </c>
@@ -11842,7 +11841,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:35" ht="12" customHeight="1">
       <c r="A5" s="76" t="s">
         <v>954</v>
       </c>
@@ -11853,82 +11852,82 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:35">
       <c r="A6" s="78" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:35">
       <c r="A7" s="77" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:35">
       <c r="A8" s="77" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:35">
       <c r="A9" s="77" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:35">
       <c r="A10" s="77"/>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:35">
       <c r="A11" s="77"/>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:35">
       <c r="A12" s="77"/>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:35">
       <c r="A13" s="77"/>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:35">
       <c r="A14" s="77"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="75" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="75" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="75" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="75" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="75" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="75" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="75" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="75" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="75" t="s">
         <v>962</v>
       </c>
@@ -11939,17 +11938,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF3F15FC-D847-4342-A98D-D1C56B8E02DE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
@@ -11966,7 +11965,7 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:19">
       <c r="A1" t="s">
         <v>907</v>
       </c>
@@ -11983,7 +11982,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19">
       <c r="A3" s="61" t="s">
         <v>845</v>
       </c>
@@ -11995,7 +11994,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19">
       <c r="A4" s="61" t="s">
         <v>831</v>
       </c>
@@ -12006,7 +12005,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19">
       <c r="A5" s="61" t="s">
         <v>846</v>
       </c>
@@ -12022,7 +12021,7 @@
       <c r="R5" s="371"/>
       <c r="S5" s="371"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19">
       <c r="A6" s="61" t="s">
         <v>832</v>
       </c>
@@ -12035,7 +12034,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19">
       <c r="A7" s="61" t="s">
         <v>847</v>
       </c>
@@ -12048,7 +12047,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19">
       <c r="A8" s="61" t="s">
         <v>848</v>
       </c>
@@ -12059,7 +12058,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19">
       <c r="A9" s="61" t="s">
         <v>849</v>
       </c>
@@ -12070,7 +12069,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19">
       <c r="A10" s="61" t="s">
         <v>850</v>
       </c>
@@ -12081,7 +12080,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19">
       <c r="A11" s="61" t="s">
         <v>851</v>
       </c>
@@ -12092,7 +12091,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19">
       <c r="A12" s="61" t="s">
         <v>852</v>
       </c>
@@ -12103,7 +12102,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19">
       <c r="A14" s="61" t="s">
         <v>909</v>
       </c>
@@ -12117,7 +12116,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19">
       <c r="A15" s="61" t="s">
         <v>914</v>
       </c>
@@ -12131,7 +12130,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19">
       <c r="A16" s="61" t="s">
         <v>913</v>
       </c>
@@ -12145,7 +12144,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:15">
       <c r="A17" s="61" t="s">
         <v>911</v>
       </c>
@@ -12162,7 +12161,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:15">
       <c r="A18" s="61" t="s">
         <v>912</v>
       </c>
@@ -12182,7 +12181,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:15">
       <c r="A19" s="61" t="s">
         <v>917</v>
       </c>
@@ -12199,7 +12198,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:15">
       <c r="A21" s="61" t="s">
         <v>921</v>
       </c>
@@ -12216,7 +12215,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:15">
       <c r="A22" s="65" t="s">
         <v>864</v>
       </c>
@@ -12236,7 +12235,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:15">
       <c r="A23" s="65" t="s">
         <v>922</v>
       </c>
@@ -12253,7 +12252,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:15">
       <c r="A24" s="65" t="s">
         <v>923</v>
       </c>
@@ -12270,7 +12269,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:15">
       <c r="A25" s="65" t="s">
         <v>924</v>
       </c>
@@ -12287,7 +12286,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:15">
       <c r="A26" s="65" t="s">
         <v>925</v>
       </c>
@@ -12304,7 +12303,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:15">
       <c r="A27" s="65" t="s">
         <v>926</v>
       </c>
@@ -12321,7 +12320,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:15">
       <c r="A28" s="61" t="s">
         <v>927</v>
       </c>
@@ -12338,7 +12337,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:15">
       <c r="A29" s="66" t="s">
         <v>920</v>
       </c>
@@ -12352,7 +12351,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:15">
       <c r="A30" s="370" t="s">
         <v>2515</v>
       </c>
@@ -12363,7 +12362,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:15">
       <c r="A32" s="61" t="s">
         <v>928</v>
       </c>
@@ -12377,7 +12376,7 @@
       <c r="M32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:3">
       <c r="A33" s="61" t="s">
         <v>929</v>
       </c>
@@ -12388,7 +12387,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:3">
       <c r="A34" s="61" t="s">
         <v>952</v>
       </c>
@@ -12399,7 +12398,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:3">
       <c r="A35" s="61" t="s">
         <v>930</v>
       </c>
@@ -12410,7 +12409,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:3">
       <c r="A36" s="61" t="s">
         <v>834</v>
       </c>
@@ -12421,7 +12420,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:3">
       <c r="A37" s="61" t="s">
         <v>931</v>
       </c>
@@ -12432,7 +12431,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:3">
       <c r="A39" s="61" t="s">
         <v>943</v>
       </c>
@@ -12443,7 +12442,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:3">
       <c r="A40" s="61" t="s">
         <v>948</v>
       </c>
@@ -12454,7 +12453,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:3">
       <c r="A41" s="61" t="s">
         <v>945</v>
       </c>
@@ -12465,7 +12464,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:3">
       <c r="A46" t="s">
         <v>969</v>
       </c>
@@ -12475,7 +12474,7 @@
     <mergeCell ref="O5:S5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F3" xr:uid="{6E510B68-13B9-47B7-B3D2-24723BA96100}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F3">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -12486,14 +12485,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA9CD5C7-8D1D-4C51-B348-724D7CEDEB58}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
@@ -12516,27 +12515,27 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11">
       <c r="A1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11">
       <c r="A3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11">
       <c r="A5" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="B7" s="87" t="s">
         <v>993</v>
       </c>
@@ -12568,7 +12567,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="15.75">
       <c r="A8" t="s">
         <v>980</v>
       </c>
@@ -12603,7 +12602,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11">
       <c r="A11" t="s">
         <v>993</v>
       </c>
@@ -12611,7 +12610,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11">
       <c r="A12" t="s">
         <v>994</v>
       </c>
@@ -12619,7 +12618,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -12627,7 +12626,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11">
       <c r="A14" s="11" t="s">
         <v>835</v>
       </c>
@@ -12635,7 +12634,7 @@
         <v>13454.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11">
       <c r="A15" s="81" t="s">
         <v>836</v>
       </c>
@@ -12643,7 +12642,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11">
       <c r="A16" s="11" t="s">
         <v>837</v>
       </c>
@@ -12651,7 +12650,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="A17" s="11" t="s">
         <v>840</v>
       </c>
@@ -12659,7 +12658,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" s="11" t="s">
         <v>838</v>
       </c>
@@ -12667,7 +12666,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="A19" s="11" t="s">
         <v>839</v>
       </c>
@@ -12675,7 +12674,7 @@
         <v>82820940</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="A20" s="11" t="s">
         <v>834</v>
       </c>
@@ -12683,7 +12682,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:10">
       <c r="A22" s="85" t="s">
         <v>981</v>
       </c>
@@ -12694,7 +12693,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:10">
       <c r="B23" s="60" t="s">
         <v>983</v>
       </c>
@@ -12714,7 +12713,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10">
       <c r="B24" s="60" t="s">
         <v>984</v>
       </c>
@@ -12722,26 +12721,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10">
       <c r="B25" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C25" s="372"/>
       <c r="D25" s="372"/>
     </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10">
       <c r="C26" s="372"/>
       <c r="D26" s="372"/>
     </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10">
       <c r="C27" s="372"/>
       <c r="D27" s="372"/>
     </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10">
       <c r="C28" s="372"/>
       <c r="D28" s="372"/>
     </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10">
       <c r="B29" t="s">
         <v>988</v>
       </c>
@@ -12749,7 +12748,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10">
       <c r="B30" t="s">
         <v>989</v>
       </c>
@@ -12757,7 +12756,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10">
       <c r="B31" t="s">
         <v>990</v>
       </c>
@@ -12765,7 +12764,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10">
       <c r="B32" t="s">
         <v>1012</v>
       </c>
@@ -12773,7 +12772,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:4">
       <c r="B33" t="s">
         <v>1013</v>
       </c>
@@ -12781,14 +12780,14 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:4">
       <c r="A36" s="9" t="s">
         <v>992</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:4">
       <c r="A38" s="85" t="s">
         <v>981</v>
       </c>
@@ -12799,7 +12798,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:4">
       <c r="B39" s="60" t="s">
         <v>983</v>
       </c>
@@ -12807,7 +12806,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:4">
       <c r="B40" s="60" t="s">
         <v>984</v>
       </c>
@@ -12815,26 +12814,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:4">
       <c r="B41" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C41" s="372"/>
       <c r="D41" s="372"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:4">
       <c r="C42" s="372"/>
       <c r="D42" s="372"/>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:4">
       <c r="C43" s="372"/>
       <c r="D43" s="372"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:4">
       <c r="C44" s="372"/>
       <c r="D44" s="372"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:4">
       <c r="B45" t="s">
         <v>988</v>
       </c>
@@ -12842,7 +12841,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:4">
       <c r="B46" t="s">
         <v>989</v>
       </c>
@@ -12850,7 +12849,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:4">
       <c r="B47" t="s">
         <v>990</v>
       </c>
@@ -12858,7 +12857,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:4">
       <c r="B48" t="s">
         <v>1012</v>
       </c>
@@ -12866,7 +12865,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:4">
       <c r="B49" t="s">
         <v>1013</v>
       </c>
@@ -12874,7 +12873,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:4">
       <c r="A52" s="85" t="s">
         <v>981</v>
       </c>
@@ -12885,7 +12884,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:4">
       <c r="B53" s="60" t="s">
         <v>983</v>
       </c>
@@ -12893,7 +12892,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:4">
       <c r="B54" s="60" t="s">
         <v>984</v>
       </c>
@@ -12901,26 +12900,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4">
       <c r="B55" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C55" s="372"/>
       <c r="D55" s="372"/>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:4">
       <c r="C56" s="372"/>
       <c r="D56" s="372"/>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:4">
       <c r="C57" s="372"/>
       <c r="D57" s="372"/>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:4">
       <c r="C58" s="372"/>
       <c r="D58" s="372"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:4">
       <c r="B59" t="s">
         <v>988</v>
       </c>
@@ -12928,7 +12927,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:4">
       <c r="B60" t="s">
         <v>989</v>
       </c>
@@ -12936,7 +12935,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:4">
       <c r="B61" t="s">
         <v>990</v>
       </c>
@@ -12944,7 +12943,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:4">
       <c r="B62" t="s">
         <v>1012</v>
       </c>
@@ -12952,7 +12951,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:4">
       <c r="B63" t="s">
         <v>1013</v>
       </c>
@@ -12960,12 +12959,12 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:21">
       <c r="A66" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:21">
       <c r="B67" s="87" t="s">
         <v>993</v>
       </c>
@@ -13024,7 +13023,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:21" ht="15.75">
       <c r="A68" t="s">
         <v>980</v>
       </c>
@@ -13086,27 +13085,27 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:21">
       <c r="A71" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:21">
       <c r="A72" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:21">
       <c r="A73" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:21">
       <c r="A74" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:21">
       <c r="B76" s="80" t="s">
         <v>982</v>
       </c>
@@ -13138,7 +13137,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:21">
       <c r="B77" s="92">
         <v>44743</v>
       </c>
@@ -13164,7 +13163,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:21">
       <c r="B78" s="92">
         <v>44744</v>
       </c>
@@ -13190,7 +13189,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:21">
       <c r="B79" s="92">
         <v>44745</v>
       </c>
@@ -13234,7 +13233,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E34F01E-675E-4877-8BE4-232032794F28}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13244,7 +13243,7 @@
       <selection activeCell="D10" sqref="D10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="14" customWidth="1"/>
@@ -13263,7 +13262,7 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1">
       <c r="B1" s="59" t="s">
         <v>906</v>
       </c>
@@ -13275,7 +13274,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" thickTop="1">
       <c r="B2" s="57" t="s">
         <v>903</v>
       </c>
@@ -13283,31 +13282,31 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="400"/>
-      <c r="B3" s="400"/>
-      <c r="C3" s="400"/>
-      <c r="D3" s="400"/>
-      <c r="E3" s="400"/>
-      <c r="F3" s="400"/>
-      <c r="G3" s="400"/>
-      <c r="H3" s="400"/>
-      <c r="I3" s="400"/>
-      <c r="J3" s="400"/>
-      <c r="K3" s="400"/>
-      <c r="L3" s="400"/>
-      <c r="M3" s="400"/>
+    <row r="3" spans="1:14" ht="35.25" customHeight="1">
+      <c r="A3" s="375"/>
+      <c r="B3" s="375"/>
+      <c r="C3" s="375"/>
+      <c r="D3" s="375"/>
+      <c r="E3" s="375"/>
+      <c r="F3" s="375"/>
+      <c r="G3" s="375"/>
+      <c r="H3" s="375"/>
+      <c r="I3" s="375"/>
+      <c r="J3" s="375"/>
+      <c r="K3" s="375"/>
+      <c r="L3" s="375"/>
+      <c r="M3" s="375"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:14">
       <c r="B4" s="49" t="s">
         <v>901</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="374">
+      <c r="D4" s="376">
         <v>7500</v>
       </c>
-      <c r="E4" s="374"/>
+      <c r="E4" s="376"/>
       <c r="I4" s="49" t="s">
         <v>900</v>
       </c>
@@ -13318,30 +13317,30 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:14">
       <c r="B5" s="49" t="s">
         <v>898</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="401" t="s">
+      <c r="D5" s="377" t="s">
         <v>897</v>
       </c>
-      <c r="E5" s="402"/>
+      <c r="E5" s="378"/>
       <c r="I5" s="49" t="s">
         <v>896</v>
       </c>
       <c r="J5" s="51"/>
-      <c r="K5" s="374" t="s">
+      <c r="K5" s="376" t="s">
         <v>895</v>
       </c>
-      <c r="L5" s="374"/>
-      <c r="M5" s="374"/>
+      <c r="L5" s="376"/>
+      <c r="M5" s="376"/>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:14">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="403"/>
-      <c r="E6" s="403"/>
+      <c r="D6" s="379"/>
+      <c r="E6" s="379"/>
       <c r="I6" s="49" t="s">
         <v>894</v>
       </c>
@@ -13349,177 +13348,177 @@
         <f>IF(ISERROR(VLOOKUP(K6,[1]Sheet2!A1:B13,2,FALSE)),"",VLOOKUP(K6,[1]Sheet2!A1:B13,2,FALSE))</f>
         <v>RP</v>
       </c>
-      <c r="K6" s="374" t="s">
+      <c r="K6" s="376" t="s">
         <v>893</v>
       </c>
-      <c r="L6" s="374"/>
-      <c r="M6" s="374"/>
+      <c r="L6" s="376"/>
+      <c r="M6" s="376"/>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:14">
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B8" s="394" t="s">
+    <row r="8" spans="1:14">
+      <c r="B8" s="380" t="s">
         <v>892</v>
       </c>
-      <c r="C8" s="394"/>
-      <c r="D8" s="394"/>
-      <c r="E8" s="394"/>
-      <c r="F8" s="394"/>
-      <c r="G8" s="394"/>
-      <c r="H8" s="394"/>
-      <c r="I8" s="394"/>
-      <c r="J8" s="394"/>
-      <c r="K8" s="394"/>
-      <c r="L8" s="394"/>
-      <c r="M8" s="395"/>
+      <c r="C8" s="380"/>
+      <c r="D8" s="380"/>
+      <c r="E8" s="380"/>
+      <c r="F8" s="380"/>
+      <c r="G8" s="380"/>
+      <c r="H8" s="380"/>
+      <c r="I8" s="380"/>
+      <c r="J8" s="380"/>
+      <c r="K8" s="380"/>
+      <c r="L8" s="380"/>
+      <c r="M8" s="381"/>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:14">
       <c r="B9" s="49" t="s">
         <v>891</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="374"/>
-      <c r="E9" s="374"/>
-      <c r="F9" s="374"/>
-      <c r="G9" s="374"/>
-      <c r="H9" s="374"/>
+      <c r="D9" s="376"/>
+      <c r="E9" s="376"/>
+      <c r="F9" s="376"/>
+      <c r="G9" s="376"/>
+      <c r="H9" s="376"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:14" ht="26.25">
       <c r="B10" s="49" t="s">
         <v>890</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="404" t="s">
+      <c r="D10" s="382" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="404"/>
-      <c r="F10" s="404"/>
-      <c r="G10" s="404"/>
-      <c r="H10" s="404"/>
+      <c r="E10" s="382"/>
+      <c r="F10" s="382"/>
+      <c r="G10" s="382"/>
+      <c r="H10" s="382"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:14" ht="53.25" customHeight="1">
       <c r="B11" s="49" t="s">
         <v>889</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="391" t="s">
+      <c r="D11" s="373" t="s">
         <v>888</v>
       </c>
-      <c r="E11" s="391"/>
-      <c r="F11" s="391"/>
-      <c r="G11" s="391"/>
-      <c r="H11" s="391"/>
+      <c r="E11" s="373"/>
+      <c r="F11" s="373"/>
+      <c r="G11" s="373"/>
+      <c r="H11" s="373"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:14">
       <c r="B12" s="49" t="s">
         <v>878</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="399" t="s">
+      <c r="D12" s="374" t="s">
         <v>887</v>
       </c>
-      <c r="E12" s="399"/>
-      <c r="F12" s="399"/>
-      <c r="G12" s="399"/>
-      <c r="H12" s="399"/>
+      <c r="E12" s="374"/>
+      <c r="F12" s="374"/>
+      <c r="G12" s="374"/>
+      <c r="H12" s="374"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:14">
       <c r="B13" s="49" t="s">
         <v>886</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="399" t="s">
+      <c r="D13" s="374" t="s">
         <v>885</v>
       </c>
-      <c r="E13" s="399"/>
-      <c r="F13" s="399"/>
-      <c r="G13" s="399"/>
-      <c r="H13" s="399"/>
+      <c r="E13" s="374"/>
+      <c r="F13" s="374"/>
+      <c r="G13" s="374"/>
+      <c r="H13" s="374"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:14">
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="393"/>
-      <c r="E14" s="393"/>
-      <c r="F14" s="393"/>
-      <c r="G14" s="393"/>
-      <c r="H14" s="393"/>
+      <c r="D14" s="386"/>
+      <c r="E14" s="386"/>
+      <c r="F14" s="386"/>
+      <c r="G14" s="386"/>
+      <c r="H14" s="386"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B16" s="394" t="s">
+    <row r="16" spans="1:14">
+      <c r="B16" s="380" t="s">
         <v>884</v>
       </c>
-      <c r="C16" s="394"/>
-      <c r="D16" s="394"/>
-      <c r="E16" s="394"/>
-      <c r="F16" s="394"/>
-      <c r="G16" s="394"/>
-      <c r="H16" s="394"/>
-      <c r="I16" s="394"/>
-      <c r="J16" s="394"/>
-      <c r="K16" s="394"/>
-      <c r="L16" s="394"/>
-      <c r="M16" s="395"/>
+      <c r="C16" s="380"/>
+      <c r="D16" s="380"/>
+      <c r="E16" s="380"/>
+      <c r="F16" s="380"/>
+      <c r="G16" s="380"/>
+      <c r="H16" s="380"/>
+      <c r="I16" s="380"/>
+      <c r="J16" s="380"/>
+      <c r="K16" s="380"/>
+      <c r="L16" s="380"/>
+      <c r="M16" s="381"/>
     </row>
-    <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:15" ht="26.25">
       <c r="A17" s="12"/>
       <c r="B17" s="49" t="s">
         <v>883</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="396" t="s">
+      <c r="D17" s="387" t="s">
         <v>882</v>
       </c>
-      <c r="E17" s="396"/>
-      <c r="F17" s="396"/>
+      <c r="E17" s="387"/>
+      <c r="F17" s="387"/>
       <c r="G17" s="52"/>
       <c r="I17" s="49" t="s">
         <v>881</v>
       </c>
-      <c r="J17" s="397" t="s">
+      <c r="J17" s="388" t="s">
         <v>880</v>
       </c>
-      <c r="K17" s="397"/>
-      <c r="L17" s="397"/>
+      <c r="K17" s="388"/>
+      <c r="L17" s="388"/>
       <c r="M17" s="48"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:15">
       <c r="A18" s="12"/>
       <c r="B18" s="49" t="s">
         <v>879</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="D18" s="398" t="str">
+      <c r="D18" s="389" t="str">
         <f>IF(ISERROR(VLOOKUP(D17,[1]Sheet3!A1:B100,2,FALSE)),"",VLOOKUP(D17,[1]Sheet3!A1:B100,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E18" s="398"/>
-      <c r="F18" s="398"/>
+      <c r="E18" s="389"/>
+      <c r="F18" s="389"/>
       <c r="I18" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="J18" s="391" t="s">
+      <c r="J18" s="373" t="s">
         <v>877</v>
       </c>
-      <c r="K18" s="391"/>
-      <c r="L18" s="391"/>
+      <c r="K18" s="373"/>
+      <c r="L18" s="373"/>
       <c r="M18" s="48"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:15" ht="54" customHeight="1">
       <c r="A19" s="12"/>
       <c r="B19" s="49" t="s">
         <v>876</v>
@@ -13528,37 +13527,37 @@
         <f>IF(ISERROR(VLOOKUP(D19,[1]Sheet2!A16:B45,2,FALSE)),"",VLOOKUP(D19,[1]Sheet2!A16:B45,2,FALSE))</f>
         <v/>
       </c>
-      <c r="D19" s="389" t="s">
+      <c r="D19" s="383" t="s">
         <v>875</v>
       </c>
-      <c r="E19" s="389"/>
-      <c r="F19" s="389"/>
+      <c r="E19" s="383"/>
+      <c r="F19" s="383"/>
       <c r="G19" s="51"/>
       <c r="I19" s="49" t="s">
         <v>874</v>
       </c>
-      <c r="J19" s="390" t="s">
+      <c r="J19" s="384" t="s">
         <v>873</v>
       </c>
-      <c r="K19" s="391"/>
-      <c r="L19" s="391"/>
+      <c r="K19" s="373"/>
+      <c r="L19" s="373"/>
       <c r="M19" s="48"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:15">
       <c r="A20" s="12"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="J20" s="392"/>
-      <c r="K20" s="392"/>
-      <c r="L20" s="392"/>
+      <c r="J20" s="385"/>
+      <c r="K20" s="385"/>
+      <c r="L20" s="385"/>
       <c r="M20" s="48"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:15">
       <c r="A21" s="12"/>
       <c r="B21" s="49" t="s">
         <v>872</v>
@@ -13578,31 +13577,31 @@
       <c r="M21" s="48"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:15" ht="35.25" customHeight="1">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="388"/>
-      <c r="E22" s="388"/>
-      <c r="F22" s="388"/>
-      <c r="G22" s="388"/>
+      <c r="D22" s="397"/>
+      <c r="E22" s="397"/>
+      <c r="F22" s="397"/>
+      <c r="G22" s="397"/>
       <c r="H22" s="38"/>
       <c r="I22" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="J22" s="384">
+      <c r="J22" s="390">
         <f>SUM(I28:I30)</f>
         <v>1578.85</v>
       </c>
-      <c r="K22" s="384"/>
-      <c r="L22" s="384"/>
+      <c r="K22" s="390"/>
+      <c r="L22" s="390"/>
       <c r="M22" s="48"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:15">
       <c r="A24" s="12"/>
-      <c r="B24" s="385"/>
-      <c r="C24" s="385"/>
+      <c r="B24" s="394"/>
+      <c r="C24" s="394"/>
       <c r="D24" s="46" t="s">
         <v>869</v>
       </c>
@@ -13621,36 +13620,36 @@
       <c r="I24" s="45" t="s">
         <v>864</v>
       </c>
-      <c r="J24" s="386" t="s">
+      <c r="J24" s="395" t="s">
         <v>863</v>
       </c>
-      <c r="K24" s="385"/>
-      <c r="L24" s="385"/>
-      <c r="M24" s="387"/>
+      <c r="K24" s="394"/>
+      <c r="L24" s="394"/>
+      <c r="M24" s="396"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:15">
       <c r="A25" s="12"/>
-      <c r="B25" s="379"/>
-      <c r="C25" s="379"/>
+      <c r="B25" s="391"/>
+      <c r="C25" s="391"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="35"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="379"/>
-      <c r="K25" s="379"/>
-      <c r="L25" s="379"/>
-      <c r="M25" s="380"/>
+      <c r="J25" s="391"/>
+      <c r="K25" s="391"/>
+      <c r="L25" s="391"/>
+      <c r="M25" s="392"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:15">
       <c r="A26" s="12"/>
-      <c r="B26" s="381" t="s">
+      <c r="B26" s="393" t="s">
         <v>862</v>
       </c>
-      <c r="C26" s="381"/>
+      <c r="C26" s="393"/>
       <c r="D26" s="28"/>
       <c r="E26" s="43"/>
       <c r="F26" s="16" t="s">
@@ -13659,19 +13658,19 @@
       <c r="G26" s="43"/>
       <c r="H26" s="35"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="379"/>
-      <c r="K26" s="379"/>
-      <c r="L26" s="379"/>
-      <c r="M26" s="380"/>
+      <c r="J26" s="391"/>
+      <c r="K26" s="391"/>
+      <c r="L26" s="391"/>
+      <c r="M26" s="392"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:15" ht="65.25" customHeight="1">
       <c r="A27" s="12"/>
-      <c r="B27" s="382" t="str">
+      <c r="B27" s="398" t="str">
         <f>D10</f>
         <v>MEDICAL PLAZA ORTIGAS CONDOMINIUM CORP</v>
       </c>
-      <c r="C27" s="382"/>
+      <c r="C27" s="398"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="16" t="s">
@@ -13680,16 +13679,16 @@
       <c r="G27" s="16"/>
       <c r="H27" s="35"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="379"/>
-      <c r="K27" s="379"/>
-      <c r="L27" s="379"/>
-      <c r="M27" s="380"/>
+      <c r="J27" s="391"/>
+      <c r="K27" s="391"/>
+      <c r="L27" s="391"/>
+      <c r="M27" s="392"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:15" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:15" ht="26.25">
       <c r="A28" s="12"/>
-      <c r="B28" s="383"/>
-      <c r="C28" s="383"/>
+      <c r="B28" s="399"/>
+      <c r="C28" s="399"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -13698,33 +13697,33 @@
       <c r="I28" s="42">
         <v>1578.85</v>
       </c>
-      <c r="J28" s="379" t="s">
+      <c r="J28" s="391" t="s">
         <v>859</v>
       </c>
-      <c r="K28" s="379"/>
-      <c r="L28" s="379"/>
-      <c r="M28" s="380"/>
+      <c r="K28" s="391"/>
+      <c r="L28" s="391"/>
+      <c r="M28" s="392"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:15" ht="23.25">
       <c r="A29" s="12"/>
-      <c r="B29" s="381"/>
-      <c r="C29" s="381"/>
+      <c r="B29" s="393"/>
+      <c r="C29" s="393"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="37"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="379"/>
-      <c r="K29" s="379"/>
-      <c r="L29" s="379"/>
-      <c r="M29" s="380"/>
+      <c r="J29" s="391"/>
+      <c r="K29" s="391"/>
+      <c r="L29" s="391"/>
+      <c r="M29" s="392"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:15" ht="23.25">
       <c r="A30" s="12"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -13734,14 +13733,14 @@
       <c r="G30" s="38"/>
       <c r="H30" s="37"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="379"/>
-      <c r="K30" s="379"/>
-      <c r="L30" s="379"/>
-      <c r="M30" s="380"/>
+      <c r="J30" s="391"/>
+      <c r="K30" s="391"/>
+      <c r="L30" s="391"/>
+      <c r="M30" s="392"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
-    <row r="31" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:15" ht="23.25">
       <c r="A31" s="12"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -13751,90 +13750,90 @@
       <c r="G31" s="38"/>
       <c r="H31" s="37"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="379"/>
-      <c r="K31" s="379"/>
-      <c r="L31" s="379"/>
-      <c r="M31" s="380"/>
+      <c r="J31" s="391"/>
+      <c r="K31" s="391"/>
+      <c r="L31" s="391"/>
+      <c r="M31" s="392"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:15">
       <c r="A32" s="12"/>
-      <c r="B32" s="381"/>
-      <c r="C32" s="381"/>
+      <c r="B32" s="393"/>
+      <c r="C32" s="393"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="37"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="379"/>
-      <c r="K32" s="379"/>
-      <c r="L32" s="379"/>
-      <c r="M32" s="380"/>
+      <c r="J32" s="391"/>
+      <c r="K32" s="391"/>
+      <c r="L32" s="391"/>
+      <c r="M32" s="392"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:14">
       <c r="A33" s="12"/>
-      <c r="B33" s="379"/>
-      <c r="C33" s="379"/>
+      <c r="B33" s="391"/>
+      <c r="C33" s="391"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="379"/>
-      <c r="K33" s="379"/>
-      <c r="L33" s="379"/>
-      <c r="M33" s="380"/>
+      <c r="J33" s="391"/>
+      <c r="K33" s="391"/>
+      <c r="L33" s="391"/>
+      <c r="M33" s="392"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:14">
       <c r="A34" s="12"/>
-      <c r="B34" s="379"/>
-      <c r="C34" s="379"/>
+      <c r="B34" s="391"/>
+      <c r="C34" s="391"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="379"/>
-      <c r="K34" s="379"/>
-      <c r="L34" s="379"/>
-      <c r="M34" s="380"/>
+      <c r="J34" s="391"/>
+      <c r="K34" s="391"/>
+      <c r="L34" s="391"/>
+      <c r="M34" s="392"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B35" s="379"/>
-      <c r="C35" s="379"/>
+    <row r="35" spans="1:14">
+      <c r="B35" s="391"/>
+      <c r="C35" s="391"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="379"/>
-      <c r="K35" s="379"/>
-      <c r="L35" s="379"/>
-      <c r="M35" s="380"/>
+      <c r="J35" s="391"/>
+      <c r="K35" s="391"/>
+      <c r="L35" s="391"/>
+      <c r="M35" s="392"/>
     </row>
-    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
-      <c r="B36" s="374"/>
-      <c r="C36" s="374"/>
+    <row r="36" spans="1:14">
+      <c r="B36" s="376"/>
+      <c r="C36" s="376"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="33"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="374"/>
-      <c r="K36" s="374"/>
-      <c r="L36" s="374"/>
-      <c r="M36" s="375"/>
+      <c r="J36" s="376"/>
+      <c r="K36" s="376"/>
+      <c r="L36" s="376"/>
+      <c r="M36" s="401"/>
     </row>
-    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="38" spans="1:14">
       <c r="B38" s="31" t="s">
         <v>858</v>
       </c>
@@ -13854,7 +13853,7 @@
       <c r="L38" s="30"/>
       <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="39" spans="1:14">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="22"/>
@@ -13867,23 +13866,23 @@
       <c r="L39" s="22"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
-      <c r="B40" s="376" t="s">
+    <row r="40" spans="1:14" ht="23.25">
+      <c r="B40" s="402" t="s">
         <v>855</v>
       </c>
-      <c r="C40" s="376"/>
-      <c r="D40" s="376"/>
+      <c r="C40" s="402"/>
+      <c r="D40" s="402"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="377"/>
-      <c r="G40" s="377"/>
-      <c r="H40" s="377"/>
+      <c r="F40" s="403"/>
+      <c r="G40" s="403"/>
+      <c r="H40" s="403"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="378"/>
-      <c r="K40" s="378"/>
-      <c r="L40" s="378"/>
+      <c r="J40" s="404"/>
+      <c r="K40" s="404"/>
+      <c r="L40" s="404"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="41" spans="1:14">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="19"/>
@@ -13897,7 +13896,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="43" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="43" spans="1:14" ht="23.25">
       <c r="B43" s="26" t="s">
         <v>854</v>
       </c>
@@ -13913,23 +13912,23 @@
       <c r="L43" s="24"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
-      <c r="B44" s="373" t="s">
+    <row r="44" spans="1:14" ht="31.5">
+      <c r="B44" s="400" t="s">
         <v>853</v>
       </c>
-      <c r="C44" s="373"/>
-      <c r="D44" s="373"/>
-      <c r="E44" s="373"/>
-      <c r="F44" s="373"/>
-      <c r="G44" s="373"/>
-      <c r="H44" s="373"/>
-      <c r="I44" s="373"/>
+      <c r="C44" s="400"/>
+      <c r="D44" s="400"/>
+      <c r="E44" s="400"/>
+      <c r="F44" s="400"/>
+      <c r="G44" s="400"/>
+      <c r="H44" s="400"/>
+      <c r="I44" s="400"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="45" spans="1:14">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="19"/>
@@ -13943,7 +13942,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
+    <row r="48" spans="1:14">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="E48" s="15"/>
@@ -13953,6 +13952,45 @@
     </row>
   </sheetData>
   <mergeCells count="51">
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="J18:L18"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
@@ -13965,60 +14003,21 @@
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26:D36" xr:uid="{00000000-0002-0000-0000-000003000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26:D36">
       <formula1>"D,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25" xr:uid="{00000000-0002-0000-0000-000002000000}">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25">
       <formula1>"D, C"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G19 C19" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G19 C19"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1" xr:uid="{BAEB1F9A-81F2-4220-A380-15D0571E4B68}"/>
+    <hyperlink ref="J19" r:id="rId1"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -14028,7 +14027,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9BF70D79-A41E-41F3-B66F-1F6FA2ADA6DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -14038,7 +14037,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="71" bestFit="1" customWidth="1"/>
@@ -14055,12 +14054,12 @@
     <col min="14" max="16384" width="7.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13">
       <c r="A1" s="8" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13">
       <c r="B4" s="72" t="s">
         <v>845</v>
       </c>
@@ -14098,87 +14097,87 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" ht="12" customHeight="1">
       <c r="A5" s="76" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13">
       <c r="A6" s="77" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13">
       <c r="A7" s="77" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13">
       <c r="A8" s="78" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13">
       <c r="A9" s="77" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13">
       <c r="A10" s="77"/>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13">
       <c r="A11" s="77"/>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13">
       <c r="A12" s="77"/>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13">
       <c r="A13" s="77"/>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13">
       <c r="A14" s="77"/>
     </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="17" spans="2:2">
       <c r="B17" s="75" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="18" spans="2:2">
       <c r="B18" s="75" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="19" spans="2:2">
       <c r="B19" s="75" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="20" spans="2:2">
       <c r="B20" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="21" spans="2:2">
       <c r="B21" s="75" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="22" spans="2:2">
       <c r="B22" s="75" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="23" spans="2:2">
       <c r="B23" s="75" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="24" spans="2:2">
       <c r="B24" s="75" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
+    <row r="25" spans="2:2">
       <c r="B25" s="75" t="s">
         <v>962</v>
       </c>
@@ -14189,7 +14188,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{021B1158-E649-471C-9018-5ED45F36B6B1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -14199,7 +14198,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -14212,12 +14211,12 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12">
       <c r="A1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12">
       <c r="A2" s="62" t="s">
         <v>845</v>
       </c>
@@ -14246,7 +14245,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12">
       <c r="A3" s="62" t="s">
         <v>831</v>
       </c>
@@ -14272,7 +14271,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12">
       <c r="A4" s="62" t="s">
         <v>846</v>
       </c>
@@ -14298,7 +14297,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12">
       <c r="A5" s="62" t="s">
         <v>832</v>
       </c>
@@ -14324,7 +14323,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12">
       <c r="A6" s="62" t="s">
         <v>847</v>
       </c>
@@ -14338,7 +14337,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12">
       <c r="A7" s="62" t="s">
         <v>848</v>
       </c>
@@ -14352,7 +14351,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12">
       <c r="A8" s="62" t="s">
         <v>849</v>
       </c>
@@ -14363,7 +14362,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12">
       <c r="A9" s="62" t="s">
         <v>850</v>
       </c>
@@ -14374,7 +14373,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12">
       <c r="A10" s="62" t="s">
         <v>851</v>
       </c>
@@ -14385,7 +14384,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12">
       <c r="A11" s="62" t="s">
         <v>852</v>
       </c>
@@ -14396,7 +14395,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12">
       <c r="A12" s="62" t="s">
         <v>834</v>
       </c>
@@ -14407,7 +14406,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12">
       <c r="A13" s="62" t="s">
         <v>930</v>
       </c>
@@ -14418,27 +14417,27 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12">
       <c r="J14" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12">
       <c r="J15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12">
       <c r="J16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:10">
       <c r="J17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:10">
       <c r="A18" t="s">
         <v>975</v>
       </c>
@@ -14446,12 +14445,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:10">
       <c r="J19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:10">
       <c r="J20" t="s">
         <v>199</v>
       </c>
@@ -14463,7 +14462,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DD83ACCB-8137-42BF-99B3-58EC79DE3EAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -14474,7 +14473,7 @@
       <selection pane="bottomLeft" activeCell="AG480" sqref="AG480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="51.140625" style="99" customWidth="1"/>
     <col min="2" max="2" width="50.140625" style="99" customWidth="1"/>
@@ -14520,7 +14519,7 @@
     <col min="45" max="16384" width="13.5703125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="97" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:48" s="97" customFormat="1" ht="45.75" customHeight="1">
       <c r="A1" s="367" t="s">
         <v>0</v>
       </c>
@@ -14666,7 +14665,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A2" s="116" t="s">
         <v>2472</v>
       </c>
@@ -14795,7 +14794,7 @@
       <c r="AU2" s="109"/>
       <c r="AV2" s="109"/>
     </row>
-    <row r="3" spans="1:48" s="231" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:48" s="231" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A3" s="116" t="s">
         <v>2472</v>
       </c>
@@ -14908,7 +14907,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A4" s="221" t="s">
         <v>2467</v>
       </c>
@@ -15044,7 +15043,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A5" s="116" t="s">
         <v>28</v>
       </c>
@@ -15180,7 +15179,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A6" s="116" t="s">
         <v>2456</v>
       </c>
@@ -15298,7 +15297,7 @@
       <c r="AU6" s="109"/>
       <c r="AV6" s="109"/>
     </row>
-    <row r="7" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A7" s="116" t="s">
         <v>36</v>
       </c>
@@ -15426,7 +15425,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A8" s="116" t="s">
         <v>40</v>
       </c>
@@ -15555,7 +15554,7 @@
       <c r="AU8" s="109"/>
       <c r="AV8" s="109"/>
     </row>
-    <row r="9" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A9" s="116" t="s">
         <v>2446</v>
       </c>
@@ -15678,7 +15677,7 @@
       <c r="AU9" s="109"/>
       <c r="AV9" s="109"/>
     </row>
-    <row r="10" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A10" s="116" t="s">
         <v>2442</v>
       </c>
@@ -15798,7 +15797,7 @@
       <c r="AU10" s="109"/>
       <c r="AV10" s="109"/>
     </row>
-    <row r="11" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A11" s="119" t="s">
         <v>50</v>
       </c>
@@ -15914,7 +15913,7 @@
       <c r="AU11" s="109"/>
       <c r="AV11" s="109"/>
     </row>
-    <row r="12" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A12" s="119" t="s">
         <v>50</v>
       </c>
@@ -16030,7 +16029,7 @@
       <c r="AU12" s="109"/>
       <c r="AV12" s="109"/>
     </row>
-    <row r="13" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A13" s="116" t="s">
         <v>52</v>
       </c>
@@ -16148,7 +16147,7 @@
       <c r="AU13" s="109"/>
       <c r="AV13" s="109"/>
     </row>
-    <row r="14" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A14" s="116" t="s">
         <v>53</v>
       </c>
@@ -16270,7 +16269,7 @@
       <c r="AU14" s="109"/>
       <c r="AV14" s="109"/>
     </row>
-    <row r="15" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A15" s="116" t="s">
         <v>56</v>
       </c>
@@ -16392,7 +16391,7 @@
       <c r="AU15" s="109"/>
       <c r="AV15" s="109"/>
     </row>
-    <row r="16" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A16" s="116" t="s">
         <v>57</v>
       </c>
@@ -16516,7 +16515,7 @@
       <c r="AU16" s="109"/>
       <c r="AV16" s="109"/>
     </row>
-    <row r="17" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A17" s="116" t="s">
         <v>59</v>
       </c>
@@ -16638,7 +16637,7 @@
       <c r="AU17" s="109"/>
       <c r="AV17" s="109"/>
     </row>
-    <row r="18" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A18" s="116" t="s">
         <v>62</v>
       </c>
@@ -16770,7 +16769,7 @@
       <c r="AU18" s="109"/>
       <c r="AV18" s="109"/>
     </row>
-    <row r="19" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A19" s="116" t="s">
         <v>2420</v>
       </c>
@@ -16898,7 +16897,7 @@
       <c r="AU19" s="109"/>
       <c r="AV19" s="109"/>
     </row>
-    <row r="20" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A20" s="116" t="s">
         <v>2415</v>
       </c>
@@ -17022,7 +17021,7 @@
       <c r="AU20" s="109"/>
       <c r="AV20" s="109"/>
     </row>
-    <row r="21" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A21" s="116" t="s">
         <v>2415</v>
       </c>
@@ -17143,7 +17142,7 @@
       <c r="AU21" s="109"/>
       <c r="AV21" s="109"/>
     </row>
-    <row r="22" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A22" s="116" t="s">
         <v>71</v>
       </c>
@@ -17269,7 +17268,7 @@
       <c r="AU22" s="109"/>
       <c r="AV22" s="109"/>
     </row>
-    <row r="23" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A23" s="119" t="s">
         <v>75</v>
       </c>
@@ -17387,7 +17386,7 @@
       <c r="AU23" s="109"/>
       <c r="AV23" s="109"/>
     </row>
-    <row r="24" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A24" s="119" t="s">
         <v>77</v>
       </c>
@@ -17505,7 +17504,7 @@
       <c r="AU24" s="109"/>
       <c r="AV24" s="109"/>
     </row>
-    <row r="25" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A25" s="119" t="s">
         <v>77</v>
       </c>
@@ -17623,7 +17622,7 @@
       <c r="AU25" s="109"/>
       <c r="AV25" s="109"/>
     </row>
-    <row r="26" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A26" s="116" t="s">
         <v>81</v>
       </c>
@@ -17749,7 +17748,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A27" s="116" t="s">
         <v>2394</v>
       </c>
@@ -17865,7 +17864,7 @@
       <c r="AU27" s="109"/>
       <c r="AV27" s="109"/>
     </row>
-    <row r="28" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A28" s="116" t="s">
         <v>2392</v>
       </c>
@@ -17981,7 +17980,7 @@
       <c r="AU28" s="109"/>
       <c r="AV28" s="109"/>
     </row>
-    <row r="29" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A29" s="116" t="s">
         <v>2390</v>
       </c>
@@ -18097,7 +18096,7 @@
       <c r="AU29" s="109"/>
       <c r="AV29" s="109"/>
     </row>
-    <row r="30" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A30" s="116" t="s">
         <v>2388</v>
       </c>
@@ -18213,7 +18212,7 @@
       <c r="AU30" s="109"/>
       <c r="AV30" s="109"/>
     </row>
-    <row r="31" spans="1:48" s="324" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:48" s="324" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A31" s="116" t="s">
         <v>88</v>
       </c>
@@ -18335,7 +18334,7 @@
       <c r="AU31" s="325"/>
       <c r="AV31" s="325"/>
     </row>
-    <row r="32" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A32" s="116" t="s">
         <v>88</v>
       </c>
@@ -18455,7 +18454,7 @@
       <c r="AU32" s="109"/>
       <c r="AV32" s="109"/>
     </row>
-    <row r="33" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A33" s="116" t="s">
         <v>88</v>
       </c>
@@ -18575,7 +18574,7 @@
       <c r="AU33" s="109"/>
       <c r="AV33" s="109"/>
     </row>
-    <row r="34" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A34" s="116" t="s">
         <v>88</v>
       </c>
@@ -18695,7 +18694,7 @@
       <c r="AU34" s="109"/>
       <c r="AV34" s="109"/>
     </row>
-    <row r="35" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A35" s="116" t="s">
         <v>88</v>
       </c>
@@ -18815,7 +18814,7 @@
       <c r="AU35" s="109"/>
       <c r="AV35" s="109"/>
     </row>
-    <row r="36" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A36" s="116" t="s">
         <v>94</v>
       </c>
@@ -18937,7 +18936,7 @@
       <c r="AU36" s="109"/>
       <c r="AV36" s="109"/>
     </row>
-    <row r="37" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A37" s="119" t="s">
         <v>96</v>
       </c>
@@ -19063,7 +19062,7 @@
       <c r="AU37" s="109"/>
       <c r="AV37" s="109"/>
     </row>
-    <row r="38" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A38" s="116" t="s">
         <v>99</v>
       </c>
@@ -19183,7 +19182,7 @@
       <c r="AU38" s="109"/>
       <c r="AV38" s="109"/>
     </row>
-    <row r="39" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A39" s="318" t="s">
         <v>102</v>
       </c>
@@ -19281,7 +19280,7 @@
       <c r="AU39" s="109"/>
       <c r="AV39" s="109"/>
     </row>
-    <row r="40" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A40" s="116" t="s">
         <v>2367</v>
       </c>
@@ -19405,7 +19404,7 @@
       <c r="AU40" s="109"/>
       <c r="AV40" s="109"/>
     </row>
-    <row r="41" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A41" s="116" t="s">
         <v>2361</v>
       </c>
@@ -19521,7 +19520,7 @@
       <c r="AU41" s="109"/>
       <c r="AV41" s="109"/>
     </row>
-    <row r="42" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A42" s="116" t="s">
         <v>2358</v>
       </c>
@@ -19645,7 +19644,7 @@
       <c r="AU42" s="109"/>
       <c r="AV42" s="109"/>
     </row>
-    <row r="43" spans="1:48" s="234" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:48" s="234" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A43" s="116" t="s">
         <v>2354</v>
       </c>
@@ -19769,7 +19768,7 @@
       <c r="AU43" s="235"/>
       <c r="AV43" s="235"/>
     </row>
-    <row r="44" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A44" s="116" t="s">
         <v>109</v>
       </c>
@@ -19893,7 +19892,7 @@
       <c r="AU44" s="109"/>
       <c r="AV44" s="109"/>
     </row>
-    <row r="45" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A45" s="116" t="s">
         <v>2348</v>
       </c>
@@ -20023,7 +20022,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="46" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A46" s="116" t="s">
         <v>2341</v>
       </c>
@@ -20145,7 +20144,7 @@
       <c r="AU46" s="109"/>
       <c r="AV46" s="109"/>
     </row>
-    <row r="47" spans="1:48" s="289" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:48" s="289" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A47" s="318" t="s">
         <v>114</v>
       </c>
@@ -20241,7 +20240,7 @@
       <c r="AU47" s="290"/>
       <c r="AV47" s="290"/>
     </row>
-    <row r="48" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A48" s="116" t="s">
         <v>2335</v>
       </c>
@@ -20355,7 +20354,7 @@
       <c r="AU48" s="109"/>
       <c r="AV48" s="109"/>
     </row>
-    <row r="49" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A49" s="116" t="s">
         <v>2328</v>
       </c>
@@ -20475,7 +20474,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="50" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A50" s="116" t="s">
         <v>117</v>
       </c>
@@ -20583,7 +20582,7 @@
       <c r="AU50" s="109"/>
       <c r="AV50" s="109"/>
     </row>
-    <row r="51" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A51" s="116" t="s">
         <v>119</v>
       </c>
@@ -20705,7 +20704,7 @@
       <c r="AU51" s="109"/>
       <c r="AV51" s="109"/>
     </row>
-    <row r="52" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A52" s="116" t="s">
         <v>121</v>
       </c>
@@ -20825,7 +20824,7 @@
       <c r="AU52" s="109"/>
       <c r="AV52" s="109"/>
     </row>
-    <row r="53" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A53" s="116" t="s">
         <v>2314</v>
       </c>
@@ -20939,7 +20938,7 @@
       <c r="AU53" s="109"/>
       <c r="AV53" s="109"/>
     </row>
-    <row r="54" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A54" s="116" t="s">
         <v>125</v>
       </c>
@@ -21053,7 +21052,7 @@
       <c r="AU54" s="109"/>
       <c r="AV54" s="109"/>
     </row>
-    <row r="55" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A55" s="116" t="s">
         <v>2307</v>
       </c>
@@ -21155,7 +21154,7 @@
       <c r="AU55" s="109"/>
       <c r="AV55" s="109"/>
     </row>
-    <row r="56" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A56" s="116" t="s">
         <v>2305</v>
       </c>
@@ -21257,7 +21256,7 @@
       <c r="AU56" s="109"/>
       <c r="AV56" s="109"/>
     </row>
-    <row r="57" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A57" s="116" t="s">
         <v>2303</v>
       </c>
@@ -21359,7 +21358,7 @@
       <c r="AU57" s="109"/>
       <c r="AV57" s="109"/>
     </row>
-    <row r="58" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A58" s="116" t="s">
         <v>129</v>
       </c>
@@ -21467,7 +21466,7 @@
       <c r="AU58" s="109"/>
       <c r="AV58" s="109"/>
     </row>
-    <row r="59" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A59" s="116" t="s">
         <v>2298</v>
       </c>
@@ -21577,7 +21576,7 @@
       <c r="AU59" s="109"/>
       <c r="AV59" s="109"/>
     </row>
-    <row r="60" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A60" s="116" t="s">
         <v>132</v>
       </c>
@@ -21685,7 +21684,7 @@
       <c r="AU60" s="109"/>
       <c r="AV60" s="109"/>
     </row>
-    <row r="61" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A61" s="116" t="s">
         <v>134</v>
       </c>
@@ -21793,7 +21792,7 @@
       <c r="AU61" s="109"/>
       <c r="AV61" s="109"/>
     </row>
-    <row r="62" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A62" s="116" t="s">
         <v>2292</v>
       </c>
@@ -21915,7 +21914,7 @@
       <c r="AU62" s="109"/>
       <c r="AV62" s="109"/>
     </row>
-    <row r="63" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A63" s="116" t="s">
         <v>139</v>
       </c>
@@ -22035,7 +22034,7 @@
       <c r="AU63" s="109"/>
       <c r="AV63" s="109"/>
     </row>
-    <row r="64" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A64" s="116" t="s">
         <v>139</v>
       </c>
@@ -22153,7 +22152,7 @@
       <c r="AU64" s="109"/>
       <c r="AV64" s="109"/>
     </row>
-    <row r="65" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A65" s="116" t="s">
         <v>139</v>
       </c>
@@ -22271,7 +22270,7 @@
       <c r="AU65" s="109"/>
       <c r="AV65" s="109"/>
     </row>
-    <row r="66" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A66" s="116" t="s">
         <v>145</v>
       </c>
@@ -22389,7 +22388,7 @@
       <c r="AU66" s="109"/>
       <c r="AV66" s="109"/>
     </row>
-    <row r="67" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A67" s="116" t="s">
         <v>2283</v>
       </c>
@@ -22501,7 +22500,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="68" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A68" s="116" t="s">
         <v>148</v>
       </c>
@@ -22623,7 +22622,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="69" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A69" s="116" t="s">
         <v>152</v>
       </c>
@@ -22737,7 +22736,7 @@
       <c r="AU69" s="109"/>
       <c r="AV69" s="109"/>
     </row>
-    <row r="70" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A70" s="116" t="s">
         <v>153</v>
       </c>
@@ -22857,7 +22856,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="71" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A71" s="116" t="s">
         <v>155</v>
       </c>
@@ -22963,7 +22962,7 @@
       <c r="AU71" s="109"/>
       <c r="AV71" s="109"/>
     </row>
-    <row r="72" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A72" s="116" t="s">
         <v>157</v>
       </c>
@@ -23079,7 +23078,7 @@
       </c>
       <c r="AV72" s="109"/>
     </row>
-    <row r="73" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A73" s="116" t="s">
         <v>159</v>
       </c>
@@ -23207,7 +23206,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="74" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A74" s="116" t="s">
         <v>159</v>
       </c>
@@ -23335,7 +23334,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="75" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A75" s="116" t="s">
         <v>162</v>
       </c>
@@ -23455,7 +23454,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="76" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A76" s="116" t="s">
         <v>163</v>
       </c>
@@ -23561,7 +23560,7 @@
       <c r="AU76" s="109"/>
       <c r="AV76" s="109"/>
     </row>
-    <row r="77" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A77" s="116" t="s">
         <v>2248</v>
       </c>
@@ -23673,7 +23672,7 @@
       <c r="AU77" s="109"/>
       <c r="AV77" s="109"/>
     </row>
-    <row r="78" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A78" s="116" t="s">
         <v>2242</v>
       </c>
@@ -23799,7 +23798,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="79" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A79" s="116" t="s">
         <v>2242</v>
       </c>
@@ -23901,7 +23900,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="80" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A80" s="116" t="s">
         <v>167</v>
       </c>
@@ -24015,7 +24014,7 @@
       <c r="AU80" s="109"/>
       <c r="AV80" s="109"/>
     </row>
-    <row r="81" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A81" s="116" t="s">
         <v>171</v>
       </c>
@@ -24137,7 +24136,7 @@
       <c r="AU81" s="109"/>
       <c r="AV81" s="109"/>
     </row>
-    <row r="82" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A82" s="116" t="s">
         <v>173</v>
       </c>
@@ -24251,7 +24250,7 @@
       <c r="AU82" s="109"/>
       <c r="AV82" s="109"/>
     </row>
-    <row r="83" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A83" s="116" t="s">
         <v>174</v>
       </c>
@@ -24355,7 +24354,7 @@
       <c r="AU83" s="109"/>
       <c r="AV83" s="109"/>
     </row>
-    <row r="84" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A84" s="116" t="s">
         <v>2226</v>
       </c>
@@ -24475,7 +24474,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="85" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A85" s="116" t="s">
         <v>176</v>
       </c>
@@ -24579,7 +24578,7 @@
       <c r="AU85" s="109"/>
       <c r="AV85" s="109"/>
     </row>
-    <row r="86" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A86" s="116" t="s">
         <v>178</v>
       </c>
@@ -24681,7 +24680,7 @@
       <c r="AU86" s="109"/>
       <c r="AV86" s="109"/>
     </row>
-    <row r="87" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A87" s="116" t="s">
         <v>2215</v>
       </c>
@@ -24789,7 +24788,7 @@
       <c r="AU87" s="109"/>
       <c r="AV87" s="109"/>
     </row>
-    <row r="88" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A88" s="116" t="s">
         <v>2215</v>
       </c>
@@ -24897,7 +24896,7 @@
       <c r="AU88" s="109"/>
       <c r="AV88" s="109"/>
     </row>
-    <row r="89" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A89" s="116" t="s">
         <v>2213</v>
       </c>
@@ -25011,7 +25010,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="90" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A90" s="116" t="s">
         <v>2206</v>
       </c>
@@ -25119,7 +25118,7 @@
       <c r="AU90" s="109"/>
       <c r="AV90" s="109"/>
     </row>
-    <row r="91" spans="1:48" s="230" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:48" s="230" customFormat="1" ht="18" hidden="1" customHeight="1">
       <c r="A91" s="116" t="s">
         <v>185</v>
       </c>
@@ -25231,7 +25230,7 @@
       <c r="AU91" s="231"/>
       <c r="AV91" s="231"/>
     </row>
-    <row r="92" spans="1:48" s="289" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:48" s="289" customFormat="1" ht="16.5" customHeight="1">
       <c r="A92" s="293" t="s">
         <v>187</v>
       </c>
@@ -25323,7 +25322,7 @@
       <c r="AU92" s="290"/>
       <c r="AV92" s="290"/>
     </row>
-    <row r="93" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A93" s="116" t="s">
         <v>189</v>
       </c>
@@ -25437,7 +25436,7 @@
       <c r="AU93" s="109"/>
       <c r="AV93" s="109"/>
     </row>
-    <row r="94" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A94" s="116" t="s">
         <v>192</v>
       </c>
@@ -25553,7 +25552,7 @@
       <c r="AU94" s="109"/>
       <c r="AV94" s="109"/>
     </row>
-    <row r="95" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A95" s="116" t="s">
         <v>195</v>
       </c>
@@ -25665,7 +25664,7 @@
       <c r="AU95" s="109"/>
       <c r="AV95" s="109"/>
     </row>
-    <row r="96" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A96" s="116" t="s">
         <v>2191</v>
       </c>
@@ -25781,7 +25780,7 @@
       <c r="AU96" s="109"/>
       <c r="AV96" s="109"/>
     </row>
-    <row r="97" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A97" s="116" t="s">
         <v>2186</v>
       </c>
@@ -25901,7 +25900,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="98" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A98" s="119" t="s">
         <v>200</v>
       </c>
@@ -25991,7 +25990,7 @@
       <c r="AU98" s="109"/>
       <c r="AV98" s="109"/>
     </row>
-    <row r="99" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A99" s="220" t="s">
         <v>202</v>
       </c>
@@ -26107,7 +26106,7 @@
       <c r="AU99" s="109"/>
       <c r="AV99" s="109"/>
     </row>
-    <row r="100" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A100" s="116" t="s">
         <v>202</v>
       </c>
@@ -26223,7 +26222,7 @@
       <c r="AU100" s="109"/>
       <c r="AV100" s="109"/>
     </row>
-    <row r="101" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A101" s="116" t="s">
         <v>208</v>
       </c>
@@ -26331,7 +26330,7 @@
       <c r="AU101" s="109"/>
       <c r="AV101" s="109"/>
     </row>
-    <row r="102" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A102" s="119" t="s">
         <v>212</v>
       </c>
@@ -26441,7 +26440,7 @@
       <c r="AU102" s="109"/>
       <c r="AV102" s="109"/>
     </row>
-    <row r="103" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A103" s="116" t="s">
         <v>213</v>
       </c>
@@ -26553,7 +26552,7 @@
       <c r="AU103" s="109"/>
       <c r="AV103" s="109"/>
     </row>
-    <row r="104" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A104" s="116" t="s">
         <v>213</v>
       </c>
@@ -26665,7 +26664,7 @@
       <c r="AU104" s="109"/>
       <c r="AV104" s="109"/>
     </row>
-    <row r="105" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A105" s="116" t="s">
         <v>217</v>
       </c>
@@ -26777,7 +26776,7 @@
       <c r="AU105" s="109"/>
       <c r="AV105" s="109"/>
     </row>
-    <row r="106" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A106" s="116" t="s">
         <v>221</v>
       </c>
@@ -26891,7 +26890,7 @@
       <c r="AU106" s="109"/>
       <c r="AV106" s="109"/>
     </row>
-    <row r="107" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A107" s="116" t="s">
         <v>223</v>
       </c>
@@ -27019,7 +27018,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="108" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A108" s="116" t="s">
         <v>2160</v>
       </c>
@@ -27133,7 +27132,7 @@
       <c r="AU108" s="109"/>
       <c r="AV108" s="109"/>
     </row>
-    <row r="109" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A109" s="116" t="s">
         <v>2156</v>
       </c>
@@ -27253,7 +27252,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="110" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A110" s="116" t="s">
         <v>2148</v>
       </c>
@@ -27363,7 +27362,7 @@
       <c r="AU110" s="109"/>
       <c r="AV110" s="109"/>
     </row>
-    <row r="111" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A111" s="116" t="s">
         <v>228</v>
       </c>
@@ -27467,7 +27466,7 @@
       <c r="AU111" s="109"/>
       <c r="AV111" s="109"/>
     </row>
-    <row r="112" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A112" s="116" t="s">
         <v>2141</v>
       </c>
@@ -27595,7 +27594,7 @@
       <c r="AU112" s="109"/>
       <c r="AV112" s="109"/>
     </row>
-    <row r="113" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A113" s="116" t="s">
         <v>2140</v>
       </c>
@@ -27723,7 +27722,7 @@
       <c r="AU113" s="109"/>
       <c r="AV113" s="109"/>
     </row>
-    <row r="114" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A114" s="116" t="s">
         <v>2139</v>
       </c>
@@ -27851,7 +27850,7 @@
       <c r="AU114" s="109"/>
       <c r="AV114" s="109"/>
     </row>
-    <row r="115" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A115" s="116" t="s">
         <v>2138</v>
       </c>
@@ -27979,7 +27978,7 @@
       <c r="AU115" s="109"/>
       <c r="AV115" s="109"/>
     </row>
-    <row r="116" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A116" s="116" t="s">
         <v>2136</v>
       </c>
@@ -28103,7 +28102,7 @@
       <c r="AU116" s="109"/>
       <c r="AV116" s="109"/>
     </row>
-    <row r="117" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A117" s="116" t="s">
         <v>2135</v>
       </c>
@@ -28227,7 +28226,7 @@
       <c r="AU117" s="109"/>
       <c r="AV117" s="109"/>
     </row>
-    <row r="118" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A118" s="116" t="s">
         <v>2134</v>
       </c>
@@ -28351,7 +28350,7 @@
       <c r="AU118" s="109"/>
       <c r="AV118" s="109"/>
     </row>
-    <row r="119" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A119" s="116" t="s">
         <v>2131</v>
       </c>
@@ -28479,7 +28478,7 @@
       <c r="AU119" s="109"/>
       <c r="AV119" s="109"/>
     </row>
-    <row r="120" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A120" s="116" t="s">
         <v>2130</v>
       </c>
@@ -28607,7 +28606,7 @@
       <c r="AU120" s="109"/>
       <c r="AV120" s="109"/>
     </row>
-    <row r="121" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A121" s="116" t="s">
         <v>2123</v>
       </c>
@@ -28721,7 +28720,7 @@
       <c r="AU121" s="109"/>
       <c r="AV121" s="109"/>
     </row>
-    <row r="122" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A122" s="116" t="s">
         <v>2118</v>
       </c>
@@ -28837,7 +28836,7 @@
       <c r="AU122" s="109"/>
       <c r="AV122" s="109"/>
     </row>
-    <row r="123" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A123" s="116" t="s">
         <v>2117</v>
       </c>
@@ -28953,7 +28952,7 @@
       <c r="AU123" s="109"/>
       <c r="AV123" s="109"/>
     </row>
-    <row r="124" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A124" s="116" t="s">
         <v>230</v>
       </c>
@@ -29065,7 +29064,7 @@
       <c r="AU124" s="109"/>
       <c r="AV124" s="109"/>
     </row>
-    <row r="125" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A125" s="116" t="s">
         <v>233</v>
       </c>
@@ -29177,7 +29176,7 @@
       <c r="AU125" s="109"/>
       <c r="AV125" s="109"/>
     </row>
-    <row r="126" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A126" s="116" t="s">
         <v>2106</v>
       </c>
@@ -29311,7 +29310,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A127" s="116" t="s">
         <v>2104</v>
       </c>
@@ -29445,7 +29444,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A128" s="116" t="s">
         <v>2103</v>
       </c>
@@ -29579,7 +29578,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A129" s="119" t="s">
         <v>2097</v>
       </c>
@@ -29687,7 +29686,7 @@
       <c r="AU129" s="109"/>
       <c r="AV129" s="109"/>
     </row>
-    <row r="130" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A130" s="116" t="s">
         <v>2093</v>
       </c>
@@ -29801,7 +29800,7 @@
       <c r="AU130" s="109"/>
       <c r="AV130" s="109"/>
     </row>
-    <row r="131" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A131" s="116" t="s">
         <v>239</v>
       </c>
@@ -29905,7 +29904,7 @@
       <c r="AU131" s="109"/>
       <c r="AV131" s="109"/>
     </row>
-    <row r="132" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A132" s="116" t="s">
         <v>240</v>
       </c>
@@ -30017,7 +30016,7 @@
       <c r="AU132" s="109"/>
       <c r="AV132" s="109"/>
     </row>
-    <row r="133" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A133" s="116" t="s">
         <v>241</v>
       </c>
@@ -30123,7 +30122,7 @@
       <c r="AU133" s="109"/>
       <c r="AV133" s="109"/>
     </row>
-    <row r="134" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A134" s="116" t="s">
         <v>244</v>
       </c>
@@ -30233,7 +30232,7 @@
       <c r="AU134" s="109"/>
       <c r="AV134" s="109"/>
     </row>
-    <row r="135" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A135" s="116" t="s">
         <v>248</v>
       </c>
@@ -30341,7 +30340,7 @@
       <c r="AU135" s="109"/>
       <c r="AV135" s="109"/>
     </row>
-    <row r="136" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A136" s="116" t="s">
         <v>250</v>
       </c>
@@ -30453,7 +30452,7 @@
       <c r="AU136" s="109"/>
       <c r="AV136" s="109"/>
     </row>
-    <row r="137" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A137" s="116" t="s">
         <v>2074</v>
       </c>
@@ -30565,7 +30564,7 @@
       <c r="AU137" s="109"/>
       <c r="AV137" s="109"/>
     </row>
-    <row r="138" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A138" s="116" t="s">
         <v>2069</v>
       </c>
@@ -30677,7 +30676,7 @@
       <c r="AU138" s="109"/>
       <c r="AV138" s="109"/>
     </row>
-    <row r="139" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A139" s="116" t="s">
         <v>2063</v>
       </c>
@@ -30799,7 +30798,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="140" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A140" s="116" t="s">
         <v>2062</v>
       </c>
@@ -30921,7 +30920,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="141" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A141" s="116" t="s">
         <v>2060</v>
       </c>
@@ -31043,7 +31042,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="142" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A142" s="116" t="s">
         <v>255</v>
       </c>
@@ -31137,7 +31136,7 @@
       <c r="AU142" s="109"/>
       <c r="AV142" s="109"/>
     </row>
-    <row r="143" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A143" s="116" t="s">
         <v>2049</v>
       </c>
@@ -31249,7 +31248,7 @@
       <c r="AU143" s="109"/>
       <c r="AV143" s="109"/>
     </row>
-    <row r="144" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A144" s="116" t="s">
         <v>258</v>
       </c>
@@ -31353,7 +31352,7 @@
       <c r="AU144" s="109"/>
       <c r="AV144" s="109"/>
     </row>
-    <row r="145" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A145" s="116" t="s">
         <v>260</v>
       </c>
@@ -31459,7 +31458,7 @@
       <c r="AU145" s="109"/>
       <c r="AV145" s="109"/>
     </row>
-    <row r="146" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A146" s="116" t="s">
         <v>262</v>
       </c>
@@ -31581,7 +31580,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="147" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A147" s="116" t="s">
         <v>2031</v>
       </c>
@@ -31699,7 +31698,7 @@
       <c r="AU147" s="109"/>
       <c r="AV147" s="109"/>
     </row>
-    <row r="148" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A148" s="116" t="s">
         <v>2030</v>
       </c>
@@ -31813,7 +31812,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A149" s="119" t="s">
         <v>2024</v>
       </c>
@@ -31917,7 +31916,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="150" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A150" s="116" t="s">
         <v>267</v>
       </c>
@@ -32037,7 +32036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A151" s="116" t="s">
         <v>269</v>
       </c>
@@ -32145,7 +32144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A152" s="116" t="s">
         <v>273</v>
       </c>
@@ -32253,7 +32252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:48" s="112" customFormat="1" hidden="1">
       <c r="A153" s="116" t="s">
         <v>275</v>
       </c>
@@ -32361,7 +32360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A154" s="116" t="s">
         <v>277</v>
       </c>
@@ -32473,7 +32472,7 @@
       <c r="AU154" s="109"/>
       <c r="AV154" s="109"/>
     </row>
-    <row r="155" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A155" s="116" t="s">
         <v>279</v>
       </c>
@@ -32583,7 +32582,7 @@
       <c r="AU155" s="109"/>
       <c r="AV155" s="109"/>
     </row>
-    <row r="156" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A156" s="116" t="s">
         <v>281</v>
       </c>
@@ -32695,7 +32694,7 @@
       <c r="AU156" s="109"/>
       <c r="AV156" s="109"/>
     </row>
-    <row r="157" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A157" s="116" t="s">
         <v>283</v>
       </c>
@@ -32807,7 +32806,7 @@
       <c r="AU157" s="109"/>
       <c r="AV157" s="109"/>
     </row>
-    <row r="158" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A158" s="116" t="s">
         <v>285</v>
       </c>
@@ -32917,7 +32916,7 @@
       <c r="AU158" s="109"/>
       <c r="AV158" s="109"/>
     </row>
-    <row r="159" spans="1:48" s="234" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:48" s="234" customFormat="1" ht="16.5" customHeight="1">
       <c r="A159" s="116" t="s">
         <v>2005</v>
       </c>
@@ -33029,7 +33028,7 @@
       <c r="AU159" s="235"/>
       <c r="AV159" s="235"/>
     </row>
-    <row r="160" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A160" s="116" t="s">
         <v>287</v>
       </c>
@@ -33149,7 +33148,7 @@
       <c r="AU160" s="109"/>
       <c r="AV160" s="109"/>
     </row>
-    <row r="161" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A161" s="116" t="s">
         <v>288</v>
       </c>
@@ -33261,7 +33260,7 @@
       <c r="AU161" s="109"/>
       <c r="AV161" s="109"/>
     </row>
-    <row r="162" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A162" s="116" t="s">
         <v>1996</v>
       </c>
@@ -33381,7 +33380,7 @@
       </c>
       <c r="AV162" s="109"/>
     </row>
-    <row r="163" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A163" s="119" t="s">
         <v>1989</v>
       </c>
@@ -33499,7 +33498,7 @@
       <c r="AU163" s="109"/>
       <c r="AV163" s="109"/>
     </row>
-    <row r="164" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A164" s="119" t="s">
         <v>1988</v>
       </c>
@@ -33617,7 +33616,7 @@
       <c r="AU164" s="109"/>
       <c r="AV164" s="109"/>
     </row>
-    <row r="165" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A165" s="119" t="s">
         <v>290</v>
       </c>
@@ -33707,7 +33706,7 @@
       <c r="AU165" s="109"/>
       <c r="AV165" s="109"/>
     </row>
-    <row r="166" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A166" s="116" t="s">
         <v>291</v>
       </c>
@@ -33823,7 +33822,7 @@
       <c r="AU166" s="109"/>
       <c r="AV166" s="109"/>
     </row>
-    <row r="167" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A167" s="116" t="s">
         <v>291</v>
       </c>
@@ -33939,7 +33938,7 @@
       <c r="AU167" s="109"/>
       <c r="AV167" s="109"/>
     </row>
-    <row r="168" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A168" s="116" t="s">
         <v>291</v>
       </c>
@@ -34055,7 +34054,7 @@
       <c r="AU168" s="109"/>
       <c r="AV168" s="109"/>
     </row>
-    <row r="169" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A169" s="116" t="s">
         <v>291</v>
       </c>
@@ -34171,7 +34170,7 @@
       <c r="AU169" s="109"/>
       <c r="AV169" s="109"/>
     </row>
-    <row r="170" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A170" s="116" t="s">
         <v>291</v>
       </c>
@@ -34287,7 +34286,7 @@
       <c r="AU170" s="109"/>
       <c r="AV170" s="109"/>
     </row>
-    <row r="171" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A171" s="116" t="s">
         <v>291</v>
       </c>
@@ -34403,7 +34402,7 @@
       <c r="AU171" s="109"/>
       <c r="AV171" s="109"/>
     </row>
-    <row r="172" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A172" s="116" t="s">
         <v>1976</v>
       </c>
@@ -34509,7 +34508,7 @@
       <c r="AU172" s="109"/>
       <c r="AV172" s="109"/>
     </row>
-    <row r="173" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A173" s="116" t="s">
         <v>301</v>
       </c>
@@ -34615,7 +34614,7 @@
       <c r="AU173" s="109"/>
       <c r="AV173" s="109"/>
     </row>
-    <row r="174" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A174" s="116" t="s">
         <v>1970</v>
       </c>
@@ -34729,7 +34728,7 @@
       <c r="AU174" s="109"/>
       <c r="AV174" s="109"/>
     </row>
-    <row r="175" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A175" s="116" t="s">
         <v>1970</v>
       </c>
@@ -34837,7 +34836,7 @@
       <c r="AU175" s="109"/>
       <c r="AV175" s="109"/>
     </row>
-    <row r="176" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A176" s="116" t="s">
         <v>1964</v>
       </c>
@@ -34951,7 +34950,7 @@
       <c r="AU176" s="109"/>
       <c r="AV176" s="109"/>
     </row>
-    <row r="177" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A177" s="116" t="s">
         <v>1964</v>
       </c>
@@ -35061,7 +35060,7 @@
       <c r="AU177" s="109"/>
       <c r="AV177" s="109"/>
     </row>
-    <row r="178" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A178" s="119" t="s">
         <v>309</v>
       </c>
@@ -35175,7 +35174,7 @@
       <c r="AU178" s="109"/>
       <c r="AV178" s="109"/>
     </row>
-    <row r="179" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A179" s="116" t="s">
         <v>312</v>
       </c>
@@ -35291,7 +35290,7 @@
       <c r="AU179" s="109"/>
       <c r="AV179" s="109"/>
     </row>
-    <row r="180" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A180" s="119" t="s">
         <v>313</v>
       </c>
@@ -35383,7 +35382,7 @@
       <c r="AU180" s="109"/>
       <c r="AV180" s="109"/>
     </row>
-    <row r="181" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A181" s="119" t="s">
         <v>316</v>
       </c>
@@ -35475,7 +35474,7 @@
       <c r="AU181" s="109"/>
       <c r="AV181" s="109"/>
     </row>
-    <row r="182" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A182" s="119" t="s">
         <v>317</v>
       </c>
@@ -35569,7 +35568,7 @@
       <c r="AU182" s="109"/>
       <c r="AV182" s="109"/>
     </row>
-    <row r="183" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A183" s="116" t="s">
         <v>1943</v>
       </c>
@@ -35687,7 +35686,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="184" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A184" s="116" t="s">
         <v>318</v>
       </c>
@@ -35793,7 +35792,7 @@
       <c r="AU184" s="109"/>
       <c r="AV184" s="109"/>
     </row>
-    <row r="185" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A185" s="116" t="s">
         <v>322</v>
       </c>
@@ -35915,7 +35914,7 @@
       <c r="AU185" s="109"/>
       <c r="AV185" s="109"/>
     </row>
-    <row r="186" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A186" s="116" t="s">
         <v>324</v>
       </c>
@@ -36027,7 +36026,7 @@
       <c r="AU186" s="109"/>
       <c r="AV186" s="109"/>
     </row>
-    <row r="187" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
       <c r="A187" s="116" t="s">
         <v>325</v>
       </c>
@@ -36151,7 +36150,7 @@
       <c r="AU187" s="109"/>
       <c r="AV187" s="109"/>
     </row>
-    <row r="188" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
       <c r="A188" s="116" t="s">
         <v>1918</v>
       </c>
@@ -36261,7 +36260,7 @@
       <c r="AU188" s="235"/>
       <c r="AV188" s="235"/>
     </row>
-    <row r="189" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
       <c r="A189" s="116" t="s">
         <v>1916</v>
       </c>
@@ -36379,7 +36378,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="190" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
       <c r="A190" s="116" t="s">
         <v>1910</v>
       </c>
@@ -36485,7 +36484,7 @@
       <c r="AU190" s="235"/>
       <c r="AV190" s="235"/>
     </row>
-    <row r="191" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A191" s="116" t="s">
         <v>1909</v>
       </c>
@@ -36595,7 +36594,7 @@
       <c r="AU191" s="109"/>
       <c r="AV191" s="109"/>
     </row>
-    <row r="192" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A192" s="116" t="s">
         <v>330</v>
       </c>
@@ -36701,7 +36700,7 @@
       <c r="AU192" s="109"/>
       <c r="AV192" s="109"/>
     </row>
-    <row r="193" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A193" s="116" t="s">
         <v>1906</v>
       </c>
@@ -36815,7 +36814,7 @@
       <c r="AU193" s="109"/>
       <c r="AV193" s="109"/>
     </row>
-    <row r="194" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A194" s="116" t="s">
         <v>333</v>
       </c>
@@ -36919,7 +36918,7 @@
       <c r="AU194" s="109"/>
       <c r="AV194" s="109"/>
     </row>
-    <row r="195" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A195" s="116" t="s">
         <v>334</v>
       </c>
@@ -37023,7 +37022,7 @@
       <c r="AU195" s="109"/>
       <c r="AV195" s="109"/>
     </row>
-    <row r="196" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A196" s="116" t="s">
         <v>335</v>
       </c>
@@ -37133,7 +37132,7 @@
       <c r="AU196" s="109"/>
       <c r="AV196" s="109"/>
     </row>
-    <row r="197" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A197" s="116" t="s">
         <v>1898</v>
       </c>
@@ -37245,7 +37244,7 @@
       </c>
       <c r="AV197" s="109"/>
     </row>
-    <row r="198" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A198" s="119" t="s">
         <v>1896</v>
       </c>
@@ -37329,7 +37328,7 @@
       <c r="AU198" s="109"/>
       <c r="AV198" s="109"/>
     </row>
-    <row r="199" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A199" s="116" t="s">
         <v>1895</v>
       </c>
@@ -37445,7 +37444,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="200" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A200" s="116" t="s">
         <v>1890</v>
       </c>
@@ -37555,7 +37554,7 @@
       <c r="AU200" s="109"/>
       <c r="AV200" s="109"/>
     </row>
-    <row r="201" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A201" s="116" t="s">
         <v>1889</v>
       </c>
@@ -37665,7 +37664,7 @@
       <c r="AU201" s="109"/>
       <c r="AV201" s="109"/>
     </row>
-    <row r="202" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A202" s="116" t="s">
         <v>343</v>
       </c>
@@ -37779,7 +37778,7 @@
       <c r="AU202" s="109"/>
       <c r="AV202" s="109"/>
     </row>
-    <row r="203" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A203" s="116" t="s">
         <v>345</v>
       </c>
@@ -37893,7 +37892,7 @@
       <c r="AU203" s="109"/>
       <c r="AV203" s="109"/>
     </row>
-    <row r="204" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A204" s="116" t="s">
         <v>1888</v>
       </c>
@@ -38009,7 +38008,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="205" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A205" s="116" t="s">
         <v>1883</v>
       </c>
@@ -38131,7 +38130,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="206" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A206" s="116" t="s">
         <v>1882</v>
       </c>
@@ -38253,7 +38252,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="207" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A207" s="116" t="s">
         <v>1878</v>
       </c>
@@ -38369,7 +38368,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A208" s="116" t="s">
         <v>1873</v>
       </c>
@@ -38493,7 +38492,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A209" s="116" t="s">
         <v>1872</v>
       </c>
@@ -38617,7 +38616,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:48" s="142" customFormat="1">
       <c r="A210" s="116" t="s">
         <v>1865</v>
       </c>
@@ -38731,7 +38730,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="142" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:48" s="142" customFormat="1">
       <c r="A211" s="116" t="s">
         <v>1858</v>
       </c>
@@ -38841,7 +38840,7 @@
       <c r="AU211" s="109"/>
       <c r="AV211" s="109"/>
     </row>
-    <row r="212" spans="1:48" s="230" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:48" s="230" customFormat="1">
       <c r="A212" s="116" t="s">
         <v>1855</v>
       </c>
@@ -38951,7 +38950,7 @@
       <c r="AU212" s="231"/>
       <c r="AV212" s="231"/>
     </row>
-    <row r="213" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A213" s="116" t="s">
         <v>354</v>
       </c>
@@ -39061,7 +39060,7 @@
       <c r="AU213" s="109"/>
       <c r="AV213" s="109"/>
     </row>
-    <row r="214" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A214" s="116" t="s">
         <v>1850</v>
       </c>
@@ -39179,7 +39178,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A215" s="116" t="s">
         <v>1846</v>
       </c>
@@ -39291,7 +39290,7 @@
       <c r="AU215" s="109"/>
       <c r="AV215" s="109"/>
     </row>
-    <row r="216" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A216" s="119" t="s">
         <v>358</v>
       </c>
@@ -39373,7 +39372,7 @@
       <c r="AU216" s="109"/>
       <c r="AV216" s="109"/>
     </row>
-    <row r="217" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A217" s="116" t="s">
         <v>1844</v>
       </c>
@@ -39487,7 +39486,7 @@
       <c r="AU217" s="109"/>
       <c r="AV217" s="109"/>
     </row>
-    <row r="218" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A218" s="116" t="s">
         <v>1842</v>
       </c>
@@ -39595,7 +39594,7 @@
       <c r="AU218" s="109"/>
       <c r="AV218" s="109"/>
     </row>
-    <row r="219" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A219" s="116" t="s">
         <v>362</v>
       </c>
@@ -39707,7 +39706,7 @@
       <c r="AU219" s="109"/>
       <c r="AV219" s="109"/>
     </row>
-    <row r="220" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A220" s="116" t="s">
         <v>364</v>
       </c>
@@ -39821,7 +39820,7 @@
       <c r="AU220" s="109"/>
       <c r="AV220" s="109"/>
     </row>
-    <row r="221" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A221" s="116" t="s">
         <v>366</v>
       </c>
@@ -39935,7 +39934,7 @@
       <c r="AU221" s="109"/>
       <c r="AV221" s="109"/>
     </row>
-    <row r="222" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A222" s="116" t="s">
         <v>1835</v>
       </c>
@@ -40045,7 +40044,7 @@
       <c r="AU222" s="109"/>
       <c r="AV222" s="109"/>
     </row>
-    <row r="223" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A223" s="116" t="s">
         <v>1833</v>
       </c>
@@ -40155,7 +40154,7 @@
       <c r="AU223" s="109"/>
       <c r="AV223" s="109"/>
     </row>
-    <row r="224" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A224" s="119" t="s">
         <v>1830</v>
       </c>
@@ -40259,7 +40258,7 @@
       <c r="AU224" s="109"/>
       <c r="AV224" s="109"/>
     </row>
-    <row r="225" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A225" s="116" t="s">
         <v>1829</v>
       </c>
@@ -40377,7 +40376,7 @@
       <c r="AU225" s="109"/>
       <c r="AV225" s="109"/>
     </row>
-    <row r="226" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A226" s="116" t="s">
         <v>371</v>
       </c>
@@ -40491,7 +40490,7 @@
       <c r="AU226" s="109"/>
       <c r="AV226" s="109"/>
     </row>
-    <row r="227" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A227" s="116" t="s">
         <v>1826</v>
       </c>
@@ -40603,7 +40602,7 @@
       <c r="AU227" s="109"/>
       <c r="AV227" s="109"/>
     </row>
-    <row r="228" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A228" s="119" t="s">
         <v>374</v>
       </c>
@@ -40687,7 +40686,7 @@
       <c r="AU228" s="109"/>
       <c r="AV228" s="109"/>
     </row>
-    <row r="229" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A229" s="116" t="s">
         <v>376</v>
       </c>
@@ -40799,7 +40798,7 @@
       <c r="AU229" s="109"/>
       <c r="AV229" s="109"/>
     </row>
-    <row r="230" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A230" s="116" t="s">
         <v>1824</v>
       </c>
@@ -40907,7 +40906,7 @@
       <c r="AU230" s="109"/>
       <c r="AV230" s="109"/>
     </row>
-    <row r="231" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A231" s="116" t="s">
         <v>378</v>
       </c>
@@ -41019,7 +41018,7 @@
       <c r="AU231" s="109"/>
       <c r="AV231" s="109"/>
     </row>
-    <row r="232" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A232" s="116" t="s">
         <v>1820</v>
       </c>
@@ -41129,7 +41128,7 @@
       <c r="AU232" s="109"/>
       <c r="AV232" s="109"/>
     </row>
-    <row r="233" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A233" s="116" t="s">
         <v>1818</v>
       </c>
@@ -41239,7 +41238,7 @@
       </c>
       <c r="AV233" s="109"/>
     </row>
-    <row r="234" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A234" s="116" t="s">
         <v>1814</v>
       </c>
@@ -41353,7 +41352,7 @@
       <c r="AU234" s="109"/>
       <c r="AV234" s="109"/>
     </row>
-    <row r="235" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A235" s="116" t="s">
         <v>383</v>
       </c>
@@ -41463,7 +41462,7 @@
       <c r="AU235" s="109"/>
       <c r="AV235" s="109"/>
     </row>
-    <row r="236" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A236" s="116" t="s">
         <v>385</v>
       </c>
@@ -41573,7 +41572,7 @@
       <c r="AU236" s="109"/>
       <c r="AV236" s="109"/>
     </row>
-    <row r="237" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A237" s="116" t="s">
         <v>387</v>
       </c>
@@ -41685,7 +41684,7 @@
       <c r="AU237" s="109"/>
       <c r="AV237" s="109"/>
     </row>
-    <row r="238" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A238" s="116" t="s">
         <v>388</v>
       </c>
@@ -41801,7 +41800,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="239" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A239" s="116" t="s">
         <v>1808</v>
       </c>
@@ -41913,7 +41912,7 @@
       <c r="AU239" s="109"/>
       <c r="AV239" s="109"/>
     </row>
-    <row r="240" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A240" s="116" t="s">
         <v>1806</v>
       </c>
@@ -42032,7 +42031,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A241" s="116" t="s">
         <v>1800</v>
       </c>
@@ -42152,7 +42151,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A242" s="116" t="s">
         <v>1795</v>
       </c>
@@ -42274,7 +42273,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A243" s="116" t="s">
         <v>1790</v>
       </c>
@@ -42388,7 +42387,7 @@
       <c r="AU243" s="109"/>
       <c r="AV243" s="109"/>
     </row>
-    <row r="244" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A244" s="116" t="s">
         <v>1789</v>
       </c>
@@ -42504,7 +42503,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A245" s="116" t="s">
         <v>1784</v>
       </c>
@@ -42618,7 +42617,7 @@
       <c r="AU245" s="109"/>
       <c r="AV245" s="109"/>
     </row>
-    <row r="246" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A246" s="116" t="s">
         <v>1781</v>
       </c>
@@ -42728,7 +42727,7 @@
       <c r="AU246" s="109"/>
       <c r="AV246" s="109"/>
     </row>
-    <row r="247" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A247" s="116" t="s">
         <v>1780</v>
       </c>
@@ -42840,7 +42839,7 @@
       <c r="AU247" s="109"/>
       <c r="AV247" s="109"/>
     </row>
-    <row r="248" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A248" s="116" t="s">
         <v>1778</v>
       </c>
@@ -42956,7 +42955,7 @@
       </c>
       <c r="AV248" s="109"/>
     </row>
-    <row r="249" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A249" s="116" t="s">
         <v>1774</v>
       </c>
@@ -43066,7 +43065,7 @@
       <c r="AU249" s="109"/>
       <c r="AV249" s="109"/>
     </row>
-    <row r="250" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A250" s="116" t="s">
         <v>1772</v>
       </c>
@@ -43178,7 +43177,7 @@
       <c r="AU250" s="109"/>
       <c r="AV250" s="109"/>
     </row>
-    <row r="251" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A251" s="116" t="s">
         <v>1769</v>
       </c>
@@ -43288,7 +43287,7 @@
       <c r="AU251" s="109"/>
       <c r="AV251" s="109"/>
     </row>
-    <row r="252" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A252" s="116" t="s">
         <v>403</v>
       </c>
@@ -43404,7 +43403,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="253" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A253" s="116" t="s">
         <v>1765</v>
       </c>
@@ -43518,7 +43517,7 @@
       <c r="AU253" s="109"/>
       <c r="AV253" s="109"/>
     </row>
-    <row r="254" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A254" s="116" t="s">
         <v>1763</v>
       </c>
@@ -43636,7 +43635,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="255" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A255" s="116" t="s">
         <v>1757</v>
       </c>
@@ -43754,7 +43753,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="256" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A256" s="116" t="s">
         <v>1753</v>
       </c>
@@ -43862,7 +43861,7 @@
       <c r="AU256" s="109"/>
       <c r="AV256" s="109"/>
     </row>
-    <row r="257" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A257" s="116" t="s">
         <v>1750</v>
       </c>
@@ -43980,7 +43979,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="258" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A258" s="116" t="s">
         <v>1747</v>
       </c>
@@ -44092,7 +44091,7 @@
       <c r="AU258" s="109"/>
       <c r="AV258" s="109"/>
     </row>
-    <row r="259" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A259" s="116" t="s">
         <v>1743</v>
       </c>
@@ -44206,7 +44205,7 @@
       <c r="AU259" s="109"/>
       <c r="AV259" s="109"/>
     </row>
-    <row r="260" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A260" s="116" t="s">
         <v>1741</v>
       </c>
@@ -44318,7 +44317,7 @@
       <c r="AU260" s="109"/>
       <c r="AV260" s="109"/>
     </row>
-    <row r="261" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A261" s="116" t="s">
         <v>1739</v>
       </c>
@@ -44430,7 +44429,7 @@
       <c r="AU261" s="109"/>
       <c r="AV261" s="109"/>
     </row>
-    <row r="262" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A262" s="116" t="s">
         <v>1737</v>
       </c>
@@ -44542,7 +44541,7 @@
       <c r="AU262" s="109"/>
       <c r="AV262" s="109"/>
     </row>
-    <row r="263" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A263" s="116" t="s">
         <v>409</v>
       </c>
@@ -44652,7 +44651,7 @@
       <c r="AU263" s="109"/>
       <c r="AV263" s="109"/>
     </row>
-    <row r="264" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A264" s="116" t="s">
         <v>1734</v>
       </c>
@@ -44762,7 +44761,7 @@
       <c r="AU264" s="109"/>
       <c r="AV264" s="109"/>
     </row>
-    <row r="265" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A265" s="116" t="s">
         <v>412</v>
       </c>
@@ -44870,7 +44869,7 @@
       <c r="AU265" s="109"/>
       <c r="AV265" s="109"/>
     </row>
-    <row r="266" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A266" s="116" t="s">
         <v>1730</v>
       </c>
@@ -44986,7 +44985,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="267" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A267" s="116" t="s">
         <v>1729</v>
       </c>
@@ -45100,7 +45099,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="268" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A268" s="116" t="s">
         <v>1725</v>
       </c>
@@ -45210,7 +45209,7 @@
       <c r="AU268" s="109"/>
       <c r="AV268" s="109"/>
     </row>
-    <row r="269" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A269" s="116" t="s">
         <v>1723</v>
       </c>
@@ -45322,7 +45321,7 @@
       <c r="AU269" s="109"/>
       <c r="AV269" s="109"/>
     </row>
-    <row r="270" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A270" s="116" t="s">
         <v>1721</v>
       </c>
@@ -45436,7 +45435,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="271" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A271" s="116" t="s">
         <v>1719</v>
       </c>
@@ -45552,7 +45551,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="272" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A272" s="116" t="s">
         <v>1717</v>
       </c>
@@ -45668,7 +45667,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="273" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A273" s="116" t="s">
         <v>1713</v>
       </c>
@@ -45776,7 +45775,7 @@
       <c r="AU273" s="109"/>
       <c r="AV273" s="109"/>
     </row>
-    <row r="274" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A274" s="116" t="s">
         <v>1711</v>
       </c>
@@ -45886,7 +45885,7 @@
       <c r="AU274" s="109"/>
       <c r="AV274" s="109"/>
     </row>
-    <row r="275" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A275" s="116" t="s">
         <v>1708</v>
       </c>
@@ -45996,7 +45995,7 @@
       <c r="AU275" s="109"/>
       <c r="AV275" s="109"/>
     </row>
-    <row r="276" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A276" s="116" t="s">
         <v>1706</v>
       </c>
@@ -46104,7 +46103,7 @@
       <c r="AU276" s="109"/>
       <c r="AV276" s="109"/>
     </row>
-    <row r="277" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A277" s="116" t="s">
         <v>424</v>
       </c>
@@ -46212,7 +46211,7 @@
       <c r="AU277" s="109"/>
       <c r="AV277" s="109"/>
     </row>
-    <row r="278" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A278" s="116" t="s">
         <v>426</v>
       </c>
@@ -46320,7 +46319,7 @@
       <c r="AU278" s="109"/>
       <c r="AV278" s="109"/>
     </row>
-    <row r="279" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A279" s="116" t="s">
         <v>1701</v>
       </c>
@@ -46430,7 +46429,7 @@
       <c r="AU279" s="109"/>
       <c r="AV279" s="109"/>
     </row>
-    <row r="280" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A280" s="116" t="s">
         <v>1700</v>
       </c>
@@ -46540,7 +46539,7 @@
       <c r="AU280" s="109"/>
       <c r="AV280" s="109"/>
     </row>
-    <row r="281" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A281" s="116" t="s">
         <v>1699</v>
       </c>
@@ -46650,7 +46649,7 @@
       <c r="AU281" s="109"/>
       <c r="AV281" s="109"/>
     </row>
-    <row r="282" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A282" s="116" t="s">
         <v>1698</v>
       </c>
@@ -46760,7 +46759,7 @@
       <c r="AU282" s="109"/>
       <c r="AV282" s="109"/>
     </row>
-    <row r="283" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A283" s="116" t="s">
         <v>1695</v>
       </c>
@@ -46870,7 +46869,7 @@
       <c r="AU283" s="109"/>
       <c r="AV283" s="109"/>
     </row>
-    <row r="284" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A284" s="116" t="s">
         <v>1693</v>
       </c>
@@ -46980,7 +46979,7 @@
       <c r="AU284" s="109"/>
       <c r="AV284" s="109"/>
     </row>
-    <row r="285" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A285" s="119" t="s">
         <v>1691</v>
       </c>
@@ -47064,7 +47063,7 @@
       <c r="AU285" s="109"/>
       <c r="AV285" s="109"/>
     </row>
-    <row r="286" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A286" s="116" t="s">
         <v>1690</v>
       </c>
@@ -47176,7 +47175,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="287" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A287" s="116" t="s">
         <v>1688</v>
       </c>
@@ -47288,7 +47287,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="288" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A288" s="116" t="s">
         <v>1681</v>
       </c>
@@ -47396,7 +47395,7 @@
       <c r="AU288" s="109"/>
       <c r="AV288" s="109"/>
     </row>
-    <row r="289" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A289" s="116" t="s">
         <v>1679</v>
       </c>
@@ -47510,7 +47509,7 @@
       <c r="AU289" s="109"/>
       <c r="AV289" s="109"/>
     </row>
-    <row r="290" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A290" s="116" t="s">
         <v>433</v>
       </c>
@@ -47616,7 +47615,7 @@
       <c r="AU290" s="109"/>
       <c r="AV290" s="109"/>
     </row>
-    <row r="291" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A291" s="116" t="s">
         <v>435</v>
       </c>
@@ -47729,7 +47728,7 @@
       <c r="AU291" s="109"/>
       <c r="AV291" s="109"/>
     </row>
-    <row r="292" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A292" s="116" t="s">
         <v>437</v>
       </c>
@@ -47861,7 +47860,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="293" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A293" s="116" t="s">
         <v>439</v>
       </c>
@@ -47971,7 +47970,7 @@
       <c r="AU293" s="109"/>
       <c r="AV293" s="109"/>
     </row>
-    <row r="294" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A294" s="116" t="s">
         <v>1668</v>
       </c>
@@ -48083,7 +48082,7 @@
       <c r="AU294" s="109"/>
       <c r="AV294" s="109"/>
     </row>
-    <row r="295" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A295" s="116" t="s">
         <v>1665</v>
       </c>
@@ -48195,7 +48194,7 @@
       <c r="AU295" s="109"/>
       <c r="AV295" s="109"/>
     </row>
-    <row r="296" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A296" s="116" t="s">
         <v>1663</v>
       </c>
@@ -48307,7 +48306,7 @@
       <c r="AU296" s="109"/>
       <c r="AV296" s="109"/>
     </row>
-    <row r="297" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A297" s="116" t="s">
         <v>444</v>
       </c>
@@ -48413,7 +48412,7 @@
       <c r="AU297" s="109"/>
       <c r="AV297" s="109"/>
     </row>
-    <row r="298" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A298" s="116" t="s">
         <v>445</v>
       </c>
@@ -48529,7 +48528,7 @@
       <c r="AU298" s="109"/>
       <c r="AV298" s="109"/>
     </row>
-    <row r="299" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A299" s="119" t="s">
         <v>447</v>
       </c>
@@ -48631,7 +48630,7 @@
       <c r="AU299" s="109"/>
       <c r="AV299" s="109"/>
     </row>
-    <row r="300" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A300" s="116" t="s">
         <v>449</v>
       </c>
@@ -48745,7 +48744,7 @@
       <c r="AU300" s="109"/>
       <c r="AV300" s="109"/>
     </row>
-    <row r="301" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A301" s="116" t="s">
         <v>1658</v>
       </c>
@@ -48865,7 +48864,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="302" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A302" s="116" t="s">
         <v>451</v>
       </c>
@@ -48977,7 +48976,7 @@
       <c r="AU302" s="109"/>
       <c r="AV302" s="109"/>
     </row>
-    <row r="303" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A303" s="116" t="s">
         <v>1651</v>
       </c>
@@ -49091,7 +49090,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="304" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A304" s="116" t="s">
         <v>454</v>
       </c>
@@ -49205,7 +49204,7 @@
       <c r="AU304" s="109"/>
       <c r="AV304" s="109"/>
     </row>
-    <row r="305" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A305" s="119" t="s">
         <v>456</v>
       </c>
@@ -49317,7 +49316,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="306" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A306" s="119" t="s">
         <v>459</v>
       </c>
@@ -49403,7 +49402,7 @@
       <c r="AU306" s="109"/>
       <c r="AV306" s="109"/>
     </row>
-    <row r="307" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A307" s="116" t="s">
         <v>461</v>
       </c>
@@ -49515,7 +49514,7 @@
       <c r="AU307" s="109"/>
       <c r="AV307" s="109"/>
     </row>
-    <row r="308" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A308" s="116" t="s">
         <v>1636</v>
       </c>
@@ -49631,7 +49630,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="309" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A309" s="116" t="s">
         <v>464</v>
       </c>
@@ -49745,7 +49744,7 @@
       <c r="AU309" s="109"/>
       <c r="AV309" s="109"/>
     </row>
-    <row r="310" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A310" s="116" t="s">
         <v>1632</v>
       </c>
@@ -49863,7 +49862,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="311" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A311" s="119" t="s">
         <v>467</v>
       </c>
@@ -49955,7 +49954,7 @@
       <c r="AU311" s="109"/>
       <c r="AV311" s="109"/>
     </row>
-    <row r="312" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A312" s="116" t="s">
         <v>1625</v>
       </c>
@@ -50071,7 +50070,7 @@
       <c r="AU312" s="109"/>
       <c r="AV312" s="109"/>
     </row>
-    <row r="313" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A313" s="116" t="s">
         <v>1622</v>
       </c>
@@ -50201,7 +50200,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="314" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A314" s="116" t="s">
         <v>1621</v>
       </c>
@@ -50323,7 +50322,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="315" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A315" s="116" t="s">
         <v>469</v>
       </c>
@@ -50435,7 +50434,7 @@
       <c r="AU315" s="109"/>
       <c r="AV315" s="109"/>
     </row>
-    <row r="316" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A316" s="116" t="s">
         <v>1614</v>
       </c>
@@ -50547,7 +50546,7 @@
       <c r="AU316" s="109"/>
       <c r="AV316" s="109"/>
     </row>
-    <row r="317" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A317" s="116" t="s">
         <v>472</v>
       </c>
@@ -50659,7 +50658,7 @@
       <c r="AU317" s="109"/>
       <c r="AV317" s="109"/>
     </row>
-    <row r="318" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A318" s="116" t="s">
         <v>1611</v>
       </c>
@@ -50773,7 +50772,7 @@
       <c r="AU318" s="109"/>
       <c r="AV318" s="109"/>
     </row>
-    <row r="319" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A319" s="116" t="s">
         <v>1609</v>
       </c>
@@ -50883,7 +50882,7 @@
       <c r="AU319" s="109"/>
       <c r="AV319" s="109"/>
     </row>
-    <row r="320" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A320" s="119" t="s">
         <v>474</v>
       </c>
@@ -50971,7 +50970,7 @@
       <c r="AU320" s="109"/>
       <c r="AV320" s="109"/>
     </row>
-    <row r="321" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A321" s="119" t="s">
         <v>476</v>
       </c>
@@ -51059,7 +51058,7 @@
       <c r="AU321" s="109"/>
       <c r="AV321" s="109"/>
     </row>
-    <row r="322" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A322" s="116" t="s">
         <v>1607</v>
       </c>
@@ -51175,7 +51174,7 @@
       <c r="AU322" s="109"/>
       <c r="AV322" s="109"/>
     </row>
-    <row r="323" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A323" s="119" t="s">
         <v>479</v>
       </c>
@@ -51263,7 +51262,7 @@
       <c r="AU323" s="109"/>
       <c r="AV323" s="109"/>
     </row>
-    <row r="324" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A324" s="116" t="s">
         <v>1603</v>
       </c>
@@ -51375,7 +51374,7 @@
       <c r="AU324" s="109"/>
       <c r="AV324" s="109"/>
     </row>
-    <row r="325" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A325" s="116" t="s">
         <v>1601</v>
       </c>
@@ -51485,7 +51484,7 @@
       <c r="AU325" s="109"/>
       <c r="AV325" s="109"/>
     </row>
-    <row r="326" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A326" s="116" t="s">
         <v>1599</v>
       </c>
@@ -51595,7 +51594,7 @@
       <c r="AU326" s="109"/>
       <c r="AV326" s="109"/>
     </row>
-    <row r="327" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A327" s="116" t="s">
         <v>1596</v>
       </c>
@@ -51705,7 +51704,7 @@
       <c r="AU327" s="109"/>
       <c r="AV327" s="109"/>
     </row>
-    <row r="328" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A328" s="116" t="s">
         <v>1595</v>
       </c>
@@ -51809,7 +51808,7 @@
       <c r="AU328" s="109"/>
       <c r="AV328" s="109"/>
     </row>
-    <row r="329" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A329" s="116" t="s">
         <v>1593</v>
       </c>
@@ -51919,7 +51918,7 @@
       <c r="AU329" s="109"/>
       <c r="AV329" s="109"/>
     </row>
-    <row r="330" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A330" s="116" t="s">
         <v>1592</v>
       </c>
@@ -52029,7 +52028,7 @@
       <c r="AU330" s="109"/>
       <c r="AV330" s="109"/>
     </row>
-    <row r="331" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A331" s="116" t="s">
         <v>1591</v>
       </c>
@@ -52127,7 +52126,7 @@
       <c r="AU331" s="109"/>
       <c r="AV331" s="109"/>
     </row>
-    <row r="332" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A332" s="116" t="s">
         <v>1589</v>
       </c>
@@ -52239,7 +52238,7 @@
       <c r="AU332" s="109"/>
       <c r="AV332" s="109"/>
     </row>
-    <row r="333" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A333" s="116" t="s">
         <v>485</v>
       </c>
@@ -52349,7 +52348,7 @@
       <c r="AU333" s="109"/>
       <c r="AV333" s="109"/>
     </row>
-    <row r="334" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A334" s="116" t="s">
         <v>486</v>
       </c>
@@ -52461,7 +52460,7 @@
       <c r="AU334" s="109"/>
       <c r="AV334" s="109"/>
     </row>
-    <row r="335" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A335" s="116" t="s">
         <v>487</v>
       </c>
@@ -52571,7 +52570,7 @@
       <c r="AU335" s="109"/>
       <c r="AV335" s="109"/>
     </row>
-    <row r="336" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A336" s="116" t="s">
         <v>1580</v>
       </c>
@@ -52681,7 +52680,7 @@
       <c r="AU336" s="109"/>
       <c r="AV336" s="109"/>
     </row>
-    <row r="337" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A337" s="116" t="s">
         <v>490</v>
       </c>
@@ -52791,7 +52790,7 @@
       <c r="AU337" s="109"/>
       <c r="AV337" s="109"/>
     </row>
-    <row r="338" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A338" s="119" t="s">
         <v>492</v>
       </c>
@@ -52883,7 +52882,7 @@
       <c r="AU338" s="109"/>
       <c r="AV338" s="109"/>
     </row>
-    <row r="339" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A339" s="116" t="s">
         <v>1574</v>
       </c>
@@ -52999,7 +52998,7 @@
       <c r="AU339" s="109"/>
       <c r="AV339" s="109"/>
     </row>
-    <row r="340" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A340" s="116" t="s">
         <v>494</v>
       </c>
@@ -53105,7 +53104,7 @@
       <c r="AU340" s="109"/>
       <c r="AV340" s="109"/>
     </row>
-    <row r="341" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A341" s="116" t="s">
         <v>496</v>
       </c>
@@ -53221,7 +53220,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="342" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A342" s="116" t="s">
         <v>498</v>
       </c>
@@ -53331,7 +53330,7 @@
       <c r="AU342" s="109"/>
       <c r="AV342" s="109"/>
     </row>
-    <row r="343" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A343" s="116" t="s">
         <v>501</v>
       </c>
@@ -53443,7 +53442,7 @@
       <c r="AU343" s="109"/>
       <c r="AV343" s="109"/>
     </row>
-    <row r="344" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A344" s="116" t="s">
         <v>1562</v>
       </c>
@@ -53553,7 +53552,7 @@
       <c r="AU344" s="109"/>
       <c r="AV344" s="109"/>
     </row>
-    <row r="345" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A345" s="116" t="s">
         <v>504</v>
       </c>
@@ -53671,7 +53670,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="346" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A346" s="116" t="s">
         <v>506</v>
       </c>
@@ -53771,7 +53770,7 @@
       <c r="AU346" s="109"/>
       <c r="AV346" s="109"/>
     </row>
-    <row r="347" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A347" s="116" t="s">
         <v>1555</v>
       </c>
@@ -53885,7 +53884,7 @@
       <c r="AU347" s="109"/>
       <c r="AV347" s="109"/>
     </row>
-    <row r="348" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A348" s="119" t="s">
         <v>1553</v>
       </c>
@@ -54017,7 +54016,7 @@
       <c r="AU348" s="109"/>
       <c r="AV348" s="109"/>
     </row>
-    <row r="349" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A349" s="128" t="s">
         <v>514</v>
       </c>
@@ -54147,7 +54146,7 @@
       <c r="AU349" s="109"/>
       <c r="AV349" s="109"/>
     </row>
-    <row r="350" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A350" s="128" t="s">
         <v>517</v>
       </c>
@@ -54277,7 +54276,7 @@
       <c r="AU350" s="109"/>
       <c r="AV350" s="109"/>
     </row>
-    <row r="351" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A351" s="128" t="s">
         <v>1540</v>
       </c>
@@ -54407,7 +54406,7 @@
       <c r="AU351" s="109"/>
       <c r="AV351" s="109"/>
     </row>
-    <row r="352" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A352" s="128" t="s">
         <v>522</v>
       </c>
@@ -54537,7 +54536,7 @@
       <c r="AU352" s="109"/>
       <c r="AV352" s="109"/>
     </row>
-    <row r="353" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A353" s="128" t="s">
         <v>525</v>
       </c>
@@ -54667,7 +54666,7 @@
       <c r="AU353" s="109"/>
       <c r="AV353" s="109"/>
     </row>
-    <row r="354" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A354" s="128" t="s">
         <v>1534</v>
       </c>
@@ -54799,7 +54798,7 @@
       <c r="AU354" s="109"/>
       <c r="AV354" s="109"/>
     </row>
-    <row r="355" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A355" s="128" t="s">
         <v>529</v>
       </c>
@@ -54935,7 +54934,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="356" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A356" s="128" t="s">
         <v>1526</v>
       </c>
@@ -55065,7 +55064,7 @@
       <c r="AU356" s="109"/>
       <c r="AV356" s="109"/>
     </row>
-    <row r="357" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A357" s="128" t="s">
         <v>533</v>
       </c>
@@ -55179,7 +55178,7 @@
       <c r="AU357" s="109"/>
       <c r="AV357" s="109"/>
     </row>
-    <row r="358" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A358" s="128" t="s">
         <v>536</v>
       </c>
@@ -55291,7 +55290,7 @@
       <c r="AU358" s="109"/>
       <c r="AV358" s="109"/>
     </row>
-    <row r="359" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A359" s="128" t="s">
         <v>1516</v>
       </c>
@@ -55425,7 +55424,7 @@
       <c r="AU359" s="109"/>
       <c r="AV359" s="109"/>
     </row>
-    <row r="360" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A360" s="128" t="s">
         <v>538</v>
       </c>
@@ -55555,7 +55554,7 @@
       <c r="AU360" s="109"/>
       <c r="AV360" s="109"/>
     </row>
-    <row r="361" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A361" s="128" t="s">
         <v>540</v>
       </c>
@@ -55663,7 +55662,7 @@
       <c r="AU361" s="109"/>
       <c r="AV361" s="109"/>
     </row>
-    <row r="362" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A362" s="128" t="s">
         <v>541</v>
       </c>
@@ -55793,7 +55792,7 @@
       <c r="AU362" s="109"/>
       <c r="AV362" s="109"/>
     </row>
-    <row r="363" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A363" s="128" t="s">
         <v>543</v>
       </c>
@@ -55929,7 +55928,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="364" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A364" s="128" t="s">
         <v>545</v>
       </c>
@@ -56065,7 +56064,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="365" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A365" s="128" t="s">
         <v>1487</v>
       </c>
@@ -56195,7 +56194,7 @@
       <c r="AU365" s="109"/>
       <c r="AV365" s="109"/>
     </row>
-    <row r="366" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A366" s="128" t="s">
         <v>548</v>
       </c>
@@ -56331,7 +56330,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="367" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A367" s="128" t="s">
         <v>1477</v>
       </c>
@@ -56461,7 +56460,7 @@
       <c r="AU367" s="109"/>
       <c r="AV367" s="109"/>
     </row>
-    <row r="368" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A368" s="128" t="s">
         <v>552</v>
       </c>
@@ -56575,7 +56574,7 @@
       <c r="AU368" s="109"/>
       <c r="AV368" s="109"/>
     </row>
-    <row r="369" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A369" s="128" t="s">
         <v>553</v>
       </c>
@@ -56713,7 +56712,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="370" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A370" s="128" t="s">
         <v>1463</v>
       </c>
@@ -56849,7 +56848,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="371" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A371" s="128" t="s">
         <v>556</v>
       </c>
@@ -56979,7 +56978,7 @@
       <c r="AU371" s="109"/>
       <c r="AV371" s="109"/>
     </row>
-    <row r="372" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A372" s="128" t="s">
         <v>561</v>
       </c>
@@ -57111,7 +57110,7 @@
       <c r="AU372" s="109"/>
       <c r="AV372" s="109"/>
     </row>
-    <row r="373" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A373" s="128" t="s">
         <v>1451</v>
       </c>
@@ -57247,7 +57246,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="374" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A374" s="128" t="s">
         <v>1446</v>
       </c>
@@ -57383,7 +57382,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="375" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A375" s="128" t="s">
         <v>1444</v>
       </c>
@@ -57519,7 +57518,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="376" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A376" s="128" t="s">
         <v>569</v>
       </c>
@@ -57651,7 +57650,7 @@
       <c r="AU376" s="109"/>
       <c r="AV376" s="109"/>
     </row>
-    <row r="377" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A377" s="128" t="s">
         <v>1435</v>
       </c>
@@ -57781,7 +57780,7 @@
       <c r="AU377" s="109"/>
       <c r="AV377" s="109"/>
     </row>
-    <row r="378" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A378" s="128" t="s">
         <v>573</v>
       </c>
@@ -57911,7 +57910,7 @@
       <c r="AU378" s="109"/>
       <c r="AV378" s="109"/>
     </row>
-    <row r="379" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A379" s="128" t="s">
         <v>575</v>
       </c>
@@ -58041,7 +58040,7 @@
       <c r="AU379" s="109"/>
       <c r="AV379" s="109"/>
     </row>
-    <row r="380" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A380" s="128" t="s">
         <v>579</v>
       </c>
@@ -58171,7 +58170,7 @@
       <c r="AU380" s="109"/>
       <c r="AV380" s="109"/>
     </row>
-    <row r="381" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A381" s="128" t="s">
         <v>581</v>
       </c>
@@ -58305,7 +58304,7 @@
       <c r="AU381" s="109"/>
       <c r="AV381" s="109"/>
     </row>
-    <row r="382" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A382" s="128" t="s">
         <v>585</v>
       </c>
@@ -58435,7 +58434,7 @@
       <c r="AU382" s="109"/>
       <c r="AV382" s="109"/>
     </row>
-    <row r="383" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A383" s="128" t="s">
         <v>588</v>
       </c>
@@ -58565,7 +58564,7 @@
       <c r="AU383" s="109"/>
       <c r="AV383" s="109"/>
     </row>
-    <row r="384" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A384" s="128" t="s">
         <v>1413</v>
       </c>
@@ -58693,7 +58692,7 @@
       <c r="AU384" s="109"/>
       <c r="AV384" s="109"/>
     </row>
-    <row r="385" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A385" s="128" t="s">
         <v>1413</v>
       </c>
@@ -58821,7 +58820,7 @@
       <c r="AU385" s="109"/>
       <c r="AV385" s="109"/>
     </row>
-    <row r="386" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A386" s="128" t="s">
         <v>1409</v>
       </c>
@@ -58951,7 +58950,7 @@
       <c r="AU386" s="109"/>
       <c r="AV386" s="109"/>
     </row>
-    <row r="387" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A387" s="128" t="s">
         <v>591</v>
       </c>
@@ -59083,7 +59082,7 @@
       <c r="AU387" s="109"/>
       <c r="AV387" s="109"/>
     </row>
-    <row r="388" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A388" s="128" t="s">
         <v>595</v>
       </c>
@@ -59213,7 +59212,7 @@
       <c r="AU388" s="109"/>
       <c r="AV388" s="109"/>
     </row>
-    <row r="389" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A389" s="128" t="s">
         <v>597</v>
       </c>
@@ -59323,7 +59322,7 @@
       <c r="AU389" s="109"/>
       <c r="AV389" s="109"/>
     </row>
-    <row r="390" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A390" s="128" t="s">
         <v>598</v>
       </c>
@@ -59433,7 +59432,7 @@
       <c r="AU390" s="109"/>
       <c r="AV390" s="109"/>
     </row>
-    <row r="391" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A391" s="128" t="s">
         <v>1394</v>
       </c>
@@ -59569,7 +59568,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="392" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A392" s="128" t="s">
         <v>1384</v>
       </c>
@@ -59701,7 +59700,7 @@
       <c r="AU392" s="109"/>
       <c r="AV392" s="109"/>
     </row>
-    <row r="393" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A393" s="128" t="s">
         <v>1384</v>
       </c>
@@ -59833,7 +59832,7 @@
       <c r="AU393" s="109"/>
       <c r="AV393" s="109"/>
     </row>
-    <row r="394" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A394" s="128" t="s">
         <v>602</v>
       </c>
@@ -59965,7 +59964,7 @@
       <c r="AU394" s="109"/>
       <c r="AV394" s="109"/>
     </row>
-    <row r="395" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A395" s="128" t="s">
         <v>605</v>
       </c>
@@ -60097,7 +60096,7 @@
       <c r="AU395" s="109"/>
       <c r="AV395" s="109"/>
     </row>
-    <row r="396" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A396" s="128" t="s">
         <v>1378</v>
       </c>
@@ -60227,7 +60226,7 @@
       <c r="AU396" s="109"/>
       <c r="AV396" s="109"/>
     </row>
-    <row r="397" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A397" s="128" t="s">
         <v>1378</v>
       </c>
@@ -60357,7 +60356,7 @@
       <c r="AU397" s="109"/>
       <c r="AV397" s="109"/>
     </row>
-    <row r="398" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A398" s="128" t="s">
         <v>1376</v>
       </c>
@@ -60487,7 +60486,7 @@
       <c r="AU398" s="109"/>
       <c r="AV398" s="109"/>
     </row>
-    <row r="399" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A399" s="128" t="s">
         <v>1373</v>
       </c>
@@ -60617,7 +60616,7 @@
       <c r="AU399" s="109"/>
       <c r="AV399" s="109"/>
     </row>
-    <row r="400" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A400" s="128" t="s">
         <v>612</v>
       </c>
@@ -60747,7 +60746,7 @@
       <c r="AU400" s="109"/>
       <c r="AV400" s="109"/>
     </row>
-    <row r="401" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A401" s="128" t="s">
         <v>612</v>
       </c>
@@ -60877,7 +60876,7 @@
       <c r="AU401" s="109"/>
       <c r="AV401" s="109"/>
     </row>
-    <row r="402" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A402" s="128" t="s">
         <v>615</v>
       </c>
@@ -61007,7 +61006,7 @@
       <c r="AU402" s="109"/>
       <c r="AV402" s="109"/>
     </row>
-    <row r="403" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A403" s="128" t="s">
         <v>618</v>
       </c>
@@ -61147,7 +61146,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="404" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A404" s="128" t="s">
         <v>1348</v>
       </c>
@@ -61275,7 +61274,7 @@
       <c r="AU404" s="109"/>
       <c r="AV404" s="109"/>
     </row>
-    <row r="405" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A405" s="128" t="s">
         <v>623</v>
       </c>
@@ -61407,7 +61406,7 @@
       <c r="AU405" s="109"/>
       <c r="AV405" s="109"/>
     </row>
-    <row r="406" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A406" s="128" t="s">
         <v>1342</v>
       </c>
@@ -61543,7 +61542,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="407" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A407" s="128" t="s">
         <v>1337</v>
       </c>
@@ -61679,7 +61678,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="408" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A408" s="128" t="s">
         <v>1334</v>
       </c>
@@ -61809,7 +61808,7 @@
       <c r="AU408" s="109"/>
       <c r="AV408" s="109"/>
     </row>
-    <row r="409" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A409" s="128" t="s">
         <v>1333</v>
       </c>
@@ -61939,7 +61938,7 @@
       <c r="AU409" s="109"/>
       <c r="AV409" s="109"/>
     </row>
-    <row r="410" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A410" s="128" t="s">
         <v>1332</v>
       </c>
@@ -62069,7 +62068,7 @@
       <c r="AU410" s="109"/>
       <c r="AV410" s="109"/>
     </row>
-    <row r="411" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A411" s="128" t="s">
         <v>1329</v>
       </c>
@@ -62205,7 +62204,7 @@
       <c r="AU411" s="109"/>
       <c r="AV411" s="109"/>
     </row>
-    <row r="412" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A412" s="128" t="s">
         <v>635</v>
       </c>
@@ -62335,7 +62334,7 @@
       <c r="AU412" s="109"/>
       <c r="AV412" s="109"/>
     </row>
-    <row r="413" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A413" s="128" t="s">
         <v>639</v>
       </c>
@@ -62465,7 +62464,7 @@
       <c r="AU413" s="109"/>
       <c r="AV413" s="109"/>
     </row>
-    <row r="414" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A414" s="128" t="s">
         <v>641</v>
       </c>
@@ -62595,7 +62594,7 @@
       <c r="AU414" s="109"/>
       <c r="AV414" s="109"/>
     </row>
-    <row r="415" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A415" s="128" t="s">
         <v>643</v>
       </c>
@@ -62725,7 +62724,7 @@
       <c r="AU415" s="109"/>
       <c r="AV415" s="109"/>
     </row>
-    <row r="416" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A416" s="128" t="s">
         <v>645</v>
       </c>
@@ -62855,7 +62854,7 @@
       <c r="AU416" s="109"/>
       <c r="AV416" s="109"/>
     </row>
-    <row r="417" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A417" s="128" t="s">
         <v>647</v>
       </c>
@@ -62987,7 +62986,7 @@
       <c r="AU417" s="109"/>
       <c r="AV417" s="109"/>
     </row>
-    <row r="418" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A418" s="128" t="s">
         <v>649</v>
       </c>
@@ -63119,7 +63118,7 @@
       <c r="AU418" s="109"/>
       <c r="AV418" s="109"/>
     </row>
-    <row r="419" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A419" s="128" t="s">
         <v>651</v>
       </c>
@@ -63251,7 +63250,7 @@
       <c r="AU419" s="109"/>
       <c r="AV419" s="109"/>
     </row>
-    <row r="420" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A420" s="128" t="s">
         <v>653</v>
       </c>
@@ -63383,7 +63382,7 @@
       <c r="AU420" s="109"/>
       <c r="AV420" s="109"/>
     </row>
-    <row r="421" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A421" s="128" t="s">
         <v>1307</v>
       </c>
@@ -63519,7 +63518,7 @@
       <c r="AU421" s="109"/>
       <c r="AV421" s="109"/>
     </row>
-    <row r="422" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A422" s="128" t="s">
         <v>1307</v>
       </c>
@@ -63655,7 +63654,7 @@
       <c r="AU422" s="109"/>
       <c r="AV422" s="109"/>
     </row>
-    <row r="423" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A423" s="128" t="s">
         <v>658</v>
       </c>
@@ -63791,7 +63790,7 @@
       <c r="AU423" s="109"/>
       <c r="AV423" s="109"/>
     </row>
-    <row r="424" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A424" s="128" t="s">
         <v>658</v>
       </c>
@@ -63927,7 +63926,7 @@
       <c r="AU424" s="109"/>
       <c r="AV424" s="109"/>
     </row>
-    <row r="425" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A425" s="128" t="s">
         <v>661</v>
       </c>
@@ -64057,7 +64056,7 @@
       <c r="AU425" s="109"/>
       <c r="AV425" s="109"/>
     </row>
-    <row r="426" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A426" s="128" t="s">
         <v>665</v>
       </c>
@@ -64193,7 +64192,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="427" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A427" s="128" t="s">
         <v>667</v>
       </c>
@@ -64323,7 +64322,7 @@
       <c r="AU427" s="109"/>
       <c r="AV427" s="109"/>
     </row>
-    <row r="428" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A428" s="128" t="s">
         <v>669</v>
       </c>
@@ -64453,7 +64452,7 @@
       <c r="AU428" s="109"/>
       <c r="AV428" s="109"/>
     </row>
-    <row r="429" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A429" s="128" t="s">
         <v>671</v>
       </c>
@@ -64583,7 +64582,7 @@
       <c r="AU429" s="109"/>
       <c r="AV429" s="109"/>
     </row>
-    <row r="430" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A430" s="128" t="s">
         <v>673</v>
       </c>
@@ -64715,7 +64714,7 @@
       <c r="AU430" s="109"/>
       <c r="AV430" s="109"/>
     </row>
-    <row r="431" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A431" s="128" t="s">
         <v>674</v>
       </c>
@@ -64845,7 +64844,7 @@
       <c r="AU431" s="109"/>
       <c r="AV431" s="109"/>
     </row>
-    <row r="432" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A432" s="128" t="s">
         <v>1276</v>
       </c>
@@ -64975,7 +64974,7 @@
       <c r="AU432" s="109"/>
       <c r="AV432" s="109"/>
     </row>
-    <row r="433" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A433" s="128" t="s">
         <v>678</v>
       </c>
@@ -65105,7 +65104,7 @@
       <c r="AU433" s="109"/>
       <c r="AV433" s="109"/>
     </row>
-    <row r="434" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A434" s="128" t="s">
         <v>678</v>
       </c>
@@ -65235,7 +65234,7 @@
       <c r="AU434" s="109"/>
       <c r="AV434" s="109"/>
     </row>
-    <row r="435" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A435" s="128" t="s">
         <v>1268</v>
       </c>
@@ -65369,7 +65368,7 @@
       </c>
       <c r="AV435" s="109"/>
     </row>
-    <row r="436" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A436" s="128" t="s">
         <v>1265</v>
       </c>
@@ -65507,7 +65506,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="437" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A437" s="128" t="s">
         <v>1259</v>
       </c>
@@ -65637,7 +65636,7 @@
       <c r="AU437" s="109"/>
       <c r="AV437" s="109"/>
     </row>
-    <row r="438" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A438" s="128" t="s">
         <v>688</v>
       </c>
@@ -65773,7 +65772,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="439" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A439" s="128" t="s">
         <v>690</v>
       </c>
@@ -65907,7 +65906,7 @@
       <c r="AU439" s="109"/>
       <c r="AV439" s="109"/>
     </row>
-    <row r="440" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A440" s="128" t="s">
         <v>1244</v>
       </c>
@@ -66037,7 +66036,7 @@
       <c r="AU440" s="109"/>
       <c r="AV440" s="109"/>
     </row>
-    <row r="441" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A441" s="128" t="s">
         <v>693</v>
       </c>
@@ -66167,7 +66166,7 @@
       <c r="AU441" s="109"/>
       <c r="AV441" s="109"/>
     </row>
-    <row r="442" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A442" s="128" t="s">
         <v>1239</v>
       </c>
@@ -66297,7 +66296,7 @@
       <c r="AU442" s="109"/>
       <c r="AV442" s="109"/>
     </row>
-    <row r="443" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A443" s="128" t="s">
         <v>697</v>
       </c>
@@ -66429,7 +66428,7 @@
       <c r="AU443" s="109"/>
       <c r="AV443" s="109"/>
     </row>
-    <row r="444" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A444" s="128" t="s">
         <v>698</v>
       </c>
@@ -66559,7 +66558,7 @@
       <c r="AU444" s="109"/>
       <c r="AV444" s="109"/>
     </row>
-    <row r="445" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A445" s="128" t="s">
         <v>698</v>
       </c>
@@ -66689,7 +66688,7 @@
       <c r="AU445" s="109"/>
       <c r="AV445" s="109"/>
     </row>
-    <row r="446" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A446" s="128" t="s">
         <v>701</v>
       </c>
@@ -66819,7 +66818,7 @@
       <c r="AU446" s="109"/>
       <c r="AV446" s="109"/>
     </row>
-    <row r="447" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A447" s="128" t="s">
         <v>701</v>
       </c>
@@ -66949,7 +66948,7 @@
       <c r="AU447" s="109"/>
       <c r="AV447" s="109"/>
     </row>
-    <row r="448" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A448" s="128" t="s">
         <v>702</v>
       </c>
@@ -67079,7 +67078,7 @@
       <c r="AU448" s="109"/>
       <c r="AV448" s="109"/>
     </row>
-    <row r="449" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A449" s="128" t="s">
         <v>704</v>
       </c>
@@ -67215,7 +67214,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="450" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A450" s="128" t="s">
         <v>706</v>
       </c>
@@ -67345,7 +67344,7 @@
       <c r="AU450" s="109"/>
       <c r="AV450" s="109"/>
     </row>
-    <row r="451" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A451" s="128" t="s">
         <v>1212</v>
       </c>
@@ -67475,7 +67474,7 @@
       <c r="AU451" s="109"/>
       <c r="AV451" s="109"/>
     </row>
-    <row r="452" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A452" s="128" t="s">
         <v>1208</v>
       </c>
@@ -67615,7 +67614,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="453" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A453" s="128" t="s">
         <v>711</v>
       </c>
@@ -67751,7 +67750,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="454" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A454" s="128" t="s">
         <v>1194</v>
       </c>
@@ -67887,7 +67886,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="455" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A455" s="128" t="s">
         <v>714</v>
       </c>
@@ -68019,7 +68018,7 @@
       <c r="AU455" s="109"/>
       <c r="AV455" s="109"/>
     </row>
-    <row r="456" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A456" s="128" t="s">
         <v>718</v>
       </c>
@@ -68149,7 +68148,7 @@
       <c r="AU456" s="109"/>
       <c r="AV456" s="109"/>
     </row>
-    <row r="457" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A457" s="128" t="s">
         <v>722</v>
       </c>
@@ -68281,7 +68280,7 @@
       <c r="AU457" s="109"/>
       <c r="AV457" s="109"/>
     </row>
-    <row r="458" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A458" s="128" t="s">
         <v>725</v>
       </c>
@@ -68413,7 +68412,7 @@
       <c r="AU458" s="109"/>
       <c r="AV458" s="109"/>
     </row>
-    <row r="459" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A459" s="128" t="s">
         <v>727</v>
       </c>
@@ -68549,7 +68548,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="460" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A460" s="128" t="s">
         <v>727</v>
       </c>
@@ -68685,7 +68684,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="461" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A461" s="128" t="s">
         <v>730</v>
       </c>
@@ -68815,7 +68814,7 @@
       <c r="AU461" s="109"/>
       <c r="AV461" s="109"/>
     </row>
-    <row r="462" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A462" s="128" t="s">
         <v>732</v>
       </c>
@@ -68945,7 +68944,7 @@
       <c r="AU462" s="109"/>
       <c r="AV462" s="109"/>
     </row>
-    <row r="463" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A463" s="128" t="s">
         <v>734</v>
       </c>
@@ -69075,7 +69074,7 @@
       <c r="AU463" s="109"/>
       <c r="AV463" s="109"/>
     </row>
-    <row r="464" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A464" s="128" t="s">
         <v>736</v>
       </c>
@@ -69211,7 +69210,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="465" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A465" s="128" t="s">
         <v>738</v>
       </c>
@@ -69341,7 +69340,7 @@
       <c r="AU465" s="109"/>
       <c r="AV465" s="109"/>
     </row>
-    <row r="466" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A466" s="128" t="s">
         <v>740</v>
       </c>
@@ -69471,7 +69470,7 @@
       <c r="AU466" s="109"/>
       <c r="AV466" s="109"/>
     </row>
-    <row r="467" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A467" s="128" t="s">
         <v>744</v>
       </c>
@@ -69607,7 +69606,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A468" s="128" t="s">
         <v>746</v>
       </c>
@@ -69743,7 +69742,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="469" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="469" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A469" s="128" t="s">
         <v>1129</v>
       </c>
@@ -69871,7 +69870,7 @@
       <c r="AU469" s="109"/>
       <c r="AV469" s="109"/>
     </row>
-    <row r="470" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A470" s="128" t="s">
         <v>1127</v>
       </c>
@@ -70001,7 +70000,7 @@
       <c r="AU470" s="109"/>
       <c r="AV470" s="109"/>
     </row>
-    <row r="471" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A471" s="128" t="s">
         <v>1125</v>
       </c>
@@ -70131,7 +70130,7 @@
       <c r="AU471" s="109"/>
       <c r="AV471" s="109"/>
     </row>
-    <row r="472" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A472" s="128" t="s">
         <v>1123</v>
       </c>
@@ -70261,7 +70260,7 @@
       <c r="AU472" s="109"/>
       <c r="AV472" s="109"/>
     </row>
-    <row r="473" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A473" s="128" t="s">
         <v>752</v>
       </c>
@@ -70397,7 +70396,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="474" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A474" s="128" t="s">
         <v>754</v>
       </c>
@@ -70527,7 +70526,7 @@
       <c r="AU474" s="109"/>
       <c r="AV474" s="109"/>
     </row>
-    <row r="475" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A475" s="128" t="s">
         <v>756</v>
       </c>
@@ -70659,7 +70658,7 @@
       <c r="AU475" s="109"/>
       <c r="AV475" s="109"/>
     </row>
-    <row r="476" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A476" s="128" t="s">
         <v>756</v>
       </c>
@@ -70791,7 +70790,7 @@
       <c r="AU476" s="109"/>
       <c r="AV476" s="109"/>
     </row>
-    <row r="477" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A477" s="128" t="s">
         <v>759</v>
       </c>
@@ -70921,7 +70920,7 @@
       <c r="AU477" s="109"/>
       <c r="AV477" s="109"/>
     </row>
-    <row r="478" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A478" s="128" t="s">
         <v>761</v>
       </c>
@@ -71051,7 +71050,7 @@
       <c r="AU478" s="109"/>
       <c r="AV478" s="109"/>
     </row>
-    <row r="479" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A479" s="128" t="s">
         <v>1096</v>
       </c>
@@ -71187,7 +71186,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="480" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A480" s="128" t="s">
         <v>764</v>
       </c>
@@ -71317,7 +71316,7 @@
       <c r="AU480" s="109"/>
       <c r="AV480" s="109"/>
     </row>
-    <row r="481" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A481" s="128" t="s">
         <v>766</v>
       </c>
@@ -71449,7 +71448,7 @@
       <c r="AU481" s="109"/>
       <c r="AV481" s="109"/>
     </row>
-    <row r="482" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A482" s="128" t="s">
         <v>1079</v>
       </c>
@@ -71583,7 +71582,7 @@
       </c>
       <c r="AV482" s="109"/>
     </row>
-    <row r="483" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
       <c r="A483" s="128" t="s">
         <v>769</v>
       </c>
@@ -71715,7 +71714,7 @@
       <c r="AU483" s="109"/>
       <c r="AV483" s="109"/>
     </row>
-    <row r="484" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A484" s="128" t="s">
         <v>769</v>
       </c>
@@ -71847,7 +71846,7 @@
       <c r="AU484" s="109"/>
       <c r="AV484" s="109"/>
     </row>
-    <row r="485" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A485" s="128" t="s">
         <v>772</v>
       </c>
@@ -71959,7 +71958,7 @@
       <c r="AU485" s="109"/>
       <c r="AV485" s="109"/>
     </row>
-    <row r="486" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
       <c r="A486" s="128" t="s">
         <v>773</v>
       </c>
@@ -72091,7 +72090,7 @@
       <c r="AU486" s="109"/>
       <c r="AV486" s="109"/>
     </row>
-    <row r="487" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:48" s="112" customFormat="1">
       <c r="A487" s="128" t="s">
         <v>1062</v>
       </c>
@@ -72226,7 +72225,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="488" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:48" s="112" customFormat="1">
       <c r="A488" s="128" t="s">
         <v>1061</v>
       </c>
@@ -72361,7 +72360,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="489" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:48" s="112" customFormat="1">
       <c r="A489" s="128" t="s">
         <v>1053</v>
       </c>
@@ -72489,7 +72488,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="490" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:48" s="112" customFormat="1">
       <c r="A490" s="128" t="s">
         <v>777</v>
       </c>
@@ -72615,7 +72614,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:48" s="112" customFormat="1">
       <c r="A491" s="128" t="s">
         <v>1034</v>
       </c>
@@ -72752,7 +72751,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="492" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:48" s="112" customFormat="1">
       <c r="A492" s="128" t="s">
         <v>1034</v>
       </c>
@@ -72887,26 +72886,26 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="1048574" spans="41:44" x14ac:dyDescent="0.25">
+    <row r="1048574" spans="41:44">
       <c r="AO1048574" s="111"/>
       <c r="AP1048574" s="111"/>
       <c r="AQ1048574" s="110"/>
       <c r="AR1048574" s="111"/>
     </row>
-    <row r="1048575" spans="41:44" x14ac:dyDescent="0.25">
+    <row r="1048575" spans="41:44">
       <c r="AO1048575" s="111"/>
       <c r="AP1048575" s="111"/>
       <c r="AQ1048575" s="110"/>
       <c r="AR1048575" s="111"/>
     </row>
-    <row r="1048576" spans="41:44" x14ac:dyDescent="0.25">
+    <row r="1048576" spans="41:44">
       <c r="AO1048576" s="109"/>
       <c r="AP1048576" s="111"/>
       <c r="AQ1048576" s="110"/>
       <c r="AR1048576" s="109"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV492" xr:uid="{DD83ACCB-8137-42BF-99B3-58EC79DE3EAA}">
+  <autoFilter ref="A1:AV492">
     <filterColumn colId="34">
       <filters blank="1"/>
     </filterColumn>
@@ -72915,102 +72914,102 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F163" r:id="rId1" xr:uid="{AEC623EB-E103-481F-B989-B82656204B68}"/>
-    <hyperlink ref="F164" r:id="rId2" xr:uid="{4A956FD9-CEEE-42CE-B77D-F5488C82938A}"/>
-    <hyperlink ref="AV97" r:id="rId3" xr:uid="{4CBE4B52-9EB4-488F-BFBA-8C981697C376}"/>
-    <hyperlink ref="AV107" r:id="rId4" xr:uid="{5CC4DD1B-1F0E-49BE-8A9D-3FC60C8FED6F}"/>
-    <hyperlink ref="AV491" r:id="rId5" xr:uid="{29FEF127-E040-4704-B780-D7D99B484E3B}"/>
-    <hyperlink ref="AV492" r:id="rId6" xr:uid="{7FB4635B-0782-42A1-8CEE-DB3599DC53A9}"/>
-    <hyperlink ref="AV313" r:id="rId7" xr:uid="{05460B76-3B8E-40C8-BEE2-5DCBF5BA36DD}"/>
-    <hyperlink ref="AV314" r:id="rId8" xr:uid="{26516B79-3CE4-459B-84E7-A469BA78D8AD}"/>
-    <hyperlink ref="AV487" r:id="rId9" xr:uid="{628AE419-8DEC-42BC-AD57-C62EEC1D8474}"/>
-    <hyperlink ref="AV488" r:id="rId10" xr:uid="{F00D0B5E-D168-4FAC-B265-336053E6265D}"/>
-    <hyperlink ref="AV126" r:id="rId11" xr:uid="{0B65B6C1-FFC6-41F7-B237-96C524504748}"/>
-    <hyperlink ref="AV127" r:id="rId12" xr:uid="{88D11B01-A4E1-4747-9507-E4FED2B473CE}"/>
-    <hyperlink ref="AV128" r:id="rId13" xr:uid="{22F4BCC4-06BF-4254-89F6-0D6ECB67F507}"/>
-    <hyperlink ref="AV139" r:id="rId14" xr:uid="{5BE2EE78-ED3B-49B9-B19E-F6419CBB2D12}"/>
-    <hyperlink ref="AV140" r:id="rId15" xr:uid="{664D2ACF-BBE3-45F1-B082-2F808B4A9495}"/>
-    <hyperlink ref="AV141" r:id="rId16" xr:uid="{BD2CFD1D-1B76-4C65-A9E8-D8712D02D6CA}"/>
-    <hyperlink ref="AV426" r:id="rId17" xr:uid="{EA88F257-A948-4945-AB7B-EF6BA2DFF9AD}"/>
-    <hyperlink ref="AV241" r:id="rId18" xr:uid="{7DFED287-3721-4C1D-BF66-85C0B66E4829}"/>
-    <hyperlink ref="AV436" r:id="rId19" xr:uid="{E5976E76-3D1E-448B-8D11-07271E7B2E7E}"/>
-    <hyperlink ref="AV407" r:id="rId20" xr:uid="{259910D1-DF6A-4453-9B1B-E008FA6FA250}"/>
-    <hyperlink ref="AV454" r:id="rId21" xr:uid="{808D45B2-B3C7-45E9-B35E-80650D8CD7B1}"/>
-    <hyperlink ref="AV310" r:id="rId22" xr:uid="{0922A584-78EF-43D6-8CAF-838612562F7A}"/>
-    <hyperlink ref="AV205" r:id="rId23" xr:uid="{49A88F4C-30E5-43CC-8B51-310396B8116A}"/>
-    <hyperlink ref="AV206" r:id="rId24" xr:uid="{1E60EC54-D469-4F57-BC62-5094A5F67C34}"/>
-    <hyperlink ref="AV355" r:id="rId25" xr:uid="{CA867032-F8DE-4330-B722-D77983996E95}"/>
-    <hyperlink ref="AV252" r:id="rId26" xr:uid="{4B54B8EE-BB74-4A0D-874C-50C41AE08952}"/>
-    <hyperlink ref="AV254" r:id="rId27" xr:uid="{C56D8354-9AA4-4085-86B8-968486776C29}"/>
-    <hyperlink ref="AV238" r:id="rId28" xr:uid="{3633254B-FDC6-4A3D-9C71-D1FA7A43DC37}"/>
-    <hyperlink ref="AV464" r:id="rId29" xr:uid="{75190472-C9DA-47D3-918E-D25443B67704}"/>
-    <hyperlink ref="AV459" r:id="rId30" xr:uid="{4B3ECB82-0792-4985-9108-28827A11D808}"/>
-    <hyperlink ref="AV460" r:id="rId31" xr:uid="{8FC2BF4C-9721-4CC0-94A5-02676A0671F3}"/>
-    <hyperlink ref="AV341" r:id="rId32" xr:uid="{2E046477-E5C5-4379-8882-4AB4967F1F2A}"/>
-    <hyperlink ref="AV345" r:id="rId33" xr:uid="{006A94B6-5B14-48B9-ACAF-943A65B85DCA}"/>
-    <hyperlink ref="AV473" r:id="rId34" xr:uid="{54308114-9DFA-46A3-B933-004A91679339}"/>
-    <hyperlink ref="AV369" r:id="rId35" xr:uid="{85B7C962-E496-4F17-B12C-DC3C4D4CBEDC}"/>
-    <hyperlink ref="AV240" r:id="rId36" xr:uid="{01F863E7-82CA-4D18-AAAF-094772F3DA1F}"/>
-    <hyperlink ref="AV257" r:id="rId37" xr:uid="{FB3CAA8A-0137-41D0-A0A5-E45A69AC671B}"/>
-    <hyperlink ref="AV4" r:id="rId38" xr:uid="{F45EF607-3DCC-4708-AA09-CD3980F9254E}"/>
-    <hyperlink ref="AV208" r:id="rId39" xr:uid="{CF6EC197-DC3E-4E8F-9977-A5A9C9ED5CF6}"/>
-    <hyperlink ref="AV209" r:id="rId40" xr:uid="{586ED3F8-AF68-4E74-8A68-2DD7AF41E7E7}"/>
-    <hyperlink ref="AV189" r:id="rId41" xr:uid="{86CC7FDF-9C4B-4C50-AA57-87017059FAC0}"/>
-    <hyperlink ref="AV364" r:id="rId42" xr:uid="{51C167AD-AC56-4524-B341-02547C70E3DB}"/>
-    <hyperlink ref="AV5" r:id="rId43" xr:uid="{D4804C8B-9B9F-4AD0-AA59-D3BF9CF5EC2D}"/>
-    <hyperlink ref="AV286" r:id="rId44" xr:uid="{BCF640B8-A9FC-4596-A6BB-0296F2C1CD77}"/>
-    <hyperlink ref="AV287" r:id="rId45" xr:uid="{301FFDA8-86F0-48F3-80E3-7DD1C8D88C73}"/>
-    <hyperlink ref="AV109" r:id="rId46" xr:uid="{0D488CDD-ED9D-4D76-A7ED-B92DE129FCBA}"/>
-    <hyperlink ref="AV366" r:id="rId47" xr:uid="{1F76B22B-330B-44EE-A188-BCDF0A20A95C}"/>
-    <hyperlink ref="AV374" r:id="rId48" xr:uid="{EC03B438-8601-4946-9BD3-3061175543B8}"/>
-    <hyperlink ref="AV375" r:id="rId49" xr:uid="{38EBC374-6152-4939-A45C-6D314526F4E7}"/>
-    <hyperlink ref="AV7" r:id="rId50" xr:uid="{5196E325-5A57-4754-B5A2-B9712BFCC424}"/>
-    <hyperlink ref="AV45" r:id="rId51" xr:uid="{3180F682-B88F-4A61-ABCE-A416C5A35BE5}"/>
-    <hyperlink ref="AV199" r:id="rId52" xr:uid="{B1F23B42-F742-4923-A1A5-1E4B85768DFE}"/>
-    <hyperlink ref="AV305" r:id="rId53" xr:uid="{F8E1B5F2-CE1B-48A7-B5C0-000CCBB10573}"/>
-    <hyperlink ref="AV68" r:id="rId54" xr:uid="{2D7535C2-76C3-42F5-B0F0-F8CD493FBEA8}"/>
-    <hyperlink ref="AV452" r:id="rId55" xr:uid="{6CB3010F-5CE3-439B-9272-182F854A3432}"/>
-    <hyperlink ref="AV49" r:id="rId56" xr:uid="{10E872DC-A131-4DA2-A13E-E1FC5B3A5C10}"/>
-    <hyperlink ref="AV292" r:id="rId57" xr:uid="{E9B88692-06AD-424E-BE35-C796B40BA02B}"/>
-    <hyperlink ref="AV146" r:id="rId58" xr:uid="{A1B6663A-088C-4A34-8A87-6D2D89AFEB84}"/>
-    <hyperlink ref="AV406" r:id="rId59" xr:uid="{38B55359-D3C3-4CB8-9555-D6FB42C515DE}"/>
-    <hyperlink ref="AV89" r:id="rId60" xr:uid="{BEDB3C5C-BBD2-4920-B04D-F8D543B5A5CC}"/>
-    <hyperlink ref="AV373" r:id="rId61" xr:uid="{8AE88D58-0D49-47BF-8813-2471C7CD9B80}"/>
-    <hyperlink ref="AV370" r:id="rId62" xr:uid="{2921013E-6E34-41FA-B73C-2FFD0E8BF29A}"/>
-    <hyperlink ref="AV308" r:id="rId63" xr:uid="{BFFFDFB6-F03D-4AC6-8944-6BFB1A3FDC55}"/>
-    <hyperlink ref="AV301" r:id="rId64" xr:uid="{857C2E27-C356-4080-9008-B244C0D81741}"/>
-    <hyperlink ref="AV26" r:id="rId65" xr:uid="{7628FD44-D238-495F-942B-521CE1F2B5E0}"/>
-    <hyperlink ref="AV242" r:id="rId66" xr:uid="{1EB2F13B-A86C-45D4-9E77-A8B832A3FEFC}"/>
-    <hyperlink ref="AV467" r:id="rId67" xr:uid="{E2A4D1F1-4145-4CD7-BB7C-2EA08F1308F2}"/>
-    <hyperlink ref="AV270" r:id="rId68" xr:uid="{91147B7D-026D-4BB2-8111-BE9003B3ACE4}"/>
-    <hyperlink ref="AV271" r:id="rId69" xr:uid="{A3EB4D1E-8DA3-482C-A5DE-EFD4973957B8}"/>
-    <hyperlink ref="AV272" r:id="rId70" xr:uid="{6FA91708-008B-4120-8993-6A09A724CD63}"/>
-    <hyperlink ref="AV403" r:id="rId71" xr:uid="{D29E1B9C-1C69-4692-9E64-E932353ECA88}"/>
-    <hyperlink ref="AV266" r:id="rId72" xr:uid="{643EDC78-6D71-4D13-8AB3-D56401BAE820}"/>
-    <hyperlink ref="AV267" r:id="rId73" xr:uid="{11AA0C19-74F1-4C81-AD41-1C90C3B1C2A6}"/>
-    <hyperlink ref="AV449" r:id="rId74" xr:uid="{031397D7-19A5-47C7-9330-CADE02DD1B2F}"/>
-    <hyperlink ref="AV214" r:id="rId75" xr:uid="{93465E0C-A2F8-4FE6-BFA1-FF2B02D99315}"/>
-    <hyperlink ref="AV78" r:id="rId76" xr:uid="{3DB28857-D295-4A73-9A7F-55A787011BC4}"/>
-    <hyperlink ref="AV79" r:id="rId77" xr:uid="{F1D21C83-1016-4B38-A185-DFDC30ED04C2}"/>
-    <hyperlink ref="AV468" r:id="rId78" xr:uid="{945E2EFB-849A-451F-94B9-8E28C0D4AE83}"/>
-    <hyperlink ref="AV479" r:id="rId79" xr:uid="{268EA319-5D00-4F94-8AE9-B892C4D604C3}"/>
-    <hyperlink ref="AV183" r:id="rId80" xr:uid="{5003977F-C8FC-437E-A7BA-004A30A0C661}"/>
-    <hyperlink ref="AV391" r:id="rId81" xr:uid="{10E8B6BA-7CF6-45E7-8C5E-508C49A091AA}"/>
-    <hyperlink ref="AV244" r:id="rId82" xr:uid="{C19D6C55-26DA-4DB2-9148-7A717C952DDE}"/>
-    <hyperlink ref="AV255" r:id="rId83" xr:uid="{FE5A457A-E57E-4142-ACE5-80CF81A7C794}"/>
-    <hyperlink ref="AV438" r:id="rId84" xr:uid="{F40F0C05-E3FE-4106-97E3-32B514BDDF7B}"/>
-    <hyperlink ref="AV204" r:id="rId85" xr:uid="{07AD68C3-A4D4-4A9B-9261-4211BD33CDB3}"/>
-    <hyperlink ref="AV73" r:id="rId86" xr:uid="{D2F03E38-8C2D-4B66-A6BA-6FEC1DB52667}"/>
-    <hyperlink ref="AV74" r:id="rId87" xr:uid="{6397585D-A672-4D89-9870-3025AEF82A54}"/>
-    <hyperlink ref="AV303" r:id="rId88" xr:uid="{41429A7B-EBF0-4316-AEC2-5B3D52B27EDE}"/>
-    <hyperlink ref="AV75" r:id="rId89" xr:uid="{F7C3458A-E9C6-41BF-BA06-998F606D6311}"/>
-    <hyperlink ref="AV67" r:id="rId90" xr:uid="{7B6E6788-F547-42F3-B429-0FDFC1D9CDE8}"/>
-    <hyperlink ref="AV363" r:id="rId91" xr:uid="{D89CFF9A-A572-4E91-89CD-40DD9DD41E8A}"/>
-    <hyperlink ref="AV207" r:id="rId92" xr:uid="{04C67305-D93B-446A-9670-7422D9513111}"/>
-    <hyperlink ref="AV210" r:id="rId93" xr:uid="{FDCC6C9C-9FFC-4127-A3E0-A3A221E28961}"/>
-    <hyperlink ref="AV70" r:id="rId94" xr:uid="{E4FC4073-1EF0-49FB-9DD4-077812FD5F94}"/>
-    <hyperlink ref="AV453" r:id="rId95" xr:uid="{4AC5D565-7559-4493-8959-AD51B3489122}"/>
-    <hyperlink ref="AV84" r:id="rId96" xr:uid="{6FF50BED-316D-4402-AB5B-EE189F04FDB0}"/>
+    <hyperlink ref="F163" r:id="rId1"/>
+    <hyperlink ref="F164" r:id="rId2"/>
+    <hyperlink ref="AV97" r:id="rId3"/>
+    <hyperlink ref="AV107" r:id="rId4"/>
+    <hyperlink ref="AV491" r:id="rId5"/>
+    <hyperlink ref="AV492" r:id="rId6"/>
+    <hyperlink ref="AV313" r:id="rId7"/>
+    <hyperlink ref="AV314" r:id="rId8"/>
+    <hyperlink ref="AV487" r:id="rId9"/>
+    <hyperlink ref="AV488" r:id="rId10"/>
+    <hyperlink ref="AV126" r:id="rId11"/>
+    <hyperlink ref="AV127" r:id="rId12"/>
+    <hyperlink ref="AV128" r:id="rId13"/>
+    <hyperlink ref="AV139" r:id="rId14"/>
+    <hyperlink ref="AV140" r:id="rId15"/>
+    <hyperlink ref="AV141" r:id="rId16"/>
+    <hyperlink ref="AV426" r:id="rId17"/>
+    <hyperlink ref="AV241" r:id="rId18"/>
+    <hyperlink ref="AV436" r:id="rId19"/>
+    <hyperlink ref="AV407" r:id="rId20"/>
+    <hyperlink ref="AV454" r:id="rId21"/>
+    <hyperlink ref="AV310" r:id="rId22"/>
+    <hyperlink ref="AV205" r:id="rId23"/>
+    <hyperlink ref="AV206" r:id="rId24"/>
+    <hyperlink ref="AV355" r:id="rId25"/>
+    <hyperlink ref="AV252" r:id="rId26"/>
+    <hyperlink ref="AV254" r:id="rId27"/>
+    <hyperlink ref="AV238" r:id="rId28"/>
+    <hyperlink ref="AV464" r:id="rId29"/>
+    <hyperlink ref="AV459" r:id="rId30"/>
+    <hyperlink ref="AV460" r:id="rId31"/>
+    <hyperlink ref="AV341" r:id="rId32"/>
+    <hyperlink ref="AV345" r:id="rId33"/>
+    <hyperlink ref="AV473" r:id="rId34"/>
+    <hyperlink ref="AV369" r:id="rId35"/>
+    <hyperlink ref="AV240" r:id="rId36"/>
+    <hyperlink ref="AV257" r:id="rId37"/>
+    <hyperlink ref="AV4" r:id="rId38"/>
+    <hyperlink ref="AV208" r:id="rId39"/>
+    <hyperlink ref="AV209" r:id="rId40"/>
+    <hyperlink ref="AV189" r:id="rId41"/>
+    <hyperlink ref="AV364" r:id="rId42"/>
+    <hyperlink ref="AV5" r:id="rId43"/>
+    <hyperlink ref="AV286" r:id="rId44"/>
+    <hyperlink ref="AV287" r:id="rId45"/>
+    <hyperlink ref="AV109" r:id="rId46"/>
+    <hyperlink ref="AV366" r:id="rId47"/>
+    <hyperlink ref="AV374" r:id="rId48"/>
+    <hyperlink ref="AV375" r:id="rId49"/>
+    <hyperlink ref="AV7" r:id="rId50"/>
+    <hyperlink ref="AV45" r:id="rId51"/>
+    <hyperlink ref="AV199" r:id="rId52"/>
+    <hyperlink ref="AV305" r:id="rId53"/>
+    <hyperlink ref="AV68" r:id="rId54"/>
+    <hyperlink ref="AV452" r:id="rId55"/>
+    <hyperlink ref="AV49" r:id="rId56"/>
+    <hyperlink ref="AV292" r:id="rId57"/>
+    <hyperlink ref="AV146" r:id="rId58"/>
+    <hyperlink ref="AV406" r:id="rId59"/>
+    <hyperlink ref="AV89" r:id="rId60"/>
+    <hyperlink ref="AV373" r:id="rId61"/>
+    <hyperlink ref="AV370" r:id="rId62"/>
+    <hyperlink ref="AV308" r:id="rId63"/>
+    <hyperlink ref="AV301" r:id="rId64"/>
+    <hyperlink ref="AV26" r:id="rId65"/>
+    <hyperlink ref="AV242" r:id="rId66"/>
+    <hyperlink ref="AV467" r:id="rId67"/>
+    <hyperlink ref="AV270" r:id="rId68"/>
+    <hyperlink ref="AV271" r:id="rId69"/>
+    <hyperlink ref="AV272" r:id="rId70"/>
+    <hyperlink ref="AV403" r:id="rId71"/>
+    <hyperlink ref="AV266" r:id="rId72"/>
+    <hyperlink ref="AV267" r:id="rId73"/>
+    <hyperlink ref="AV449" r:id="rId74"/>
+    <hyperlink ref="AV214" r:id="rId75"/>
+    <hyperlink ref="AV78" r:id="rId76"/>
+    <hyperlink ref="AV79" r:id="rId77"/>
+    <hyperlink ref="AV468" r:id="rId78"/>
+    <hyperlink ref="AV479" r:id="rId79"/>
+    <hyperlink ref="AV183" r:id="rId80"/>
+    <hyperlink ref="AV391" r:id="rId81"/>
+    <hyperlink ref="AV244" r:id="rId82"/>
+    <hyperlink ref="AV255" r:id="rId83"/>
+    <hyperlink ref="AV438" r:id="rId84"/>
+    <hyperlink ref="AV204" r:id="rId85"/>
+    <hyperlink ref="AV73" r:id="rId86"/>
+    <hyperlink ref="AV74" r:id="rId87"/>
+    <hyperlink ref="AV303" r:id="rId88"/>
+    <hyperlink ref="AV75" r:id="rId89"/>
+    <hyperlink ref="AV67" r:id="rId90"/>
+    <hyperlink ref="AV363" r:id="rId91"/>
+    <hyperlink ref="AV207" r:id="rId92"/>
+    <hyperlink ref="AV210" r:id="rId93"/>
+    <hyperlink ref="AV70" r:id="rId94"/>
+    <hyperlink ref="AV453" r:id="rId95"/>
+    <hyperlink ref="AV84" r:id="rId96"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId97"/>

--- a/db/MDU.xlsx
+++ b/db/MDU.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coreserv-v2\coreserv-mdu\db\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Projects\coreserv.v2\coreserv-v2\db\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1A2BEAFC-32F4-4019-AD28-3D582EC43F4C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="27870" windowHeight="16440" activeTab="1"/>
+    <workbookView xWindow="16215" yWindow="150" windowWidth="11460" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RFP Dashboard" sheetId="9" r:id="rId1"/>
@@ -28,6 +29,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'RFP Template'!$A$1:$N$47</definedName>
   </definedNames>
   <calcPr calcId="181029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -48,12 +50,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Raymund A. Enage</author>
   </authors>
   <commentList>
-    <comment ref="J79" authorId="0" shapeId="0">
+    <comment ref="J79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000001000000}">
       <text>
         <r>
           <rPr>
@@ -77,7 +79,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K79" authorId="0" shapeId="0">
+    <comment ref="K79" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0200-000002000000}">
       <text>
         <r>
           <rPr>
@@ -106,7 +108,7 @@
 </file>
 
 <file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>tc={FA487048-5338-457D-9C18-F6B77FCC2543}</author>
     <author>tc={A1FAA29A-217C-48DF-BD87-6C0939B85494}</author>
@@ -118,7 +120,7 @@
     <author>tc={A4E9201A-B7FA-4F12-9806-17549FBD3CE2}</author>
   </authors>
   <commentList>
-    <comment ref="H1" authorId="0" shapeId="0">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0600-000001000000}">
       <text>
         <r>
           <rPr>
@@ -136,7 +138,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="1" shapeId="0">
+    <comment ref="B11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0600-000002000000}">
       <text>
         <r>
           <rPr>
@@ -153,7 +155,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B12" authorId="2" shapeId="0">
+    <comment ref="B12" authorId="2" shapeId="0" xr:uid="{00000000-0006-0000-0600-000003000000}">
       <text>
         <r>
           <rPr>
@@ -170,7 +172,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="3" shapeId="0">
+    <comment ref="B20" authorId="3" shapeId="0" xr:uid="{00000000-0006-0000-0600-000004000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +189,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B21" authorId="4" shapeId="0">
+    <comment ref="B21" authorId="4" shapeId="0" xr:uid="{00000000-0006-0000-0600-000005000000}">
       <text>
         <r>
           <rPr>
@@ -204,7 +206,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B73" authorId="5" shapeId="0">
+    <comment ref="B73" authorId="5" shapeId="0" xr:uid="{00000000-0006-0000-0600-000006000000}">
       <text>
         <r>
           <rPr>
@@ -222,7 +224,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B74" authorId="6" shapeId="0">
+    <comment ref="B74" authorId="6" shapeId="0" xr:uid="{00000000-0006-0000-0600-000007000000}">
       <text>
         <r>
           <rPr>
@@ -240,7 +242,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AD94" authorId="7" shapeId="0">
+    <comment ref="AD94" authorId="7" shapeId="0" xr:uid="{00000000-0006-0000-0600-000008000000}">
       <text>
         <r>
           <rPr>
@@ -7852,7 +7854,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -7864,7 +7866,7 @@
     <numFmt numFmtId="170" formatCode="[$₱-464]#,##0.00"/>
     <numFmt numFmtId="171" formatCode="[$-409]dd\-mmm\-yy;@"/>
   </numFmts>
-  <fonts count="53">
+  <fonts count="53" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -9620,107 +9622,11 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="39" fontId="16" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="17" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
@@ -9740,14 +9646,110 @@
       <alignment horizontal="left" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="39" fontId="16" fillId="10" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="17" fontId="9" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="10" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Comma 2" xfId="2"/>
-    <cellStyle name="Comma 2 2" xfId="4"/>
+    <cellStyle name="Comma 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="Comma 2 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="3"/>
+    <cellStyle name="Hyperlink 2" xfId="3" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 9" xfId="5"/>
+    <cellStyle name="Normal 9" xfId="5" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
   </cellStyles>
   <dxfs count="1">
     <dxf>
@@ -10226,7 +10228,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="RFP"/>
@@ -11694,7 +11696,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -11704,7 +11706,7 @@
       <selection activeCell="AE5" sqref="AE5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="71" bestFit="1" customWidth="1"/>
@@ -11732,12 +11734,12 @@
     <col min="36" max="16384" width="7.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:35">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.2">
       <c r="B4" s="72" t="s">
         <v>845</v>
       </c>
@@ -11841,7 +11843,7 @@
         <v>1024</v>
       </c>
     </row>
-    <row r="5" spans="1:35" ht="12" customHeight="1">
+    <row r="5" spans="1:35" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>954</v>
       </c>
@@ -11852,82 +11854,82 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="6" spans="1:35">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A6" s="78" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="7" spans="1:35">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="8" spans="1:35">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A8" s="77" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:35">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:35">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A10" s="77"/>
     </row>
-    <row r="11" spans="1:35">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A11" s="77"/>
     </row>
-    <row r="12" spans="1:35">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A12" s="77"/>
     </row>
-    <row r="13" spans="1:35">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A13" s="77"/>
     </row>
-    <row r="14" spans="1:35">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.2">
       <c r="A14" s="77"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="75" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="75" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="75" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="75" t="s">
         <v>958</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="75" t="s">
         <v>959</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="75" t="s">
         <v>963</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="75" t="s">
         <v>960</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="75" t="s">
         <v>961</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="75" t="s">
         <v>962</v>
       </c>
@@ -11938,17 +11940,17 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
   <dimension ref="A1:S46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="29.5703125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" customWidth="1"/>
@@ -11965,7 +11967,7 @@
     <col min="19" max="19" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>907</v>
       </c>
@@ -11982,7 +11984,7 @@
         <v>2518</v>
       </c>
     </row>
-    <row r="3" spans="1:19">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="61" t="s">
         <v>845</v>
       </c>
@@ -11994,7 +11996,7 @@
       <c r="E3" s="10"/>
       <c r="F3" s="10"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="61" t="s">
         <v>831</v>
       </c>
@@ -12005,7 +12007,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="5" spans="1:19">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="61" t="s">
         <v>846</v>
       </c>
@@ -12021,7 +12023,7 @@
       <c r="R5" s="371"/>
       <c r="S5" s="371"/>
     </row>
-    <row r="6" spans="1:19">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A6" s="61" t="s">
         <v>832</v>
       </c>
@@ -12034,7 +12036,7 @@
       <c r="O6" s="2"/>
       <c r="P6" s="2"/>
     </row>
-    <row r="7" spans="1:19">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A7" s="61" t="s">
         <v>847</v>
       </c>
@@ -12047,7 +12049,7 @@
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
     </row>
-    <row r="8" spans="1:19">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="61" t="s">
         <v>848</v>
       </c>
@@ -12058,7 +12060,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="9" spans="1:19">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="61" t="s">
         <v>849</v>
       </c>
@@ -12069,7 +12071,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="10" spans="1:19">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="61" t="s">
         <v>850</v>
       </c>
@@ -12080,7 +12082,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="11" spans="1:19">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="61" t="s">
         <v>851</v>
       </c>
@@ -12091,7 +12093,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="12" spans="1:19">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="61" t="s">
         <v>852</v>
       </c>
@@ -12102,7 +12104,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="14" spans="1:19">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="61" t="s">
         <v>909</v>
       </c>
@@ -12116,7 +12118,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="15" spans="1:19">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="61" t="s">
         <v>914</v>
       </c>
@@ -12130,7 +12132,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="16" spans="1:19">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="61" t="s">
         <v>913</v>
       </c>
@@ -12144,7 +12146,7 @@
         <v>2509</v>
       </c>
     </row>
-    <row r="17" spans="1:15">
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="61" t="s">
         <v>911</v>
       </c>
@@ -12161,7 +12163,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="61" t="s">
         <v>912</v>
       </c>
@@ -12181,7 +12183,7 @@
         <v>916</v>
       </c>
     </row>
-    <row r="19" spans="1:15">
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="61" t="s">
         <v>917</v>
       </c>
@@ -12198,7 +12200,7 @@
         <v>2507</v>
       </c>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="61" t="s">
         <v>921</v>
       </c>
@@ -12215,7 +12217,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="22" spans="1:15">
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="65" t="s">
         <v>864</v>
       </c>
@@ -12235,7 +12237,7 @@
         <v>2511</v>
       </c>
     </row>
-    <row r="23" spans="1:15">
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="65" t="s">
         <v>922</v>
       </c>
@@ -12252,7 +12254,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="65" t="s">
         <v>923</v>
       </c>
@@ -12269,7 +12271,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="65" t="s">
         <v>924</v>
       </c>
@@ -12286,7 +12288,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="65" t="s">
         <v>925</v>
       </c>
@@ -12303,7 +12305,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="27" spans="1:15">
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="65" t="s">
         <v>926</v>
       </c>
@@ -12320,7 +12322,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="28" spans="1:15">
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
         <v>927</v>
       </c>
@@ -12337,7 +12339,7 @@
         <v>2510</v>
       </c>
     </row>
-    <row r="29" spans="1:15">
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A29" s="66" t="s">
         <v>920</v>
       </c>
@@ -12351,7 +12353,7 @@
         <v>2512</v>
       </c>
     </row>
-    <row r="30" spans="1:15">
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A30" s="370" t="s">
         <v>2515</v>
       </c>
@@ -12362,7 +12364,7 @@
         <v>2517</v>
       </c>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="61" t="s">
         <v>928</v>
       </c>
@@ -12376,7 +12378,7 @@
       <c r="M32" s="3"/>
       <c r="O32" s="3"/>
     </row>
-    <row r="33" spans="1:3">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" s="61" t="s">
         <v>929</v>
       </c>
@@ -12387,7 +12389,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" s="61" t="s">
         <v>952</v>
       </c>
@@ -12398,7 +12400,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="35" spans="1:3">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" s="61" t="s">
         <v>930</v>
       </c>
@@ -12409,7 +12411,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="36" spans="1:3">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" s="61" t="s">
         <v>834</v>
       </c>
@@ -12420,7 +12422,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="37" spans="1:3">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" s="61" t="s">
         <v>931</v>
       </c>
@@ -12431,7 +12433,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="39" spans="1:3">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" s="61" t="s">
         <v>943</v>
       </c>
@@ -12442,7 +12444,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="40" spans="1:3">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" s="61" t="s">
         <v>948</v>
       </c>
@@ -12453,7 +12455,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="41" spans="1:3">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" s="61" t="s">
         <v>945</v>
       </c>
@@ -12464,7 +12466,7 @@
         <v>2513</v>
       </c>
     </row>
-    <row r="46" spans="1:3">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>969</v>
       </c>
@@ -12474,7 +12476,7 @@
     <mergeCell ref="O5:S5"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F3">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B3:F3" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>#REF!</formula1>
     </dataValidation>
   </dataValidations>
@@ -12485,14 +12487,14 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:U79"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="G90" sqref="G90"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="15.5703125" customWidth="1"/>
     <col min="2" max="2" width="17.42578125" customWidth="1"/>
@@ -12515,27 +12517,27 @@
     <col min="19" max="19" width="13.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>977</v>
       </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>978</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>979</v>
       </c>
     </row>
-    <row r="5" spans="1:11">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>999</v>
       </c>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B7" s="87" t="s">
         <v>993</v>
       </c>
@@ -12567,7 +12569,7 @@
         <v>834</v>
       </c>
     </row>
-    <row r="8" spans="1:11" ht="15.75">
+    <row r="8" spans="1:11" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>980</v>
       </c>
@@ -12602,7 +12604,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="11" spans="1:11">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>993</v>
       </c>
@@ -12610,7 +12612,7 @@
         <v>44735</v>
       </c>
     </row>
-    <row r="12" spans="1:11">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>994</v>
       </c>
@@ -12618,7 +12620,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="11" t="s">
         <v>0</v>
       </c>
@@ -12626,7 +12628,7 @@
         <v>833</v>
       </c>
     </row>
-    <row r="14" spans="1:11">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="11" t="s">
         <v>835</v>
       </c>
@@ -12634,7 +12636,7 @@
         <v>13454.4</v>
       </c>
     </row>
-    <row r="15" spans="1:11">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="81" t="s">
         <v>836</v>
       </c>
@@ -12642,7 +12644,7 @@
         <v>841</v>
       </c>
     </row>
-    <row r="16" spans="1:11">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="11" t="s">
         <v>837</v>
       </c>
@@ -12650,7 +12652,7 @@
         <v>842</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" s="11" t="s">
         <v>840</v>
       </c>
@@ -12658,7 +12660,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" s="11" t="s">
         <v>838</v>
       </c>
@@ -12666,7 +12668,7 @@
         <v>843</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" s="11" t="s">
         <v>839</v>
       </c>
@@ -12674,7 +12676,7 @@
         <v>82820940</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>834</v>
       </c>
@@ -12682,7 +12684,7 @@
         <v>976</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" s="85" t="s">
         <v>981</v>
       </c>
@@ -12693,7 +12695,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="23" spans="1:10">
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B23" s="60" t="s">
         <v>983</v>
       </c>
@@ -12713,7 +12715,7 @@
         <v>989</v>
       </c>
     </row>
-    <row r="24" spans="1:10">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B24" s="60" t="s">
         <v>984</v>
       </c>
@@ -12721,26 +12723,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="25" spans="1:10">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B25" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C25" s="372"/>
       <c r="D25" s="372"/>
     </row>
-    <row r="26" spans="1:10">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C26" s="372"/>
       <c r="D26" s="372"/>
     </row>
-    <row r="27" spans="1:10">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C27" s="372"/>
       <c r="D27" s="372"/>
     </row>
-    <row r="28" spans="1:10">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="C28" s="372"/>
       <c r="D28" s="372"/>
     </row>
-    <row r="29" spans="1:10">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>988</v>
       </c>
@@ -12748,7 +12750,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="30" spans="1:10">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B30" t="s">
         <v>989</v>
       </c>
@@ -12756,7 +12758,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="31" spans="1:10">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B31" t="s">
         <v>990</v>
       </c>
@@ -12764,7 +12766,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="32" spans="1:10">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B32" t="s">
         <v>1012</v>
       </c>
@@ -12772,7 +12774,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="33" spans="1:4">
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B33" t="s">
         <v>1013</v>
       </c>
@@ -12780,14 +12782,14 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="36" spans="1:4">
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="9" t="s">
         <v>992</v>
       </c>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
     </row>
-    <row r="38" spans="1:4">
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="85" t="s">
         <v>981</v>
       </c>
@@ -12798,7 +12800,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="39" spans="1:4">
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B39" s="60" t="s">
         <v>983</v>
       </c>
@@ -12806,7 +12808,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="40" spans="1:4">
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B40" s="60" t="s">
         <v>984</v>
       </c>
@@ -12814,26 +12816,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="41" spans="1:4">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B41" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C41" s="372"/>
       <c r="D41" s="372"/>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C42" s="372"/>
       <c r="D42" s="372"/>
     </row>
-    <row r="43" spans="1:4">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C43" s="372"/>
       <c r="D43" s="372"/>
     </row>
-    <row r="44" spans="1:4">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C44" s="372"/>
       <c r="D44" s="372"/>
     </row>
-    <row r="45" spans="1:4">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B45" t="s">
         <v>988</v>
       </c>
@@ -12841,7 +12843,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B46" t="s">
         <v>989</v>
       </c>
@@ -12849,7 +12851,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="47" spans="1:4">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B47" t="s">
         <v>990</v>
       </c>
@@ -12857,7 +12859,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B48" t="s">
         <v>1012</v>
       </c>
@@ -12865,7 +12867,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="49" spans="1:4">
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B49" t="s">
         <v>1013</v>
       </c>
@@ -12873,7 +12875,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="52" spans="1:4">
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="85" t="s">
         <v>981</v>
       </c>
@@ -12884,7 +12886,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B53" s="60" t="s">
         <v>983</v>
       </c>
@@ -12892,7 +12894,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B54" s="60" t="s">
         <v>984</v>
       </c>
@@ -12900,26 +12902,26 @@
         <v>987</v>
       </c>
     </row>
-    <row r="55" spans="1:4">
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B55" s="60" t="s">
         <v>991</v>
       </c>
       <c r="C55" s="372"/>
       <c r="D55" s="372"/>
     </row>
-    <row r="56" spans="1:4">
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C56" s="372"/>
       <c r="D56" s="372"/>
     </row>
-    <row r="57" spans="1:4">
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C57" s="372"/>
       <c r="D57" s="372"/>
     </row>
-    <row r="58" spans="1:4">
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="C58" s="372"/>
       <c r="D58" s="372"/>
     </row>
-    <row r="59" spans="1:4">
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B59" t="s">
         <v>988</v>
       </c>
@@ -12927,7 +12929,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B60" t="s">
         <v>989</v>
       </c>
@@ -12935,7 +12937,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B61" t="s">
         <v>990</v>
       </c>
@@ -12943,7 +12945,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="62" spans="1:4">
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B62" t="s">
         <v>1012</v>
       </c>
@@ -12951,7 +12953,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="63" spans="1:4">
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="B63" t="s">
         <v>1013</v>
       </c>
@@ -12959,12 +12961,12 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="66" spans="1:21">
+    <row r="66" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
         <v>1000</v>
       </c>
     </row>
-    <row r="67" spans="1:21">
+    <row r="67" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B67" s="87" t="s">
         <v>993</v>
       </c>
@@ -13023,7 +13025,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="68" spans="1:21" ht="15.75">
+    <row r="68" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
         <v>980</v>
       </c>
@@ -13085,27 +13087,27 @@
         <v>1022</v>
       </c>
     </row>
-    <row r="71" spans="1:21">
+    <row r="71" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
         <v>1001</v>
       </c>
     </row>
-    <row r="72" spans="1:21">
+    <row r="72" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
         <v>1002</v>
       </c>
     </row>
-    <row r="73" spans="1:21">
+    <row r="73" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
         <v>1003</v>
       </c>
     </row>
-    <row r="74" spans="1:21">
+    <row r="74" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
         <v>1004</v>
       </c>
     </row>
-    <row r="76" spans="1:21">
+    <row r="76" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B76" s="80" t="s">
         <v>982</v>
       </c>
@@ -13137,7 +13139,7 @@
         <v>1019</v>
       </c>
     </row>
-    <row r="77" spans="1:21">
+    <row r="77" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B77" s="92">
         <v>44743</v>
       </c>
@@ -13163,7 +13165,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="78" spans="1:21">
+    <row r="78" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B78" s="92">
         <v>44744</v>
       </c>
@@ -13189,7 +13191,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="79" spans="1:21">
+    <row r="79" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B79" s="92">
         <v>44745</v>
       </c>
@@ -13233,7 +13235,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -13243,7 +13245,7 @@
       <selection activeCell="D10" sqref="D10:H13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="21" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="13" customWidth="1"/>
     <col min="2" max="2" width="48.140625" style="14" customWidth="1"/>
@@ -13262,7 +13264,7 @@
     <col min="15" max="16384" width="9.140625" style="12"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1">
+    <row r="1" spans="1:14" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="B1" s="59" t="s">
         <v>906</v>
       </c>
@@ -13274,7 +13276,7 @@
         <v>904</v>
       </c>
     </row>
-    <row r="2" spans="1:14" ht="22.5" customHeight="1" thickTop="1">
+    <row r="2" spans="1:14" ht="22.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.35">
       <c r="B2" s="57" t="s">
         <v>903</v>
       </c>
@@ -13282,31 +13284,31 @@
         <v>902</v>
       </c>
     </row>
-    <row r="3" spans="1:14" ht="35.25" customHeight="1">
-      <c r="A3" s="375"/>
-      <c r="B3" s="375"/>
-      <c r="C3" s="375"/>
-      <c r="D3" s="375"/>
-      <c r="E3" s="375"/>
-      <c r="F3" s="375"/>
-      <c r="G3" s="375"/>
-      <c r="H3" s="375"/>
-      <c r="I3" s="375"/>
-      <c r="J3" s="375"/>
-      <c r="K3" s="375"/>
-      <c r="L3" s="375"/>
-      <c r="M3" s="375"/>
+    <row r="3" spans="1:14" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="400"/>
+      <c r="B3" s="400"/>
+      <c r="C3" s="400"/>
+      <c r="D3" s="400"/>
+      <c r="E3" s="400"/>
+      <c r="F3" s="400"/>
+      <c r="G3" s="400"/>
+      <c r="H3" s="400"/>
+      <c r="I3" s="400"/>
+      <c r="J3" s="400"/>
+      <c r="K3" s="400"/>
+      <c r="L3" s="400"/>
+      <c r="M3" s="400"/>
       <c r="N3" s="15"/>
     </row>
-    <row r="4" spans="1:14">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B4" s="49" t="s">
         <v>901</v>
       </c>
       <c r="C4" s="49"/>
-      <c r="D4" s="376">
+      <c r="D4" s="374">
         <v>7500</v>
       </c>
-      <c r="E4" s="376"/>
+      <c r="E4" s="374"/>
       <c r="I4" s="49" t="s">
         <v>900</v>
       </c>
@@ -13317,30 +13319,30 @@
       <c r="L4" s="14"/>
       <c r="M4" s="14"/>
     </row>
-    <row r="5" spans="1:14">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B5" s="49" t="s">
         <v>898</v>
       </c>
       <c r="C5" s="49"/>
-      <c r="D5" s="377" t="s">
+      <c r="D5" s="401" t="s">
         <v>897</v>
       </c>
-      <c r="E5" s="378"/>
+      <c r="E5" s="402"/>
       <c r="I5" s="49" t="s">
         <v>896</v>
       </c>
       <c r="J5" s="51"/>
-      <c r="K5" s="376" t="s">
+      <c r="K5" s="374" t="s">
         <v>895</v>
       </c>
-      <c r="L5" s="376"/>
-      <c r="M5" s="376"/>
+      <c r="L5" s="374"/>
+      <c r="M5" s="374"/>
     </row>
-    <row r="6" spans="1:14">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B6" s="49"/>
       <c r="C6" s="49"/>
-      <c r="D6" s="379"/>
-      <c r="E6" s="379"/>
+      <c r="D6" s="403"/>
+      <c r="E6" s="403"/>
       <c r="I6" s="49" t="s">
         <v>894</v>
       </c>
@@ -13348,177 +13350,177 @@
         <f>IF(ISERROR(VLOOKUP(K6,[1]Sheet2!A1:B13,2,FALSE)),"",VLOOKUP(K6,[1]Sheet2!A1:B13,2,FALSE))</f>
         <v>RP</v>
       </c>
-      <c r="K6" s="376" t="s">
+      <c r="K6" s="374" t="s">
         <v>893</v>
       </c>
-      <c r="L6" s="376"/>
-      <c r="M6" s="376"/>
+      <c r="L6" s="374"/>
+      <c r="M6" s="374"/>
     </row>
-    <row r="7" spans="1:14">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B7" s="55"/>
       <c r="C7" s="55"/>
     </row>
-    <row r="8" spans="1:14">
-      <c r="B8" s="380" t="s">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B8" s="394" t="s">
         <v>892</v>
       </c>
-      <c r="C8" s="380"/>
-      <c r="D8" s="380"/>
-      <c r="E8" s="380"/>
-      <c r="F8" s="380"/>
-      <c r="G8" s="380"/>
-      <c r="H8" s="380"/>
-      <c r="I8" s="380"/>
-      <c r="J8" s="380"/>
-      <c r="K8" s="380"/>
-      <c r="L8" s="380"/>
-      <c r="M8" s="381"/>
+      <c r="C8" s="394"/>
+      <c r="D8" s="394"/>
+      <c r="E8" s="394"/>
+      <c r="F8" s="394"/>
+      <c r="G8" s="394"/>
+      <c r="H8" s="394"/>
+      <c r="I8" s="394"/>
+      <c r="J8" s="394"/>
+      <c r="K8" s="394"/>
+      <c r="L8" s="394"/>
+      <c r="M8" s="395"/>
     </row>
-    <row r="9" spans="1:14">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9" s="49" t="s">
         <v>891</v>
       </c>
       <c r="C9" s="49"/>
-      <c r="D9" s="376"/>
-      <c r="E9" s="376"/>
-      <c r="F9" s="376"/>
-      <c r="G9" s="376"/>
-      <c r="H9" s="376"/>
+      <c r="D9" s="374"/>
+      <c r="E9" s="374"/>
+      <c r="F9" s="374"/>
+      <c r="G9" s="374"/>
+      <c r="H9" s="374"/>
       <c r="M9" s="48"/>
     </row>
-    <row r="10" spans="1:14" ht="26.25">
+    <row r="10" spans="1:14" ht="26.25" x14ac:dyDescent="0.35">
       <c r="B10" s="49" t="s">
         <v>890</v>
       </c>
       <c r="C10" s="49"/>
-      <c r="D10" s="382" t="s">
+      <c r="D10" s="404" t="s">
         <v>240</v>
       </c>
-      <c r="E10" s="382"/>
-      <c r="F10" s="382"/>
-      <c r="G10" s="382"/>
-      <c r="H10" s="382"/>
+      <c r="E10" s="404"/>
+      <c r="F10" s="404"/>
+      <c r="G10" s="404"/>
+      <c r="H10" s="404"/>
       <c r="M10" s="48"/>
     </row>
-    <row r="11" spans="1:14" ht="53.25" customHeight="1">
+    <row r="11" spans="1:14" ht="53.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="B11" s="49" t="s">
         <v>889</v>
       </c>
       <c r="C11" s="49"/>
-      <c r="D11" s="373" t="s">
+      <c r="D11" s="391" t="s">
         <v>888</v>
       </c>
-      <c r="E11" s="373"/>
-      <c r="F11" s="373"/>
-      <c r="G11" s="373"/>
-      <c r="H11" s="373"/>
+      <c r="E11" s="391"/>
+      <c r="F11" s="391"/>
+      <c r="G11" s="391"/>
+      <c r="H11" s="391"/>
       <c r="M11" s="48"/>
     </row>
-    <row r="12" spans="1:14">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B12" s="49" t="s">
         <v>878</v>
       </c>
       <c r="C12" s="49"/>
-      <c r="D12" s="374" t="s">
+      <c r="D12" s="399" t="s">
         <v>887</v>
       </c>
-      <c r="E12" s="374"/>
-      <c r="F12" s="374"/>
-      <c r="G12" s="374"/>
-      <c r="H12" s="374"/>
+      <c r="E12" s="399"/>
+      <c r="F12" s="399"/>
+      <c r="G12" s="399"/>
+      <c r="H12" s="399"/>
       <c r="M12" s="48"/>
     </row>
-    <row r="13" spans="1:14">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B13" s="49" t="s">
         <v>886</v>
       </c>
       <c r="C13" s="49"/>
-      <c r="D13" s="374" t="s">
+      <c r="D13" s="399" t="s">
         <v>885</v>
       </c>
-      <c r="E13" s="374"/>
-      <c r="F13" s="374"/>
-      <c r="G13" s="374"/>
-      <c r="H13" s="374"/>
+      <c r="E13" s="399"/>
+      <c r="F13" s="399"/>
+      <c r="G13" s="399"/>
+      <c r="H13" s="399"/>
       <c r="M13" s="48"/>
     </row>
-    <row r="14" spans="1:14">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B14" s="54"/>
       <c r="C14" s="54"/>
-      <c r="D14" s="386"/>
-      <c r="E14" s="386"/>
-      <c r="F14" s="386"/>
-      <c r="G14" s="386"/>
-      <c r="H14" s="386"/>
+      <c r="D14" s="393"/>
+      <c r="E14" s="393"/>
+      <c r="F14" s="393"/>
+      <c r="G14" s="393"/>
+      <c r="H14" s="393"/>
       <c r="I14" s="54"/>
       <c r="J14" s="54"/>
       <c r="K14" s="54"/>
       <c r="L14" s="54"/>
       <c r="M14" s="53"/>
     </row>
-    <row r="16" spans="1:14">
-      <c r="B16" s="380" t="s">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B16" s="394" t="s">
         <v>884</v>
       </c>
-      <c r="C16" s="380"/>
-      <c r="D16" s="380"/>
-      <c r="E16" s="380"/>
-      <c r="F16" s="380"/>
-      <c r="G16" s="380"/>
-      <c r="H16" s="380"/>
-      <c r="I16" s="380"/>
-      <c r="J16" s="380"/>
-      <c r="K16" s="380"/>
-      <c r="L16" s="380"/>
-      <c r="M16" s="381"/>
+      <c r="C16" s="394"/>
+      <c r="D16" s="394"/>
+      <c r="E16" s="394"/>
+      <c r="F16" s="394"/>
+      <c r="G16" s="394"/>
+      <c r="H16" s="394"/>
+      <c r="I16" s="394"/>
+      <c r="J16" s="394"/>
+      <c r="K16" s="394"/>
+      <c r="L16" s="394"/>
+      <c r="M16" s="395"/>
     </row>
-    <row r="17" spans="1:15" ht="26.25">
+    <row r="17" spans="1:15" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A17" s="12"/>
       <c r="B17" s="49" t="s">
         <v>883</v>
       </c>
       <c r="C17" s="49"/>
-      <c r="D17" s="387" t="s">
+      <c r="D17" s="396" t="s">
         <v>882</v>
       </c>
-      <c r="E17" s="387"/>
-      <c r="F17" s="387"/>
+      <c r="E17" s="396"/>
+      <c r="F17" s="396"/>
       <c r="G17" s="52"/>
       <c r="I17" s="49" t="s">
         <v>881</v>
       </c>
-      <c r="J17" s="388" t="s">
+      <c r="J17" s="397" t="s">
         <v>880</v>
       </c>
-      <c r="K17" s="388"/>
-      <c r="L17" s="388"/>
+      <c r="K17" s="397"/>
+      <c r="L17" s="397"/>
       <c r="M17" s="48"/>
       <c r="N17" s="12"/>
     </row>
-    <row r="18" spans="1:15">
+    <row r="18" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A18" s="12"/>
       <c r="B18" s="49" t="s">
         <v>879</v>
       </c>
       <c r="C18" s="49"/>
-      <c r="D18" s="389" t="str">
+      <c r="D18" s="398" t="str">
         <f>IF(ISERROR(VLOOKUP(D17,[1]Sheet3!A1:B100,2,FALSE)),"",VLOOKUP(D17,[1]Sheet3!A1:B100,2,FALSE))</f>
         <v/>
       </c>
-      <c r="E18" s="389"/>
-      <c r="F18" s="389"/>
+      <c r="E18" s="398"/>
+      <c r="F18" s="398"/>
       <c r="I18" s="49" t="s">
         <v>878</v>
       </c>
-      <c r="J18" s="373" t="s">
+      <c r="J18" s="391" t="s">
         <v>877</v>
       </c>
-      <c r="K18" s="373"/>
-      <c r="L18" s="373"/>
+      <c r="K18" s="391"/>
+      <c r="L18" s="391"/>
       <c r="M18" s="48"/>
       <c r="N18" s="12"/>
     </row>
-    <row r="19" spans="1:15" ht="54" customHeight="1">
+    <row r="19" spans="1:15" ht="54" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="12"/>
       <c r="B19" s="49" t="s">
         <v>876</v>
@@ -13527,37 +13529,37 @@
         <f>IF(ISERROR(VLOOKUP(D19,[1]Sheet2!A16:B45,2,FALSE)),"",VLOOKUP(D19,[1]Sheet2!A16:B45,2,FALSE))</f>
         <v/>
       </c>
-      <c r="D19" s="383" t="s">
+      <c r="D19" s="389" t="s">
         <v>875</v>
       </c>
-      <c r="E19" s="383"/>
-      <c r="F19" s="383"/>
+      <c r="E19" s="389"/>
+      <c r="F19" s="389"/>
       <c r="G19" s="51"/>
       <c r="I19" s="49" t="s">
         <v>874</v>
       </c>
-      <c r="J19" s="384" t="s">
+      <c r="J19" s="390" t="s">
         <v>873</v>
       </c>
-      <c r="K19" s="373"/>
-      <c r="L19" s="373"/>
+      <c r="K19" s="391"/>
+      <c r="L19" s="391"/>
       <c r="M19" s="48"/>
       <c r="N19" s="12"/>
     </row>
-    <row r="20" spans="1:15">
+    <row r="20" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A20" s="12"/>
       <c r="B20" s="49"/>
       <c r="C20" s="49"/>
       <c r="E20" s="22"/>
       <c r="F20" s="22"/>
       <c r="G20" s="22"/>
-      <c r="J20" s="385"/>
-      <c r="K20" s="385"/>
-      <c r="L20" s="385"/>
+      <c r="J20" s="392"/>
+      <c r="K20" s="392"/>
+      <c r="L20" s="392"/>
       <c r="M20" s="48"/>
       <c r="N20" s="12"/>
     </row>
-    <row r="21" spans="1:15">
+    <row r="21" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A21" s="12"/>
       <c r="B21" s="49" t="s">
         <v>872</v>
@@ -13577,31 +13579,31 @@
       <c r="M21" s="48"/>
       <c r="N21" s="12"/>
     </row>
-    <row r="22" spans="1:15" ht="35.25" customHeight="1">
+    <row r="22" spans="1:15" ht="35.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="12"/>
       <c r="B22" s="15"/>
       <c r="C22" s="15"/>
-      <c r="D22" s="397"/>
-      <c r="E22" s="397"/>
-      <c r="F22" s="397"/>
-      <c r="G22" s="397"/>
+      <c r="D22" s="388"/>
+      <c r="E22" s="388"/>
+      <c r="F22" s="388"/>
+      <c r="G22" s="388"/>
       <c r="H22" s="38"/>
       <c r="I22" s="49" t="s">
         <v>870</v>
       </c>
-      <c r="J22" s="390">
+      <c r="J22" s="384">
         <f>SUM(I28:I30)</f>
         <v>1578.85</v>
       </c>
-      <c r="K22" s="390"/>
-      <c r="L22" s="390"/>
+      <c r="K22" s="384"/>
+      <c r="L22" s="384"/>
       <c r="M22" s="48"/>
       <c r="N22" s="12"/>
     </row>
-    <row r="24" spans="1:15">
+    <row r="24" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A24" s="12"/>
-      <c r="B24" s="394"/>
-      <c r="C24" s="394"/>
+      <c r="B24" s="385"/>
+      <c r="C24" s="385"/>
       <c r="D24" s="46" t="s">
         <v>869</v>
       </c>
@@ -13620,36 +13622,36 @@
       <c r="I24" s="45" t="s">
         <v>864</v>
       </c>
-      <c r="J24" s="395" t="s">
+      <c r="J24" s="386" t="s">
         <v>863</v>
       </c>
-      <c r="K24" s="394"/>
-      <c r="L24" s="394"/>
-      <c r="M24" s="396"/>
+      <c r="K24" s="385"/>
+      <c r="L24" s="385"/>
+      <c r="M24" s="387"/>
       <c r="N24" s="12"/>
     </row>
-    <row r="25" spans="1:15">
+    <row r="25" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A25" s="12"/>
-      <c r="B25" s="391"/>
-      <c r="C25" s="391"/>
+      <c r="B25" s="379"/>
+      <c r="C25" s="379"/>
       <c r="D25" s="28"/>
       <c r="E25" s="28"/>
       <c r="F25" s="28"/>
       <c r="G25" s="28"/>
       <c r="H25" s="35"/>
       <c r="I25" s="44"/>
-      <c r="J25" s="391"/>
-      <c r="K25" s="391"/>
-      <c r="L25" s="391"/>
-      <c r="M25" s="392"/>
+      <c r="J25" s="379"/>
+      <c r="K25" s="379"/>
+      <c r="L25" s="379"/>
+      <c r="M25" s="380"/>
       <c r="N25" s="12"/>
     </row>
-    <row r="26" spans="1:15">
+    <row r="26" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A26" s="12"/>
-      <c r="B26" s="393" t="s">
+      <c r="B26" s="381" t="s">
         <v>862</v>
       </c>
-      <c r="C26" s="393"/>
+      <c r="C26" s="381"/>
       <c r="D26" s="28"/>
       <c r="E26" s="43"/>
       <c r="F26" s="16" t="s">
@@ -13658,19 +13660,19 @@
       <c r="G26" s="43"/>
       <c r="H26" s="35"/>
       <c r="I26" s="34"/>
-      <c r="J26" s="391"/>
-      <c r="K26" s="391"/>
-      <c r="L26" s="391"/>
-      <c r="M26" s="392"/>
+      <c r="J26" s="379"/>
+      <c r="K26" s="379"/>
+      <c r="L26" s="379"/>
+      <c r="M26" s="380"/>
       <c r="N26" s="12"/>
     </row>
-    <row r="27" spans="1:15" ht="65.25" customHeight="1">
+    <row r="27" spans="1:15" ht="65.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A27" s="12"/>
-      <c r="B27" s="398" t="str">
+      <c r="B27" s="382" t="str">
         <f>D10</f>
         <v>MEDICAL PLAZA ORTIGAS CONDOMINIUM CORP</v>
       </c>
-      <c r="C27" s="398"/>
+      <c r="C27" s="382"/>
       <c r="D27" s="28"/>
       <c r="E27" s="28"/>
       <c r="F27" s="16" t="s">
@@ -13679,16 +13681,16 @@
       <c r="G27" s="16"/>
       <c r="H27" s="35"/>
       <c r="I27" s="34"/>
-      <c r="J27" s="391"/>
-      <c r="K27" s="391"/>
-      <c r="L27" s="391"/>
-      <c r="M27" s="392"/>
+      <c r="J27" s="379"/>
+      <c r="K27" s="379"/>
+      <c r="L27" s="379"/>
+      <c r="M27" s="380"/>
       <c r="N27" s="12"/>
     </row>
-    <row r="28" spans="1:15" ht="26.25">
+    <row r="28" spans="1:15" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A28" s="12"/>
-      <c r="B28" s="399"/>
-      <c r="C28" s="399"/>
+      <c r="B28" s="383"/>
+      <c r="C28" s="383"/>
       <c r="D28" s="28"/>
       <c r="E28" s="28"/>
       <c r="F28" s="28"/>
@@ -13697,33 +13699,33 @@
       <c r="I28" s="42">
         <v>1578.85</v>
       </c>
-      <c r="J28" s="391" t="s">
+      <c r="J28" s="379" t="s">
         <v>859</v>
       </c>
-      <c r="K28" s="391"/>
-      <c r="L28" s="391"/>
-      <c r="M28" s="392"/>
+      <c r="K28" s="379"/>
+      <c r="L28" s="379"/>
+      <c r="M28" s="380"/>
       <c r="N28" s="28"/>
       <c r="O28" s="28"/>
     </row>
-    <row r="29" spans="1:15" ht="23.25">
+    <row r="29" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A29" s="12"/>
-      <c r="B29" s="393"/>
-      <c r="C29" s="393"/>
+      <c r="B29" s="381"/>
+      <c r="C29" s="381"/>
       <c r="D29" s="38"/>
       <c r="E29" s="38"/>
       <c r="F29" s="38"/>
       <c r="G29" s="38"/>
       <c r="H29" s="37"/>
       <c r="I29" s="41"/>
-      <c r="J29" s="391"/>
-      <c r="K29" s="391"/>
-      <c r="L29" s="391"/>
-      <c r="M29" s="392"/>
+      <c r="J29" s="379"/>
+      <c r="K29" s="379"/>
+      <c r="L29" s="379"/>
+      <c r="M29" s="380"/>
       <c r="N29" s="28"/>
       <c r="O29" s="28"/>
     </row>
-    <row r="30" spans="1:15" ht="23.25">
+    <row r="30" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A30" s="12"/>
       <c r="B30" s="40"/>
       <c r="C30" s="40"/>
@@ -13733,14 +13735,14 @@
       <c r="G30" s="38"/>
       <c r="H30" s="37"/>
       <c r="I30" s="39"/>
-      <c r="J30" s="391"/>
-      <c r="K30" s="391"/>
-      <c r="L30" s="391"/>
-      <c r="M30" s="392"/>
+      <c r="J30" s="379"/>
+      <c r="K30" s="379"/>
+      <c r="L30" s="379"/>
+      <c r="M30" s="380"/>
       <c r="N30" s="38"/>
       <c r="O30" s="38"/>
     </row>
-    <row r="31" spans="1:15" ht="23.25">
+    <row r="31" spans="1:15" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A31" s="12"/>
       <c r="B31" s="40"/>
       <c r="C31" s="40"/>
@@ -13750,90 +13752,90 @@
       <c r="G31" s="38"/>
       <c r="H31" s="37"/>
       <c r="I31" s="39"/>
-      <c r="J31" s="391"/>
-      <c r="K31" s="391"/>
-      <c r="L31" s="391"/>
-      <c r="M31" s="392"/>
+      <c r="J31" s="379"/>
+      <c r="K31" s="379"/>
+      <c r="L31" s="379"/>
+      <c r="M31" s="380"/>
       <c r="N31" s="38"/>
       <c r="O31" s="38"/>
     </row>
-    <row r="32" spans="1:15">
+    <row r="32" spans="1:15" x14ac:dyDescent="0.35">
       <c r="A32" s="12"/>
-      <c r="B32" s="393"/>
-      <c r="C32" s="393"/>
+      <c r="B32" s="381"/>
+      <c r="C32" s="381"/>
       <c r="D32" s="38"/>
       <c r="E32" s="38"/>
       <c r="F32" s="38"/>
       <c r="G32" s="38"/>
       <c r="H32" s="37"/>
       <c r="I32" s="36"/>
-      <c r="J32" s="391"/>
-      <c r="K32" s="391"/>
-      <c r="L32" s="391"/>
-      <c r="M32" s="392"/>
+      <c r="J32" s="379"/>
+      <c r="K32" s="379"/>
+      <c r="L32" s="379"/>
+      <c r="M32" s="380"/>
       <c r="N32" s="12"/>
     </row>
-    <row r="33" spans="1:14">
+    <row r="33" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A33" s="12"/>
-      <c r="B33" s="391"/>
-      <c r="C33" s="391"/>
+      <c r="B33" s="379"/>
+      <c r="C33" s="379"/>
       <c r="D33" s="28"/>
       <c r="E33" s="28"/>
       <c r="F33" s="28"/>
       <c r="G33" s="28"/>
       <c r="H33" s="35"/>
       <c r="I33" s="34"/>
-      <c r="J33" s="391"/>
-      <c r="K33" s="391"/>
-      <c r="L33" s="391"/>
-      <c r="M33" s="392"/>
+      <c r="J33" s="379"/>
+      <c r="K33" s="379"/>
+      <c r="L33" s="379"/>
+      <c r="M33" s="380"/>
       <c r="N33" s="12"/>
     </row>
-    <row r="34" spans="1:14">
+    <row r="34" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A34" s="12"/>
-      <c r="B34" s="391"/>
-      <c r="C34" s="391"/>
+      <c r="B34" s="379"/>
+      <c r="C34" s="379"/>
       <c r="D34" s="28"/>
       <c r="E34" s="28"/>
       <c r="F34" s="28"/>
       <c r="G34" s="28"/>
       <c r="H34" s="35"/>
       <c r="I34" s="34"/>
-      <c r="J34" s="391"/>
-      <c r="K34" s="391"/>
-      <c r="L34" s="391"/>
-      <c r="M34" s="392"/>
+      <c r="J34" s="379"/>
+      <c r="K34" s="379"/>
+      <c r="L34" s="379"/>
+      <c r="M34" s="380"/>
       <c r="N34" s="12"/>
     </row>
-    <row r="35" spans="1:14">
-      <c r="B35" s="391"/>
-      <c r="C35" s="391"/>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B35" s="379"/>
+      <c r="C35" s="379"/>
       <c r="D35" s="28"/>
       <c r="E35" s="28"/>
       <c r="F35" s="28"/>
       <c r="G35" s="28"/>
       <c r="H35" s="35"/>
       <c r="I35" s="34"/>
-      <c r="J35" s="391"/>
-      <c r="K35" s="391"/>
-      <c r="L35" s="391"/>
-      <c r="M35" s="392"/>
+      <c r="J35" s="379"/>
+      <c r="K35" s="379"/>
+      <c r="L35" s="379"/>
+      <c r="M35" s="380"/>
     </row>
-    <row r="36" spans="1:14">
-      <c r="B36" s="376"/>
-      <c r="C36" s="376"/>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.35">
+      <c r="B36" s="374"/>
+      <c r="C36" s="374"/>
       <c r="D36" s="20"/>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
       <c r="H36" s="33"/>
       <c r="I36" s="32"/>
-      <c r="J36" s="376"/>
-      <c r="K36" s="376"/>
-      <c r="L36" s="376"/>
-      <c r="M36" s="401"/>
+      <c r="J36" s="374"/>
+      <c r="K36" s="374"/>
+      <c r="L36" s="374"/>
+      <c r="M36" s="375"/>
     </row>
-    <row r="38" spans="1:14">
+    <row r="38" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B38" s="31" t="s">
         <v>858</v>
       </c>
@@ -13853,7 +13855,7 @@
       <c r="L38" s="30"/>
       <c r="M38" s="29"/>
     </row>
-    <row r="39" spans="1:14">
+    <row r="39" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B39" s="28"/>
       <c r="C39" s="28"/>
       <c r="D39" s="22"/>
@@ -13866,23 +13868,23 @@
       <c r="L39" s="22"/>
       <c r="M39" s="21"/>
     </row>
-    <row r="40" spans="1:14" ht="23.25">
-      <c r="B40" s="402" t="s">
+    <row r="40" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B40" s="376" t="s">
         <v>855</v>
       </c>
-      <c r="C40" s="402"/>
-      <c r="D40" s="402"/>
+      <c r="C40" s="376"/>
+      <c r="D40" s="376"/>
       <c r="E40" s="27"/>
-      <c r="F40" s="403"/>
-      <c r="G40" s="403"/>
-      <c r="H40" s="403"/>
+      <c r="F40" s="377"/>
+      <c r="G40" s="377"/>
+      <c r="H40" s="377"/>
       <c r="I40" s="22"/>
-      <c r="J40" s="404"/>
-      <c r="K40" s="404"/>
-      <c r="L40" s="404"/>
+      <c r="J40" s="378"/>
+      <c r="K40" s="378"/>
+      <c r="L40" s="378"/>
       <c r="M40" s="21"/>
     </row>
-    <row r="41" spans="1:14">
+    <row r="41" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B41" s="20"/>
       <c r="C41" s="20"/>
       <c r="D41" s="19"/>
@@ -13896,7 +13898,7 @@
       <c r="L41" s="19"/>
       <c r="M41" s="18"/>
     </row>
-    <row r="43" spans="1:14" ht="23.25">
+    <row r="43" spans="1:14" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B43" s="26" t="s">
         <v>854</v>
       </c>
@@ -13912,23 +13914,23 @@
       <c r="L43" s="24"/>
       <c r="M43" s="23"/>
     </row>
-    <row r="44" spans="1:14" ht="31.5">
-      <c r="B44" s="400" t="s">
+    <row r="44" spans="1:14" ht="31.5" x14ac:dyDescent="0.35">
+      <c r="B44" s="373" t="s">
         <v>853</v>
       </c>
-      <c r="C44" s="400"/>
-      <c r="D44" s="400"/>
-      <c r="E44" s="400"/>
-      <c r="F44" s="400"/>
-      <c r="G44" s="400"/>
-      <c r="H44" s="400"/>
-      <c r="I44" s="400"/>
+      <c r="C44" s="373"/>
+      <c r="D44" s="373"/>
+      <c r="E44" s="373"/>
+      <c r="F44" s="373"/>
+      <c r="G44" s="373"/>
+      <c r="H44" s="373"/>
+      <c r="I44" s="373"/>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
       <c r="L44" s="22"/>
       <c r="M44" s="21"/>
     </row>
-    <row r="45" spans="1:14">
+    <row r="45" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B45" s="20"/>
       <c r="C45" s="20"/>
       <c r="D45" s="19"/>
@@ -13942,7 +13944,7 @@
       <c r="L45" s="19"/>
       <c r="M45" s="18"/>
     </row>
-    <row r="48" spans="1:14">
+    <row r="48" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B48" s="17"/>
       <c r="C48" s="17"/>
       <c r="E48" s="15"/>
@@ -13952,45 +13954,6 @@
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="B44:I44"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="J36:M36"/>
-    <mergeCell ref="B40:D40"/>
-    <mergeCell ref="F40:H40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="J34:M34"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="J35:M35"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="J33:M33"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="J32:M32"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="J27:M27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="J29:M29"/>
-    <mergeCell ref="J28:M28"/>
-    <mergeCell ref="J30:M30"/>
-    <mergeCell ref="J31:M31"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="J25:M25"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="J26:M26"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="J24:M24"/>
-    <mergeCell ref="D22:G22"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="D14:H14"/>
-    <mergeCell ref="B16:M16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="J18:L18"/>
     <mergeCell ref="D11:H11"/>
     <mergeCell ref="D12:H12"/>
     <mergeCell ref="D13:H13"/>
@@ -14003,21 +13966,60 @@
     <mergeCell ref="B8:M8"/>
     <mergeCell ref="D9:H9"/>
     <mergeCell ref="D10:H10"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="D14:H14"/>
+    <mergeCell ref="B16:M16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="B25:C25"/>
+    <mergeCell ref="J25:M25"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="J26:M26"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="J24:M24"/>
+    <mergeCell ref="D22:G22"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="J32:M32"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="J27:M27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="J29:M29"/>
+    <mergeCell ref="J28:M28"/>
+    <mergeCell ref="J30:M30"/>
+    <mergeCell ref="J31:M31"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="J34:M34"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="J35:M35"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="J33:M33"/>
+    <mergeCell ref="B44:I44"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="J36:M36"/>
+    <mergeCell ref="B40:D40"/>
+    <mergeCell ref="F40:H40"/>
+    <mergeCell ref="J40:L40"/>
   </mergeCells>
   <dataValidations count="4">
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26:D36">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D26:D36" xr:uid="{00000000-0002-0000-0300-000000000000}">
       <formula1>"D,C"</formula1>
     </dataValidation>
-    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25">
+    <dataValidation type="list" showInputMessage="1" showErrorMessage="1" sqref="D25" xr:uid="{00000000-0002-0000-0300-000001000000}">
       <formula1>"D, C"</formula1>
     </dataValidation>
-    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G19 C19"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4">
+    <dataValidation showInputMessage="1" showErrorMessage="1" sqref="G19 C19" xr:uid="{00000000-0002-0000-0300-000002000000}"/>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="K4" xr:uid="{00000000-0002-0000-0300-000003000000}">
       <formula1>"Y,N"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
-    <hyperlink ref="J19" r:id="rId1"/>
+    <hyperlink ref="J19" r:id="rId1" xr:uid="{00000000-0004-0000-0300-000000000000}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0.15748031496062992" header="0.11811023622047245" footer="0.11811023622047245"/>
@@ -14027,7 +14029,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -14037,7 +14039,7 @@
       <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="7.42578125" defaultRowHeight="12" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5703125" style="8" customWidth="1"/>
     <col min="2" max="2" width="11.42578125" style="71" bestFit="1" customWidth="1"/>
@@ -14054,12 +14056,12 @@
     <col min="14" max="16384" width="7.42578125" style="8"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
         <v>953</v>
       </c>
     </row>
-    <row r="4" spans="1:13">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="B4" s="72" t="s">
         <v>845</v>
       </c>
@@ -14097,87 +14099,87 @@
         <v>930</v>
       </c>
     </row>
-    <row r="5" spans="1:13" ht="12" customHeight="1">
+    <row r="5" spans="1:13" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="76" t="s">
         <v>954</v>
       </c>
     </row>
-    <row r="6" spans="1:13">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="77" t="s">
         <v>965</v>
       </c>
     </row>
-    <row r="7" spans="1:13">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="77" t="s">
         <v>967</v>
       </c>
     </row>
-    <row r="8" spans="1:13">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="78" t="s">
         <v>966</v>
       </c>
     </row>
-    <row r="9" spans="1:13">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="77" t="s">
         <v>968</v>
       </c>
     </row>
-    <row r="10" spans="1:13">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="77"/>
     </row>
-    <row r="11" spans="1:13">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="77"/>
     </row>
-    <row r="12" spans="1:13">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="77"/>
     </row>
-    <row r="13" spans="1:13">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="77"/>
     </row>
-    <row r="14" spans="1:13">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="77"/>
     </row>
-    <row r="17" spans="2:2">
+    <row r="17" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B17" s="75" t="s">
         <v>955</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
+    <row r="18" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B18" s="75" t="s">
         <v>956</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
+    <row r="19" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B19" s="75" t="s">
         <v>957</v>
       </c>
     </row>
-    <row r="20" spans="2:2">
+    <row r="20" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B20" s="75" t="s">
         <v>970</v>
       </c>
     </row>
-    <row r="21" spans="2:2">
+    <row r="21" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B21" s="75" t="s">
         <v>971</v>
       </c>
     </row>
-    <row r="22" spans="2:2">
+    <row r="22" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B22" s="75" t="s">
         <v>972</v>
       </c>
     </row>
-    <row r="23" spans="2:2">
+    <row r="23" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B23" s="75" t="s">
         <v>973</v>
       </c>
     </row>
-    <row r="24" spans="2:2">
+    <row r="24" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B24" s="75" t="s">
         <v>974</v>
       </c>
     </row>
-    <row r="25" spans="2:2">
+    <row r="25" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B25" s="75" t="s">
         <v>962</v>
       </c>
@@ -14188,7 +14190,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor theme="8" tint="0.59999389629810485"/>
   </sheetPr>
@@ -14198,7 +14200,7 @@
       <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="41.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="22.5703125" customWidth="1"/>
@@ -14211,12 +14213,12 @@
     <col min="9" max="9" width="7.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>951</v>
       </c>
     </row>
-    <row r="2" spans="1:12">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="62" t="s">
         <v>845</v>
       </c>
@@ -14245,7 +14247,7 @@
         <v>931</v>
       </c>
     </row>
-    <row r="3" spans="1:12">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="62" t="s">
         <v>831</v>
       </c>
@@ -14271,7 +14273,7 @@
         <v>940</v>
       </c>
     </row>
-    <row r="4" spans="1:12">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A4" s="62" t="s">
         <v>846</v>
       </c>
@@ -14297,7 +14299,7 @@
         <v>941</v>
       </c>
     </row>
-    <row r="5" spans="1:12">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" s="62" t="s">
         <v>832</v>
       </c>
@@ -14323,7 +14325,7 @@
         <v>942</v>
       </c>
     </row>
-    <row r="6" spans="1:12">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="62" t="s">
         <v>847</v>
       </c>
@@ -14337,7 +14339,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="7" spans="1:12">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="62" t="s">
         <v>848</v>
       </c>
@@ -14351,7 +14353,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="8" spans="1:12">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" s="62" t="s">
         <v>849</v>
       </c>
@@ -14362,7 +14364,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="9" spans="1:12">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" s="62" t="s">
         <v>850</v>
       </c>
@@ -14373,7 +14375,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="10" spans="1:12">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10" s="62" t="s">
         <v>851</v>
       </c>
@@ -14384,7 +14386,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11" s="62" t="s">
         <v>852</v>
       </c>
@@ -14395,7 +14397,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12" s="62" t="s">
         <v>834</v>
       </c>
@@ -14406,7 +14408,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13" s="62" t="s">
         <v>930</v>
       </c>
@@ -14417,27 +14419,27 @@
         <v>341</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J14" t="s">
         <v>656</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J16" t="s">
         <v>939</v>
       </c>
     </row>
-    <row r="17" spans="1:10">
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J17" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:10">
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>975</v>
       </c>
@@ -14445,12 +14447,12 @@
         <v>47</v>
       </c>
     </row>
-    <row r="19" spans="1:10">
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J19" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:10">
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="J20" t="s">
         <v>199</v>
       </c>
@@ -14462,7 +14464,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr filterMode="1">
     <tabColor rgb="FF92D050"/>
   </sheetPr>
@@ -14473,7 +14475,7 @@
       <selection pane="bottomLeft" activeCell="AG480" sqref="AG480"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="13.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="51.140625" style="99" customWidth="1"/>
     <col min="2" max="2" width="50.140625" style="99" customWidth="1"/>
@@ -14519,7 +14521,7 @@
     <col min="45" max="16384" width="13.5703125" style="94"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:48" s="97" customFormat="1" ht="45.75" customHeight="1">
+    <row r="1" spans="1:48" s="97" customFormat="1" ht="45.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="367" t="s">
         <v>0</v>
       </c>
@@ -14665,7 +14667,7 @@
         <v>2476</v>
       </c>
     </row>
-    <row r="2" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="2" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="116" t="s">
         <v>2472</v>
       </c>
@@ -14794,7 +14796,7 @@
       <c r="AU2" s="109"/>
       <c r="AV2" s="109"/>
     </row>
-    <row r="3" spans="1:48" s="231" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="3" spans="1:48" s="231" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="116" t="s">
         <v>2472</v>
       </c>
@@ -14907,7 +14909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="4" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="221" t="s">
         <v>2467</v>
       </c>
@@ -15043,7 +15045,7 @@
         <v>2462</v>
       </c>
     </row>
-    <row r="5" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="5" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="116" t="s">
         <v>28</v>
       </c>
@@ -15179,7 +15181,7 @@
         <v>2457</v>
       </c>
     </row>
-    <row r="6" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="6" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="116" t="s">
         <v>2456</v>
       </c>
@@ -15297,7 +15299,7 @@
       <c r="AU6" s="109"/>
       <c r="AV6" s="109"/>
     </row>
-    <row r="7" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="7" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="116" t="s">
         <v>36</v>
       </c>
@@ -15425,7 +15427,7 @@
         <v>2449</v>
       </c>
     </row>
-    <row r="8" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="8" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="116" t="s">
         <v>40</v>
       </c>
@@ -15554,7 +15556,7 @@
       <c r="AU8" s="109"/>
       <c r="AV8" s="109"/>
     </row>
-    <row r="9" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="9" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="116" t="s">
         <v>2446</v>
       </c>
@@ -15677,7 +15679,7 @@
       <c r="AU9" s="109"/>
       <c r="AV9" s="109"/>
     </row>
-    <row r="10" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="10" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="116" t="s">
         <v>2442</v>
       </c>
@@ -15797,7 +15799,7 @@
       <c r="AU10" s="109"/>
       <c r="AV10" s="109"/>
     </row>
-    <row r="11" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="11" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="119" t="s">
         <v>50</v>
       </c>
@@ -15913,7 +15915,7 @@
       <c r="AU11" s="109"/>
       <c r="AV11" s="109"/>
     </row>
-    <row r="12" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="12" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="119" t="s">
         <v>50</v>
       </c>
@@ -16029,7 +16031,7 @@
       <c r="AU12" s="109"/>
       <c r="AV12" s="109"/>
     </row>
-    <row r="13" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="13" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="116" t="s">
         <v>52</v>
       </c>
@@ -16147,7 +16149,7 @@
       <c r="AU13" s="109"/>
       <c r="AV13" s="109"/>
     </row>
-    <row r="14" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="14" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="116" t="s">
         <v>53</v>
       </c>
@@ -16269,7 +16271,7 @@
       <c r="AU14" s="109"/>
       <c r="AV14" s="109"/>
     </row>
-    <row r="15" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="15" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="116" t="s">
         <v>56</v>
       </c>
@@ -16391,7 +16393,7 @@
       <c r="AU15" s="109"/>
       <c r="AV15" s="109"/>
     </row>
-    <row r="16" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="16" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="116" t="s">
         <v>57</v>
       </c>
@@ -16515,7 +16517,7 @@
       <c r="AU16" s="109"/>
       <c r="AV16" s="109"/>
     </row>
-    <row r="17" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="17" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="116" t="s">
         <v>59</v>
       </c>
@@ -16637,7 +16639,7 @@
       <c r="AU17" s="109"/>
       <c r="AV17" s="109"/>
     </row>
-    <row r="18" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="18" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="116" t="s">
         <v>62</v>
       </c>
@@ -16769,7 +16771,7 @@
       <c r="AU18" s="109"/>
       <c r="AV18" s="109"/>
     </row>
-    <row r="19" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="19" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="116" t="s">
         <v>2420</v>
       </c>
@@ -16897,7 +16899,7 @@
       <c r="AU19" s="109"/>
       <c r="AV19" s="109"/>
     </row>
-    <row r="20" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="20" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="116" t="s">
         <v>2415</v>
       </c>
@@ -17021,7 +17023,7 @@
       <c r="AU20" s="109"/>
       <c r="AV20" s="109"/>
     </row>
-    <row r="21" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="21" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="116" t="s">
         <v>2415</v>
       </c>
@@ -17142,7 +17144,7 @@
       <c r="AU21" s="109"/>
       <c r="AV21" s="109"/>
     </row>
-    <row r="22" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="22" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="116" t="s">
         <v>71</v>
       </c>
@@ -17268,7 +17270,7 @@
       <c r="AU22" s="109"/>
       <c r="AV22" s="109"/>
     </row>
-    <row r="23" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="23" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="119" t="s">
         <v>75</v>
       </c>
@@ -17386,7 +17388,7 @@
       <c r="AU23" s="109"/>
       <c r="AV23" s="109"/>
     </row>
-    <row r="24" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="24" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="119" t="s">
         <v>77</v>
       </c>
@@ -17504,7 +17506,7 @@
       <c r="AU24" s="109"/>
       <c r="AV24" s="109"/>
     </row>
-    <row r="25" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="25" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="119" t="s">
         <v>77</v>
       </c>
@@ -17622,7 +17624,7 @@
       <c r="AU25" s="109"/>
       <c r="AV25" s="109"/>
     </row>
-    <row r="26" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="26" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="116" t="s">
         <v>81</v>
       </c>
@@ -17748,7 +17750,7 @@
         <v>2395</v>
       </c>
     </row>
-    <row r="27" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="27" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="116" t="s">
         <v>2394</v>
       </c>
@@ -17864,7 +17866,7 @@
       <c r="AU27" s="109"/>
       <c r="AV27" s="109"/>
     </row>
-    <row r="28" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="28" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="116" t="s">
         <v>2392</v>
       </c>
@@ -17980,7 +17982,7 @@
       <c r="AU28" s="109"/>
       <c r="AV28" s="109"/>
     </row>
-    <row r="29" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="29" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="116" t="s">
         <v>2390</v>
       </c>
@@ -18096,7 +18098,7 @@
       <c r="AU29" s="109"/>
       <c r="AV29" s="109"/>
     </row>
-    <row r="30" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="30" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="116" t="s">
         <v>2388</v>
       </c>
@@ -18212,7 +18214,7 @@
       <c r="AU30" s="109"/>
       <c r="AV30" s="109"/>
     </row>
-    <row r="31" spans="1:48" s="324" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="31" spans="1:48" s="324" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="116" t="s">
         <v>88</v>
       </c>
@@ -18334,7 +18336,7 @@
       <c r="AU31" s="325"/>
       <c r="AV31" s="325"/>
     </row>
-    <row r="32" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="32" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="116" t="s">
         <v>88</v>
       </c>
@@ -18454,7 +18456,7 @@
       <c r="AU32" s="109"/>
       <c r="AV32" s="109"/>
     </row>
-    <row r="33" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="33" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="116" t="s">
         <v>88</v>
       </c>
@@ -18574,7 +18576,7 @@
       <c r="AU33" s="109"/>
       <c r="AV33" s="109"/>
     </row>
-    <row r="34" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="34" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="116" t="s">
         <v>88</v>
       </c>
@@ -18694,7 +18696,7 @@
       <c r="AU34" s="109"/>
       <c r="AV34" s="109"/>
     </row>
-    <row r="35" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="35" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="116" t="s">
         <v>88</v>
       </c>
@@ -18814,7 +18816,7 @@
       <c r="AU35" s="109"/>
       <c r="AV35" s="109"/>
     </row>
-    <row r="36" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="36" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="116" t="s">
         <v>94</v>
       </c>
@@ -18936,7 +18938,7 @@
       <c r="AU36" s="109"/>
       <c r="AV36" s="109"/>
     </row>
-    <row r="37" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="37" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="119" t="s">
         <v>96</v>
       </c>
@@ -19062,7 +19064,7 @@
       <c r="AU37" s="109"/>
       <c r="AV37" s="109"/>
     </row>
-    <row r="38" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="38" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="116" t="s">
         <v>99</v>
       </c>
@@ -19182,7 +19184,7 @@
       <c r="AU38" s="109"/>
       <c r="AV38" s="109"/>
     </row>
-    <row r="39" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="39" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="318" t="s">
         <v>102</v>
       </c>
@@ -19280,7 +19282,7 @@
       <c r="AU39" s="109"/>
       <c r="AV39" s="109"/>
     </row>
-    <row r="40" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="40" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="116" t="s">
         <v>2367</v>
       </c>
@@ -19404,7 +19406,7 @@
       <c r="AU40" s="109"/>
       <c r="AV40" s="109"/>
     </row>
-    <row r="41" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="41" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="116" t="s">
         <v>2361</v>
       </c>
@@ -19520,7 +19522,7 @@
       <c r="AU41" s="109"/>
       <c r="AV41" s="109"/>
     </row>
-    <row r="42" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="42" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="116" t="s">
         <v>2358</v>
       </c>
@@ -19644,7 +19646,7 @@
       <c r="AU42" s="109"/>
       <c r="AV42" s="109"/>
     </row>
-    <row r="43" spans="1:48" s="234" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="43" spans="1:48" s="234" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="116" t="s">
         <v>2354</v>
       </c>
@@ -19768,7 +19770,7 @@
       <c r="AU43" s="235"/>
       <c r="AV43" s="235"/>
     </row>
-    <row r="44" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="44" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="116" t="s">
         <v>109</v>
       </c>
@@ -19892,7 +19894,7 @@
       <c r="AU44" s="109"/>
       <c r="AV44" s="109"/>
     </row>
-    <row r="45" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="45" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="116" t="s">
         <v>2348</v>
       </c>
@@ -20022,7 +20024,7 @@
         <v>2342</v>
       </c>
     </row>
-    <row r="46" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="46" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="116" t="s">
         <v>2341</v>
       </c>
@@ -20144,7 +20146,7 @@
       <c r="AU46" s="109"/>
       <c r="AV46" s="109"/>
     </row>
-    <row r="47" spans="1:48" s="289" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="47" spans="1:48" s="289" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="318" t="s">
         <v>114</v>
       </c>
@@ -20240,7 +20242,7 @@
       <c r="AU47" s="290"/>
       <c r="AV47" s="290"/>
     </row>
-    <row r="48" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="48" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="116" t="s">
         <v>2335</v>
       </c>
@@ -20354,7 +20356,7 @@
       <c r="AU48" s="109"/>
       <c r="AV48" s="109"/>
     </row>
-    <row r="49" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="49" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="116" t="s">
         <v>2328</v>
       </c>
@@ -20474,7 +20476,7 @@
         <v>2321</v>
       </c>
     </row>
-    <row r="50" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="50" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="116" t="s">
         <v>117</v>
       </c>
@@ -20582,7 +20584,7 @@
       <c r="AU50" s="109"/>
       <c r="AV50" s="109"/>
     </row>
-    <row r="51" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="51" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="116" t="s">
         <v>119</v>
       </c>
@@ -20704,7 +20706,7 @@
       <c r="AU51" s="109"/>
       <c r="AV51" s="109"/>
     </row>
-    <row r="52" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="52" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="116" t="s">
         <v>121</v>
       </c>
@@ -20824,7 +20826,7 @@
       <c r="AU52" s="109"/>
       <c r="AV52" s="109"/>
     </row>
-    <row r="53" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="53" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="116" t="s">
         <v>2314</v>
       </c>
@@ -20938,7 +20940,7 @@
       <c r="AU53" s="109"/>
       <c r="AV53" s="109"/>
     </row>
-    <row r="54" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="54" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="116" t="s">
         <v>125</v>
       </c>
@@ -21052,7 +21054,7 @@
       <c r="AU54" s="109"/>
       <c r="AV54" s="109"/>
     </row>
-    <row r="55" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="55" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="116" t="s">
         <v>2307</v>
       </c>
@@ -21154,7 +21156,7 @@
       <c r="AU55" s="109"/>
       <c r="AV55" s="109"/>
     </row>
-    <row r="56" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="56" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="116" t="s">
         <v>2305</v>
       </c>
@@ -21256,7 +21258,7 @@
       <c r="AU56" s="109"/>
       <c r="AV56" s="109"/>
     </row>
-    <row r="57" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="57" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="116" t="s">
         <v>2303</v>
       </c>
@@ -21358,7 +21360,7 @@
       <c r="AU57" s="109"/>
       <c r="AV57" s="109"/>
     </row>
-    <row r="58" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="58" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="116" t="s">
         <v>129</v>
       </c>
@@ -21466,7 +21468,7 @@
       <c r="AU58" s="109"/>
       <c r="AV58" s="109"/>
     </row>
-    <row r="59" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="59" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="116" t="s">
         <v>2298</v>
       </c>
@@ -21576,7 +21578,7 @@
       <c r="AU59" s="109"/>
       <c r="AV59" s="109"/>
     </row>
-    <row r="60" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="60" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="116" t="s">
         <v>132</v>
       </c>
@@ -21684,7 +21686,7 @@
       <c r="AU60" s="109"/>
       <c r="AV60" s="109"/>
     </row>
-    <row r="61" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="61" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="116" t="s">
         <v>134</v>
       </c>
@@ -21792,7 +21794,7 @@
       <c r="AU61" s="109"/>
       <c r="AV61" s="109"/>
     </row>
-    <row r="62" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="62" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="116" t="s">
         <v>2292</v>
       </c>
@@ -21914,7 +21916,7 @@
       <c r="AU62" s="109"/>
       <c r="AV62" s="109"/>
     </row>
-    <row r="63" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="63" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="116" t="s">
         <v>139</v>
       </c>
@@ -22034,7 +22036,7 @@
       <c r="AU63" s="109"/>
       <c r="AV63" s="109"/>
     </row>
-    <row r="64" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="64" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="116" t="s">
         <v>139</v>
       </c>
@@ -22152,7 +22154,7 @@
       <c r="AU64" s="109"/>
       <c r="AV64" s="109"/>
     </row>
-    <row r="65" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="65" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="116" t="s">
         <v>139</v>
       </c>
@@ -22270,7 +22272,7 @@
       <c r="AU65" s="109"/>
       <c r="AV65" s="109"/>
     </row>
-    <row r="66" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="66" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="116" t="s">
         <v>145</v>
       </c>
@@ -22388,7 +22390,7 @@
       <c r="AU66" s="109"/>
       <c r="AV66" s="109"/>
     </row>
-    <row r="67" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="67" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="116" t="s">
         <v>2283</v>
       </c>
@@ -22500,7 +22502,7 @@
         <v>2278</v>
       </c>
     </row>
-    <row r="68" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="68" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="116" t="s">
         <v>148</v>
       </c>
@@ -22622,7 +22624,7 @@
         <v>2275</v>
       </c>
     </row>
-    <row r="69" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="69" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="116" t="s">
         <v>152</v>
       </c>
@@ -22736,7 +22738,7 @@
       <c r="AU69" s="109"/>
       <c r="AV69" s="109"/>
     </row>
-    <row r="70" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="70" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="116" t="s">
         <v>153</v>
       </c>
@@ -22856,7 +22858,7 @@
         <v>2267</v>
       </c>
     </row>
-    <row r="71" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="71" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="116" t="s">
         <v>155</v>
       </c>
@@ -22962,7 +22964,7 @@
       <c r="AU71" s="109"/>
       <c r="AV71" s="109"/>
     </row>
-    <row r="72" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="72" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="116" t="s">
         <v>157</v>
       </c>
@@ -23078,7 +23080,7 @@
       </c>
       <c r="AV72" s="109"/>
     </row>
-    <row r="73" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="73" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="116" t="s">
         <v>159</v>
       </c>
@@ -23206,7 +23208,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="74" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="74" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="116" t="s">
         <v>159</v>
       </c>
@@ -23334,7 +23336,7 @@
         <v>2257</v>
       </c>
     </row>
-    <row r="75" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="75" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="116" t="s">
         <v>162</v>
       </c>
@@ -23454,7 +23456,7 @@
         <v>2250</v>
       </c>
     </row>
-    <row r="76" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="76" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="116" t="s">
         <v>163</v>
       </c>
@@ -23560,7 +23562,7 @@
       <c r="AU76" s="109"/>
       <c r="AV76" s="109"/>
     </row>
-    <row r="77" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="77" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="116" t="s">
         <v>2248</v>
       </c>
@@ -23672,7 +23674,7 @@
       <c r="AU77" s="109"/>
       <c r="AV77" s="109"/>
     </row>
-    <row r="78" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="78" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="116" t="s">
         <v>2242</v>
       </c>
@@ -23798,7 +23800,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="79" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="79" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="116" t="s">
         <v>2242</v>
       </c>
@@ -23900,7 +23902,7 @@
         <v>2236</v>
       </c>
     </row>
-    <row r="80" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="80" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="116" t="s">
         <v>167</v>
       </c>
@@ -24014,7 +24016,7 @@
       <c r="AU80" s="109"/>
       <c r="AV80" s="109"/>
     </row>
-    <row r="81" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="81" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="116" t="s">
         <v>171</v>
       </c>
@@ -24136,7 +24138,7 @@
       <c r="AU81" s="109"/>
       <c r="AV81" s="109"/>
     </row>
-    <row r="82" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="82" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="116" t="s">
         <v>173</v>
       </c>
@@ -24250,7 +24252,7 @@
       <c r="AU82" s="109"/>
       <c r="AV82" s="109"/>
     </row>
-    <row r="83" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="83" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="116" t="s">
         <v>174</v>
       </c>
@@ -24354,7 +24356,7 @@
       <c r="AU83" s="109"/>
       <c r="AV83" s="109"/>
     </row>
-    <row r="84" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="84" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="116" t="s">
         <v>2226</v>
       </c>
@@ -24474,7 +24476,7 @@
         <v>2219</v>
       </c>
     </row>
-    <row r="85" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="85" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="116" t="s">
         <v>176</v>
       </c>
@@ -24578,7 +24580,7 @@
       <c r="AU85" s="109"/>
       <c r="AV85" s="109"/>
     </row>
-    <row r="86" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="86" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="116" t="s">
         <v>178</v>
       </c>
@@ -24680,7 +24682,7 @@
       <c r="AU86" s="109"/>
       <c r="AV86" s="109"/>
     </row>
-    <row r="87" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="87" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="116" t="s">
         <v>2215</v>
       </c>
@@ -24788,7 +24790,7 @@
       <c r="AU87" s="109"/>
       <c r="AV87" s="109"/>
     </row>
-    <row r="88" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="88" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="116" t="s">
         <v>2215</v>
       </c>
@@ -24896,7 +24898,7 @@
       <c r="AU88" s="109"/>
       <c r="AV88" s="109"/>
     </row>
-    <row r="89" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="89" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="116" t="s">
         <v>2213</v>
       </c>
@@ -25010,7 +25012,7 @@
         <v>2207</v>
       </c>
     </row>
-    <row r="90" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="90" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="116" t="s">
         <v>2206</v>
       </c>
@@ -25118,7 +25120,7 @@
       <c r="AU90" s="109"/>
       <c r="AV90" s="109"/>
     </row>
-    <row r="91" spans="1:48" s="230" customFormat="1" ht="18" hidden="1" customHeight="1">
+    <row r="91" spans="1:48" s="230" customFormat="1" ht="18" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="116" t="s">
         <v>185</v>
       </c>
@@ -25230,7 +25232,7 @@
       <c r="AU91" s="231"/>
       <c r="AV91" s="231"/>
     </row>
-    <row r="92" spans="1:48" s="289" customFormat="1" ht="16.5" customHeight="1">
+    <row r="92" spans="1:48" s="289" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="293" t="s">
         <v>187</v>
       </c>
@@ -25322,7 +25324,7 @@
       <c r="AU92" s="290"/>
       <c r="AV92" s="290"/>
     </row>
-    <row r="93" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="93" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="116" t="s">
         <v>189</v>
       </c>
@@ -25436,7 +25438,7 @@
       <c r="AU93" s="109"/>
       <c r="AV93" s="109"/>
     </row>
-    <row r="94" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="94" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="116" t="s">
         <v>192</v>
       </c>
@@ -25552,7 +25554,7 @@
       <c r="AU94" s="109"/>
       <c r="AV94" s="109"/>
     </row>
-    <row r="95" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="95" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="116" t="s">
         <v>195</v>
       </c>
@@ -25664,7 +25666,7 @@
       <c r="AU95" s="109"/>
       <c r="AV95" s="109"/>
     </row>
-    <row r="96" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="96" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="116" t="s">
         <v>2191</v>
       </c>
@@ -25780,7 +25782,7 @@
       <c r="AU96" s="109"/>
       <c r="AV96" s="109"/>
     </row>
-    <row r="97" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="97" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="116" t="s">
         <v>2186</v>
       </c>
@@ -25900,7 +25902,7 @@
         <v>2179</v>
       </c>
     </row>
-    <row r="98" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="98" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="119" t="s">
         <v>200</v>
       </c>
@@ -25990,7 +25992,7 @@
       <c r="AU98" s="109"/>
       <c r="AV98" s="109"/>
     </row>
-    <row r="99" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="99" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="220" t="s">
         <v>202</v>
       </c>
@@ -26106,7 +26108,7 @@
       <c r="AU99" s="109"/>
       <c r="AV99" s="109"/>
     </row>
-    <row r="100" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="100" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="116" t="s">
         <v>202</v>
       </c>
@@ -26222,7 +26224,7 @@
       <c r="AU100" s="109"/>
       <c r="AV100" s="109"/>
     </row>
-    <row r="101" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="101" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="116" t="s">
         <v>208</v>
       </c>
@@ -26330,7 +26332,7 @@
       <c r="AU101" s="109"/>
       <c r="AV101" s="109"/>
     </row>
-    <row r="102" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="102" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="119" t="s">
         <v>212</v>
       </c>
@@ -26440,7 +26442,7 @@
       <c r="AU102" s="109"/>
       <c r="AV102" s="109"/>
     </row>
-    <row r="103" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="103" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="116" t="s">
         <v>213</v>
       </c>
@@ -26552,7 +26554,7 @@
       <c r="AU103" s="109"/>
       <c r="AV103" s="109"/>
     </row>
-    <row r="104" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="104" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="116" t="s">
         <v>213</v>
       </c>
@@ -26664,7 +26666,7 @@
       <c r="AU104" s="109"/>
       <c r="AV104" s="109"/>
     </row>
-    <row r="105" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="105" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="116" t="s">
         <v>217</v>
       </c>
@@ -26776,7 +26778,7 @@
       <c r="AU105" s="109"/>
       <c r="AV105" s="109"/>
     </row>
-    <row r="106" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="106" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="116" t="s">
         <v>221</v>
       </c>
@@ -26890,7 +26892,7 @@
       <c r="AU106" s="109"/>
       <c r="AV106" s="109"/>
     </row>
-    <row r="107" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="107" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="116" t="s">
         <v>223</v>
       </c>
@@ -27018,7 +27020,7 @@
         <v>2161</v>
       </c>
     </row>
-    <row r="108" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="108" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="116" t="s">
         <v>2160</v>
       </c>
@@ -27132,7 +27134,7 @@
       <c r="AU108" s="109"/>
       <c r="AV108" s="109"/>
     </row>
-    <row r="109" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="109" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="116" t="s">
         <v>2156</v>
       </c>
@@ -27252,7 +27254,7 @@
         <v>2149</v>
       </c>
     </row>
-    <row r="110" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="110" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="116" t="s">
         <v>2148</v>
       </c>
@@ -27362,7 +27364,7 @@
       <c r="AU110" s="109"/>
       <c r="AV110" s="109"/>
     </row>
-    <row r="111" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="111" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="116" t="s">
         <v>228</v>
       </c>
@@ -27466,7 +27468,7 @@
       <c r="AU111" s="109"/>
       <c r="AV111" s="109"/>
     </row>
-    <row r="112" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="112" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="116" t="s">
         <v>2141</v>
       </c>
@@ -27594,7 +27596,7 @@
       <c r="AU112" s="109"/>
       <c r="AV112" s="109"/>
     </row>
-    <row r="113" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="113" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="116" t="s">
         <v>2140</v>
       </c>
@@ -27722,7 +27724,7 @@
       <c r="AU113" s="109"/>
       <c r="AV113" s="109"/>
     </row>
-    <row r="114" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="114" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="116" t="s">
         <v>2139</v>
       </c>
@@ -27850,7 +27852,7 @@
       <c r="AU114" s="109"/>
       <c r="AV114" s="109"/>
     </row>
-    <row r="115" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="115" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="116" t="s">
         <v>2138</v>
       </c>
@@ -27978,7 +27980,7 @@
       <c r="AU115" s="109"/>
       <c r="AV115" s="109"/>
     </row>
-    <row r="116" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="116" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="116" t="s">
         <v>2136</v>
       </c>
@@ -28102,7 +28104,7 @@
       <c r="AU116" s="109"/>
       <c r="AV116" s="109"/>
     </row>
-    <row r="117" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="117" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="116" t="s">
         <v>2135</v>
       </c>
@@ -28226,7 +28228,7 @@
       <c r="AU117" s="109"/>
       <c r="AV117" s="109"/>
     </row>
-    <row r="118" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="118" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="116" t="s">
         <v>2134</v>
       </c>
@@ -28350,7 +28352,7 @@
       <c r="AU118" s="109"/>
       <c r="AV118" s="109"/>
     </row>
-    <row r="119" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="119" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="116" t="s">
         <v>2131</v>
       </c>
@@ -28478,7 +28480,7 @@
       <c r="AU119" s="109"/>
       <c r="AV119" s="109"/>
     </row>
-    <row r="120" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="120" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="116" t="s">
         <v>2130</v>
       </c>
@@ -28606,7 +28608,7 @@
       <c r="AU120" s="109"/>
       <c r="AV120" s="109"/>
     </row>
-    <row r="121" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="121" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="116" t="s">
         <v>2123</v>
       </c>
@@ -28720,7 +28722,7 @@
       <c r="AU121" s="109"/>
       <c r="AV121" s="109"/>
     </row>
-    <row r="122" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="122" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="116" t="s">
         <v>2118</v>
       </c>
@@ -28836,7 +28838,7 @@
       <c r="AU122" s="109"/>
       <c r="AV122" s="109"/>
     </row>
-    <row r="123" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="123" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="116" t="s">
         <v>2117</v>
       </c>
@@ -28952,7 +28954,7 @@
       <c r="AU123" s="109"/>
       <c r="AV123" s="109"/>
     </row>
-    <row r="124" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="124" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="116" t="s">
         <v>230</v>
       </c>
@@ -29064,7 +29066,7 @@
       <c r="AU124" s="109"/>
       <c r="AV124" s="109"/>
     </row>
-    <row r="125" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="125" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="116" t="s">
         <v>233</v>
       </c>
@@ -29176,7 +29178,7 @@
       <c r="AU125" s="109"/>
       <c r="AV125" s="109"/>
     </row>
-    <row r="126" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="126" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="116" t="s">
         <v>2106</v>
       </c>
@@ -29310,7 +29312,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="127" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="127" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="116" t="s">
         <v>2104</v>
       </c>
@@ -29444,7 +29446,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="128" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="128" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="116" t="s">
         <v>2103</v>
       </c>
@@ -29578,7 +29580,7 @@
         <v>2098</v>
       </c>
     </row>
-    <row r="129" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="129" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="119" t="s">
         <v>2097</v>
       </c>
@@ -29686,7 +29688,7 @@
       <c r="AU129" s="109"/>
       <c r="AV129" s="109"/>
     </row>
-    <row r="130" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="130" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="116" t="s">
         <v>2093</v>
       </c>
@@ -29800,7 +29802,7 @@
       <c r="AU130" s="109"/>
       <c r="AV130" s="109"/>
     </row>
-    <row r="131" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="131" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="116" t="s">
         <v>239</v>
       </c>
@@ -29904,7 +29906,7 @@
       <c r="AU131" s="109"/>
       <c r="AV131" s="109"/>
     </row>
-    <row r="132" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="132" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="116" t="s">
         <v>240</v>
       </c>
@@ -30016,7 +30018,7 @@
       <c r="AU132" s="109"/>
       <c r="AV132" s="109"/>
     </row>
-    <row r="133" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="133" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="116" t="s">
         <v>241</v>
       </c>
@@ -30122,7 +30124,7 @@
       <c r="AU133" s="109"/>
       <c r="AV133" s="109"/>
     </row>
-    <row r="134" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="134" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="116" t="s">
         <v>244</v>
       </c>
@@ -30232,7 +30234,7 @@
       <c r="AU134" s="109"/>
       <c r="AV134" s="109"/>
     </row>
-    <row r="135" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="135" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="116" t="s">
         <v>248</v>
       </c>
@@ -30340,7 +30342,7 @@
       <c r="AU135" s="109"/>
       <c r="AV135" s="109"/>
     </row>
-    <row r="136" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="136" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="116" t="s">
         <v>250</v>
       </c>
@@ -30452,7 +30454,7 @@
       <c r="AU136" s="109"/>
       <c r="AV136" s="109"/>
     </row>
-    <row r="137" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="137" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="116" t="s">
         <v>2074</v>
       </c>
@@ -30564,7 +30566,7 @@
       <c r="AU137" s="109"/>
       <c r="AV137" s="109"/>
     </row>
-    <row r="138" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="138" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="116" t="s">
         <v>2069</v>
       </c>
@@ -30676,7 +30678,7 @@
       <c r="AU138" s="109"/>
       <c r="AV138" s="109"/>
     </row>
-    <row r="139" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="139" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="116" t="s">
         <v>2063</v>
       </c>
@@ -30798,7 +30800,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="140" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="140" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="116" t="s">
         <v>2062</v>
       </c>
@@ -30920,7 +30922,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="141" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="141" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="116" t="s">
         <v>2060</v>
       </c>
@@ -31042,7 +31044,7 @@
         <v>2053</v>
       </c>
     </row>
-    <row r="142" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="142" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="116" t="s">
         <v>255</v>
       </c>
@@ -31136,7 +31138,7 @@
       <c r="AU142" s="109"/>
       <c r="AV142" s="109"/>
     </row>
-    <row r="143" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="143" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="116" t="s">
         <v>2049</v>
       </c>
@@ -31248,7 +31250,7 @@
       <c r="AU143" s="109"/>
       <c r="AV143" s="109"/>
     </row>
-    <row r="144" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="144" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="116" t="s">
         <v>258</v>
       </c>
@@ -31352,7 +31354,7 @@
       <c r="AU144" s="109"/>
       <c r="AV144" s="109"/>
     </row>
-    <row r="145" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="145" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="116" t="s">
         <v>260</v>
       </c>
@@ -31458,7 +31460,7 @@
       <c r="AU145" s="109"/>
       <c r="AV145" s="109"/>
     </row>
-    <row r="146" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="146" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="116" t="s">
         <v>262</v>
       </c>
@@ -31580,7 +31582,7 @@
         <v>2032</v>
       </c>
     </row>
-    <row r="147" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="147" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="116" t="s">
         <v>2031</v>
       </c>
@@ -31698,7 +31700,7 @@
       <c r="AU147" s="109"/>
       <c r="AV147" s="109"/>
     </row>
-    <row r="148" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="148" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A148" s="116" t="s">
         <v>2030</v>
       </c>
@@ -31812,7 +31814,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="149" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="149" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A149" s="119" t="s">
         <v>2024</v>
       </c>
@@ -31916,7 +31918,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="150" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="150" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A150" s="116" t="s">
         <v>267</v>
       </c>
@@ -32036,7 +32038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="151" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A151" s="116" t="s">
         <v>269</v>
       </c>
@@ -32144,7 +32146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="152" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A152" s="116" t="s">
         <v>273</v>
       </c>
@@ -32252,7 +32254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:48" s="112" customFormat="1" hidden="1">
+    <row r="153" spans="1:48" s="112" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A153" s="116" t="s">
         <v>275</v>
       </c>
@@ -32360,7 +32362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="154" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="116" t="s">
         <v>277</v>
       </c>
@@ -32472,7 +32474,7 @@
       <c r="AU154" s="109"/>
       <c r="AV154" s="109"/>
     </row>
-    <row r="155" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="155" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="116" t="s">
         <v>279</v>
       </c>
@@ -32582,7 +32584,7 @@
       <c r="AU155" s="109"/>
       <c r="AV155" s="109"/>
     </row>
-    <row r="156" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="156" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="116" t="s">
         <v>281</v>
       </c>
@@ -32694,7 +32696,7 @@
       <c r="AU156" s="109"/>
       <c r="AV156" s="109"/>
     </row>
-    <row r="157" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="157" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="116" t="s">
         <v>283</v>
       </c>
@@ -32806,7 +32808,7 @@
       <c r="AU157" s="109"/>
       <c r="AV157" s="109"/>
     </row>
-    <row r="158" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="158" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="116" t="s">
         <v>285</v>
       </c>
@@ -32916,7 +32918,7 @@
       <c r="AU158" s="109"/>
       <c r="AV158" s="109"/>
     </row>
-    <row r="159" spans="1:48" s="234" customFormat="1" ht="16.5" customHeight="1">
+    <row r="159" spans="1:48" s="234" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="116" t="s">
         <v>2005</v>
       </c>
@@ -33028,7 +33030,7 @@
       <c r="AU159" s="235"/>
       <c r="AV159" s="235"/>
     </row>
-    <row r="160" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="160" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="116" t="s">
         <v>287</v>
       </c>
@@ -33148,7 +33150,7 @@
       <c r="AU160" s="109"/>
       <c r="AV160" s="109"/>
     </row>
-    <row r="161" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="161" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="116" t="s">
         <v>288</v>
       </c>
@@ -33260,7 +33262,7 @@
       <c r="AU161" s="109"/>
       <c r="AV161" s="109"/>
     </row>
-    <row r="162" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="162" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="116" t="s">
         <v>1996</v>
       </c>
@@ -33380,7 +33382,7 @@
       </c>
       <c r="AV162" s="109"/>
     </row>
-    <row r="163" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="163" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="119" t="s">
         <v>1989</v>
       </c>
@@ -33498,7 +33500,7 @@
       <c r="AU163" s="109"/>
       <c r="AV163" s="109"/>
     </row>
-    <row r="164" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="164" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="119" t="s">
         <v>1988</v>
       </c>
@@ -33616,7 +33618,7 @@
       <c r="AU164" s="109"/>
       <c r="AV164" s="109"/>
     </row>
-    <row r="165" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="165" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="119" t="s">
         <v>290</v>
       </c>
@@ -33706,7 +33708,7 @@
       <c r="AU165" s="109"/>
       <c r="AV165" s="109"/>
     </row>
-    <row r="166" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="166" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="116" t="s">
         <v>291</v>
       </c>
@@ -33822,7 +33824,7 @@
       <c r="AU166" s="109"/>
       <c r="AV166" s="109"/>
     </row>
-    <row r="167" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="167" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="116" t="s">
         <v>291</v>
       </c>
@@ -33938,7 +33940,7 @@
       <c r="AU167" s="109"/>
       <c r="AV167" s="109"/>
     </row>
-    <row r="168" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="168" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="116" t="s">
         <v>291</v>
       </c>
@@ -34054,7 +34056,7 @@
       <c r="AU168" s="109"/>
       <c r="AV168" s="109"/>
     </row>
-    <row r="169" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="169" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="116" t="s">
         <v>291</v>
       </c>
@@ -34170,7 +34172,7 @@
       <c r="AU169" s="109"/>
       <c r="AV169" s="109"/>
     </row>
-    <row r="170" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="170" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="116" t="s">
         <v>291</v>
       </c>
@@ -34286,7 +34288,7 @@
       <c r="AU170" s="109"/>
       <c r="AV170" s="109"/>
     </row>
-    <row r="171" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="171" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="116" t="s">
         <v>291</v>
       </c>
@@ -34402,7 +34404,7 @@
       <c r="AU171" s="109"/>
       <c r="AV171" s="109"/>
     </row>
-    <row r="172" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="172" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="116" t="s">
         <v>1976</v>
       </c>
@@ -34508,7 +34510,7 @@
       <c r="AU172" s="109"/>
       <c r="AV172" s="109"/>
     </row>
-    <row r="173" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="173" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="116" t="s">
         <v>301</v>
       </c>
@@ -34614,7 +34616,7 @@
       <c r="AU173" s="109"/>
       <c r="AV173" s="109"/>
     </row>
-    <row r="174" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="174" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="116" t="s">
         <v>1970</v>
       </c>
@@ -34728,7 +34730,7 @@
       <c r="AU174" s="109"/>
       <c r="AV174" s="109"/>
     </row>
-    <row r="175" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="175" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="116" t="s">
         <v>1970</v>
       </c>
@@ -34836,7 +34838,7 @@
       <c r="AU175" s="109"/>
       <c r="AV175" s="109"/>
     </row>
-    <row r="176" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="176" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="116" t="s">
         <v>1964</v>
       </c>
@@ -34950,7 +34952,7 @@
       <c r="AU176" s="109"/>
       <c r="AV176" s="109"/>
     </row>
-    <row r="177" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="177" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="116" t="s">
         <v>1964</v>
       </c>
@@ -35060,7 +35062,7 @@
       <c r="AU177" s="109"/>
       <c r="AV177" s="109"/>
     </row>
-    <row r="178" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="178" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="119" t="s">
         <v>309</v>
       </c>
@@ -35174,7 +35176,7 @@
       <c r="AU178" s="109"/>
       <c r="AV178" s="109"/>
     </row>
-    <row r="179" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="179" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="116" t="s">
         <v>312</v>
       </c>
@@ -35290,7 +35292,7 @@
       <c r="AU179" s="109"/>
       <c r="AV179" s="109"/>
     </row>
-    <row r="180" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="180" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="119" t="s">
         <v>313</v>
       </c>
@@ -35382,7 +35384,7 @@
       <c r="AU180" s="109"/>
       <c r="AV180" s="109"/>
     </row>
-    <row r="181" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="181" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="119" t="s">
         <v>316</v>
       </c>
@@ -35474,7 +35476,7 @@
       <c r="AU181" s="109"/>
       <c r="AV181" s="109"/>
     </row>
-    <row r="182" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="182" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="119" t="s">
         <v>317</v>
       </c>
@@ -35568,7 +35570,7 @@
       <c r="AU182" s="109"/>
       <c r="AV182" s="109"/>
     </row>
-    <row r="183" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="183" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="116" t="s">
         <v>1943</v>
       </c>
@@ -35686,7 +35688,7 @@
         <v>1936</v>
       </c>
     </row>
-    <row r="184" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="184" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="116" t="s">
         <v>318</v>
       </c>
@@ -35792,7 +35794,7 @@
       <c r="AU184" s="109"/>
       <c r="AV184" s="109"/>
     </row>
-    <row r="185" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="185" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="116" t="s">
         <v>322</v>
       </c>
@@ -35914,7 +35916,7 @@
       <c r="AU185" s="109"/>
       <c r="AV185" s="109"/>
     </row>
-    <row r="186" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="186" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="116" t="s">
         <v>324</v>
       </c>
@@ -36026,7 +36028,7 @@
       <c r="AU186" s="109"/>
       <c r="AV186" s="109"/>
     </row>
-    <row r="187" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1">
+    <row r="187" spans="1:48" s="142" customFormat="1" ht="16.5" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="116" t="s">
         <v>325</v>
       </c>
@@ -36150,7 +36152,7 @@
       <c r="AU187" s="109"/>
       <c r="AV187" s="109"/>
     </row>
-    <row r="188" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
+    <row r="188" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="116" t="s">
         <v>1918</v>
       </c>
@@ -36260,7 +36262,7 @@
       <c r="AU188" s="235"/>
       <c r="AV188" s="235"/>
     </row>
-    <row r="189" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
+    <row r="189" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="116" t="s">
         <v>1916</v>
       </c>
@@ -36378,7 +36380,7 @@
         <v>1911</v>
       </c>
     </row>
-    <row r="190" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1">
+    <row r="190" spans="1:48" s="234" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="116" t="s">
         <v>1910</v>
       </c>
@@ -36484,7 +36486,7 @@
       <c r="AU190" s="235"/>
       <c r="AV190" s="235"/>
     </row>
-    <row r="191" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="191" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="116" t="s">
         <v>1909</v>
       </c>
@@ -36594,7 +36596,7 @@
       <c r="AU191" s="109"/>
       <c r="AV191" s="109"/>
     </row>
-    <row r="192" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="192" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="116" t="s">
         <v>330</v>
       </c>
@@ -36700,7 +36702,7 @@
       <c r="AU192" s="109"/>
       <c r="AV192" s="109"/>
     </row>
-    <row r="193" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="193" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="116" t="s">
         <v>1906</v>
       </c>
@@ -36814,7 +36816,7 @@
       <c r="AU193" s="109"/>
       <c r="AV193" s="109"/>
     </row>
-    <row r="194" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="194" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="116" t="s">
         <v>333</v>
       </c>
@@ -36918,7 +36920,7 @@
       <c r="AU194" s="109"/>
       <c r="AV194" s="109"/>
     </row>
-    <row r="195" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="195" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A195" s="116" t="s">
         <v>334</v>
       </c>
@@ -37022,7 +37024,7 @@
       <c r="AU195" s="109"/>
       <c r="AV195" s="109"/>
     </row>
-    <row r="196" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="196" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="116" t="s">
         <v>335</v>
       </c>
@@ -37132,7 +37134,7 @@
       <c r="AU196" s="109"/>
       <c r="AV196" s="109"/>
     </row>
-    <row r="197" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="197" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="116" t="s">
         <v>1898</v>
       </c>
@@ -37244,7 +37246,7 @@
       </c>
       <c r="AV197" s="109"/>
     </row>
-    <row r="198" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="198" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="119" t="s">
         <v>1896</v>
       </c>
@@ -37328,7 +37330,7 @@
       <c r="AU198" s="109"/>
       <c r="AV198" s="109"/>
     </row>
-    <row r="199" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="199" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="116" t="s">
         <v>1895</v>
       </c>
@@ -37444,7 +37446,7 @@
         <v>1891</v>
       </c>
     </row>
-    <row r="200" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="200" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="116" t="s">
         <v>1890</v>
       </c>
@@ -37554,7 +37556,7 @@
       <c r="AU200" s="109"/>
       <c r="AV200" s="109"/>
     </row>
-    <row r="201" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="201" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A201" s="116" t="s">
         <v>1889</v>
       </c>
@@ -37664,7 +37666,7 @@
       <c r="AU201" s="109"/>
       <c r="AV201" s="109"/>
     </row>
-    <row r="202" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="202" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A202" s="116" t="s">
         <v>343</v>
       </c>
@@ -37778,7 +37780,7 @@
       <c r="AU202" s="109"/>
       <c r="AV202" s="109"/>
     </row>
-    <row r="203" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="203" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A203" s="116" t="s">
         <v>345</v>
       </c>
@@ -37892,7 +37894,7 @@
       <c r="AU203" s="109"/>
       <c r="AV203" s="109"/>
     </row>
-    <row r="204" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="204" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A204" s="116" t="s">
         <v>1888</v>
       </c>
@@ -38008,7 +38010,7 @@
         <v>1884</v>
       </c>
     </row>
-    <row r="205" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="205" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A205" s="116" t="s">
         <v>1883</v>
       </c>
@@ -38130,7 +38132,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="206" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="206" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A206" s="116" t="s">
         <v>1882</v>
       </c>
@@ -38252,7 +38254,7 @@
         <v>1879</v>
       </c>
     </row>
-    <row r="207" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="207" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A207" s="116" t="s">
         <v>1878</v>
       </c>
@@ -38368,7 +38370,7 @@
         <v>1874</v>
       </c>
     </row>
-    <row r="208" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="208" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A208" s="116" t="s">
         <v>1873</v>
       </c>
@@ -38492,7 +38494,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="209" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="209" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A209" s="116" t="s">
         <v>1872</v>
       </c>
@@ -38616,7 +38618,7 @@
         <v>1866</v>
       </c>
     </row>
-    <row r="210" spans="1:48" s="142" customFormat="1">
+    <row r="210" spans="1:48" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A210" s="116" t="s">
         <v>1865</v>
       </c>
@@ -38730,7 +38732,7 @@
         <v>1859</v>
       </c>
     </row>
-    <row r="211" spans="1:48" s="142" customFormat="1">
+    <row r="211" spans="1:48" s="142" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A211" s="116" t="s">
         <v>1858</v>
       </c>
@@ -38840,7 +38842,7 @@
       <c r="AU211" s="109"/>
       <c r="AV211" s="109"/>
     </row>
-    <row r="212" spans="1:48" s="230" customFormat="1">
+    <row r="212" spans="1:48" s="230" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A212" s="116" t="s">
         <v>1855</v>
       </c>
@@ -38950,7 +38952,7 @@
       <c r="AU212" s="231"/>
       <c r="AV212" s="231"/>
     </row>
-    <row r="213" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="213" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A213" s="116" t="s">
         <v>354</v>
       </c>
@@ -39060,7 +39062,7 @@
       <c r="AU213" s="109"/>
       <c r="AV213" s="109"/>
     </row>
-    <row r="214" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="214" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A214" s="116" t="s">
         <v>1850</v>
       </c>
@@ -39178,7 +39180,7 @@
         <v>1847</v>
       </c>
     </row>
-    <row r="215" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="215" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A215" s="116" t="s">
         <v>1846</v>
       </c>
@@ -39290,7 +39292,7 @@
       <c r="AU215" s="109"/>
       <c r="AV215" s="109"/>
     </row>
-    <row r="216" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="216" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A216" s="119" t="s">
         <v>358</v>
       </c>
@@ -39372,7 +39374,7 @@
       <c r="AU216" s="109"/>
       <c r="AV216" s="109"/>
     </row>
-    <row r="217" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="217" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A217" s="116" t="s">
         <v>1844</v>
       </c>
@@ -39486,7 +39488,7 @@
       <c r="AU217" s="109"/>
       <c r="AV217" s="109"/>
     </row>
-    <row r="218" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="218" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A218" s="116" t="s">
         <v>1842</v>
       </c>
@@ -39594,7 +39596,7 @@
       <c r="AU218" s="109"/>
       <c r="AV218" s="109"/>
     </row>
-    <row r="219" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="219" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A219" s="116" t="s">
         <v>362</v>
       </c>
@@ -39706,7 +39708,7 @@
       <c r="AU219" s="109"/>
       <c r="AV219" s="109"/>
     </row>
-    <row r="220" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="220" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A220" s="116" t="s">
         <v>364</v>
       </c>
@@ -39820,7 +39822,7 @@
       <c r="AU220" s="109"/>
       <c r="AV220" s="109"/>
     </row>
-    <row r="221" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="221" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A221" s="116" t="s">
         <v>366</v>
       </c>
@@ -39934,7 +39936,7 @@
       <c r="AU221" s="109"/>
       <c r="AV221" s="109"/>
     </row>
-    <row r="222" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="222" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A222" s="116" t="s">
         <v>1835</v>
       </c>
@@ -40044,7 +40046,7 @@
       <c r="AU222" s="109"/>
       <c r="AV222" s="109"/>
     </row>
-    <row r="223" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="223" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A223" s="116" t="s">
         <v>1833</v>
       </c>
@@ -40154,7 +40156,7 @@
       <c r="AU223" s="109"/>
       <c r="AV223" s="109"/>
     </row>
-    <row r="224" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="224" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A224" s="119" t="s">
         <v>1830</v>
       </c>
@@ -40258,7 +40260,7 @@
       <c r="AU224" s="109"/>
       <c r="AV224" s="109"/>
     </row>
-    <row r="225" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="225" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A225" s="116" t="s">
         <v>1829</v>
       </c>
@@ -40376,7 +40378,7 @@
       <c r="AU225" s="109"/>
       <c r="AV225" s="109"/>
     </row>
-    <row r="226" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="226" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A226" s="116" t="s">
         <v>371</v>
       </c>
@@ -40490,7 +40492,7 @@
       <c r="AU226" s="109"/>
       <c r="AV226" s="109"/>
     </row>
-    <row r="227" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="227" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A227" s="116" t="s">
         <v>1826</v>
       </c>
@@ -40602,7 +40604,7 @@
       <c r="AU227" s="109"/>
       <c r="AV227" s="109"/>
     </row>
-    <row r="228" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="228" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A228" s="119" t="s">
         <v>374</v>
       </c>
@@ -40686,7 +40688,7 @@
       <c r="AU228" s="109"/>
       <c r="AV228" s="109"/>
     </row>
-    <row r="229" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="229" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A229" s="116" t="s">
         <v>376</v>
       </c>
@@ -40798,7 +40800,7 @@
       <c r="AU229" s="109"/>
       <c r="AV229" s="109"/>
     </row>
-    <row r="230" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="230" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A230" s="116" t="s">
         <v>1824</v>
       </c>
@@ -40906,7 +40908,7 @@
       <c r="AU230" s="109"/>
       <c r="AV230" s="109"/>
     </row>
-    <row r="231" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="231" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A231" s="116" t="s">
         <v>378</v>
       </c>
@@ -41018,7 +41020,7 @@
       <c r="AU231" s="109"/>
       <c r="AV231" s="109"/>
     </row>
-    <row r="232" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="232" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A232" s="116" t="s">
         <v>1820</v>
       </c>
@@ -41128,7 +41130,7 @@
       <c r="AU232" s="109"/>
       <c r="AV232" s="109"/>
     </row>
-    <row r="233" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="233" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A233" s="116" t="s">
         <v>1818</v>
       </c>
@@ -41238,7 +41240,7 @@
       </c>
       <c r="AV233" s="109"/>
     </row>
-    <row r="234" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="234" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A234" s="116" t="s">
         <v>1814</v>
       </c>
@@ -41352,7 +41354,7 @@
       <c r="AU234" s="109"/>
       <c r="AV234" s="109"/>
     </row>
-    <row r="235" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="235" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A235" s="116" t="s">
         <v>383</v>
       </c>
@@ -41462,7 +41464,7 @@
       <c r="AU235" s="109"/>
       <c r="AV235" s="109"/>
     </row>
-    <row r="236" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="236" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A236" s="116" t="s">
         <v>385</v>
       </c>
@@ -41572,7 +41574,7 @@
       <c r="AU236" s="109"/>
       <c r="AV236" s="109"/>
     </row>
-    <row r="237" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="237" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A237" s="116" t="s">
         <v>387</v>
       </c>
@@ -41684,7 +41686,7 @@
       <c r="AU237" s="109"/>
       <c r="AV237" s="109"/>
     </row>
-    <row r="238" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="238" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A238" s="116" t="s">
         <v>388</v>
       </c>
@@ -41800,7 +41802,7 @@
         <v>1809</v>
       </c>
     </row>
-    <row r="239" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="239" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A239" s="116" t="s">
         <v>1808</v>
       </c>
@@ -41912,7 +41914,7 @@
       <c r="AU239" s="109"/>
       <c r="AV239" s="109"/>
     </row>
-    <row r="240" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="240" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A240" s="116" t="s">
         <v>1806</v>
       </c>
@@ -42031,7 +42033,7 @@
         <v>1801</v>
       </c>
     </row>
-    <row r="241" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="241" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A241" s="116" t="s">
         <v>1800</v>
       </c>
@@ -42151,7 +42153,7 @@
         <v>1796</v>
       </c>
     </row>
-    <row r="242" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="242" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A242" s="116" t="s">
         <v>1795</v>
       </c>
@@ -42273,7 +42275,7 @@
         <v>1791</v>
       </c>
     </row>
-    <row r="243" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="243" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A243" s="116" t="s">
         <v>1790</v>
       </c>
@@ -42387,7 +42389,7 @@
       <c r="AU243" s="109"/>
       <c r="AV243" s="109"/>
     </row>
-    <row r="244" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="244" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A244" s="116" t="s">
         <v>1789</v>
       </c>
@@ -42503,7 +42505,7 @@
         <v>1785</v>
       </c>
     </row>
-    <row r="245" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="245" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A245" s="116" t="s">
         <v>1784</v>
       </c>
@@ -42617,7 +42619,7 @@
       <c r="AU245" s="109"/>
       <c r="AV245" s="109"/>
     </row>
-    <row r="246" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="246" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A246" s="116" t="s">
         <v>1781</v>
       </c>
@@ -42727,7 +42729,7 @@
       <c r="AU246" s="109"/>
       <c r="AV246" s="109"/>
     </row>
-    <row r="247" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="247" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A247" s="116" t="s">
         <v>1780</v>
       </c>
@@ -42839,7 +42841,7 @@
       <c r="AU247" s="109"/>
       <c r="AV247" s="109"/>
     </row>
-    <row r="248" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="248" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A248" s="116" t="s">
         <v>1778</v>
       </c>
@@ -42955,7 +42957,7 @@
       </c>
       <c r="AV248" s="109"/>
     </row>
-    <row r="249" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="249" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A249" s="116" t="s">
         <v>1774</v>
       </c>
@@ -43065,7 +43067,7 @@
       <c r="AU249" s="109"/>
       <c r="AV249" s="109"/>
     </row>
-    <row r="250" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="250" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A250" s="116" t="s">
         <v>1772</v>
       </c>
@@ -43177,7 +43179,7 @@
       <c r="AU250" s="109"/>
       <c r="AV250" s="109"/>
     </row>
-    <row r="251" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="251" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A251" s="116" t="s">
         <v>1769</v>
       </c>
@@ -43287,7 +43289,7 @@
       <c r="AU251" s="109"/>
       <c r="AV251" s="109"/>
     </row>
-    <row r="252" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="252" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A252" s="116" t="s">
         <v>403</v>
       </c>
@@ -43403,7 +43405,7 @@
         <v>1766</v>
       </c>
     </row>
-    <row r="253" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="253" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A253" s="116" t="s">
         <v>1765</v>
       </c>
@@ -43517,7 +43519,7 @@
       <c r="AU253" s="109"/>
       <c r="AV253" s="109"/>
     </row>
-    <row r="254" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="254" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A254" s="116" t="s">
         <v>1763</v>
       </c>
@@ -43635,7 +43637,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="255" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="255" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A255" s="116" t="s">
         <v>1757</v>
       </c>
@@ -43753,7 +43755,7 @@
         <v>1754</v>
       </c>
     </row>
-    <row r="256" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="256" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A256" s="116" t="s">
         <v>1753</v>
       </c>
@@ -43861,7 +43863,7 @@
       <c r="AU256" s="109"/>
       <c r="AV256" s="109"/>
     </row>
-    <row r="257" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="257" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A257" s="116" t="s">
         <v>1750</v>
       </c>
@@ -43979,7 +43981,7 @@
         <v>1748</v>
       </c>
     </row>
-    <row r="258" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="258" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A258" s="116" t="s">
         <v>1747</v>
       </c>
@@ -44091,7 +44093,7 @@
       <c r="AU258" s="109"/>
       <c r="AV258" s="109"/>
     </row>
-    <row r="259" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="259" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A259" s="116" t="s">
         <v>1743</v>
       </c>
@@ -44205,7 +44207,7 @@
       <c r="AU259" s="109"/>
       <c r="AV259" s="109"/>
     </row>
-    <row r="260" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="260" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A260" s="116" t="s">
         <v>1741</v>
       </c>
@@ -44317,7 +44319,7 @@
       <c r="AU260" s="109"/>
       <c r="AV260" s="109"/>
     </row>
-    <row r="261" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="261" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A261" s="116" t="s">
         <v>1739</v>
       </c>
@@ -44429,7 +44431,7 @@
       <c r="AU261" s="109"/>
       <c r="AV261" s="109"/>
     </row>
-    <row r="262" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="262" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A262" s="116" t="s">
         <v>1737</v>
       </c>
@@ -44541,7 +44543,7 @@
       <c r="AU262" s="109"/>
       <c r="AV262" s="109"/>
     </row>
-    <row r="263" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="263" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A263" s="116" t="s">
         <v>409</v>
       </c>
@@ -44651,7 +44653,7 @@
       <c r="AU263" s="109"/>
       <c r="AV263" s="109"/>
     </row>
-    <row r="264" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="264" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A264" s="116" t="s">
         <v>1734</v>
       </c>
@@ -44761,7 +44763,7 @@
       <c r="AU264" s="109"/>
       <c r="AV264" s="109"/>
     </row>
-    <row r="265" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="265" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A265" s="116" t="s">
         <v>412</v>
       </c>
@@ -44869,7 +44871,7 @@
       <c r="AU265" s="109"/>
       <c r="AV265" s="109"/>
     </row>
-    <row r="266" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="266" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A266" s="116" t="s">
         <v>1730</v>
       </c>
@@ -44985,7 +44987,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="267" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="267" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A267" s="116" t="s">
         <v>1729</v>
       </c>
@@ -45099,7 +45101,7 @@
         <v>1726</v>
       </c>
     </row>
-    <row r="268" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="268" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A268" s="116" t="s">
         <v>1725</v>
       </c>
@@ -45209,7 +45211,7 @@
       <c r="AU268" s="109"/>
       <c r="AV268" s="109"/>
     </row>
-    <row r="269" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="269" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A269" s="116" t="s">
         <v>1723</v>
       </c>
@@ -45321,7 +45323,7 @@
       <c r="AU269" s="109"/>
       <c r="AV269" s="109"/>
     </row>
-    <row r="270" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="270" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A270" s="116" t="s">
         <v>1721</v>
       </c>
@@ -45435,7 +45437,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="271" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="271" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A271" s="116" t="s">
         <v>1719</v>
       </c>
@@ -45551,7 +45553,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="272" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="272" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A272" s="116" t="s">
         <v>1717</v>
       </c>
@@ -45667,7 +45669,7 @@
         <v>1714</v>
       </c>
     </row>
-    <row r="273" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="273" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A273" s="116" t="s">
         <v>1713</v>
       </c>
@@ -45775,7 +45777,7 @@
       <c r="AU273" s="109"/>
       <c r="AV273" s="109"/>
     </row>
-    <row r="274" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="274" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A274" s="116" t="s">
         <v>1711</v>
       </c>
@@ -45885,7 +45887,7 @@
       <c r="AU274" s="109"/>
       <c r="AV274" s="109"/>
     </row>
-    <row r="275" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="275" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A275" s="116" t="s">
         <v>1708</v>
       </c>
@@ -45995,7 +45997,7 @@
       <c r="AU275" s="109"/>
       <c r="AV275" s="109"/>
     </row>
-    <row r="276" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="276" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A276" s="116" t="s">
         <v>1706</v>
       </c>
@@ -46103,7 +46105,7 @@
       <c r="AU276" s="109"/>
       <c r="AV276" s="109"/>
     </row>
-    <row r="277" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="277" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A277" s="116" t="s">
         <v>424</v>
       </c>
@@ -46211,7 +46213,7 @@
       <c r="AU277" s="109"/>
       <c r="AV277" s="109"/>
     </row>
-    <row r="278" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="278" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A278" s="116" t="s">
         <v>426</v>
       </c>
@@ -46319,7 +46321,7 @@
       <c r="AU278" s="109"/>
       <c r="AV278" s="109"/>
     </row>
-    <row r="279" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="279" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A279" s="116" t="s">
         <v>1701</v>
       </c>
@@ -46429,7 +46431,7 @@
       <c r="AU279" s="109"/>
       <c r="AV279" s="109"/>
     </row>
-    <row r="280" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="280" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A280" s="116" t="s">
         <v>1700</v>
       </c>
@@ -46539,7 +46541,7 @@
       <c r="AU280" s="109"/>
       <c r="AV280" s="109"/>
     </row>
-    <row r="281" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="281" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A281" s="116" t="s">
         <v>1699</v>
       </c>
@@ -46649,7 +46651,7 @@
       <c r="AU281" s="109"/>
       <c r="AV281" s="109"/>
     </row>
-    <row r="282" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="282" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A282" s="116" t="s">
         <v>1698</v>
       </c>
@@ -46759,7 +46761,7 @@
       <c r="AU282" s="109"/>
       <c r="AV282" s="109"/>
     </row>
-    <row r="283" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="283" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A283" s="116" t="s">
         <v>1695</v>
       </c>
@@ -46869,7 +46871,7 @@
       <c r="AU283" s="109"/>
       <c r="AV283" s="109"/>
     </row>
-    <row r="284" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="284" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A284" s="116" t="s">
         <v>1693</v>
       </c>
@@ -46979,7 +46981,7 @@
       <c r="AU284" s="109"/>
       <c r="AV284" s="109"/>
     </row>
-    <row r="285" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="285" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A285" s="119" t="s">
         <v>1691</v>
       </c>
@@ -47063,7 +47065,7 @@
       <c r="AU285" s="109"/>
       <c r="AV285" s="109"/>
     </row>
-    <row r="286" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="286" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A286" s="116" t="s">
         <v>1690</v>
       </c>
@@ -47175,7 +47177,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="287" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="287" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A287" s="116" t="s">
         <v>1688</v>
       </c>
@@ -47287,7 +47289,7 @@
         <v>1682</v>
       </c>
     </row>
-    <row r="288" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="288" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A288" s="116" t="s">
         <v>1681</v>
       </c>
@@ -47395,7 +47397,7 @@
       <c r="AU288" s="109"/>
       <c r="AV288" s="109"/>
     </row>
-    <row r="289" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="289" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A289" s="116" t="s">
         <v>1679</v>
       </c>
@@ -47509,7 +47511,7 @@
       <c r="AU289" s="109"/>
       <c r="AV289" s="109"/>
     </row>
-    <row r="290" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="290" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A290" s="116" t="s">
         <v>433</v>
       </c>
@@ -47615,7 +47617,7 @@
       <c r="AU290" s="109"/>
       <c r="AV290" s="109"/>
     </row>
-    <row r="291" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="291" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A291" s="116" t="s">
         <v>435</v>
       </c>
@@ -47728,7 +47730,7 @@
       <c r="AU291" s="109"/>
       <c r="AV291" s="109"/>
     </row>
-    <row r="292" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="292" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A292" s="116" t="s">
         <v>437</v>
       </c>
@@ -47860,7 +47862,7 @@
         <v>1670</v>
       </c>
     </row>
-    <row r="293" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="293" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A293" s="116" t="s">
         <v>439</v>
       </c>
@@ -47970,7 +47972,7 @@
       <c r="AU293" s="109"/>
       <c r="AV293" s="109"/>
     </row>
-    <row r="294" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="294" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A294" s="116" t="s">
         <v>1668</v>
       </c>
@@ -48082,7 +48084,7 @@
       <c r="AU294" s="109"/>
       <c r="AV294" s="109"/>
     </row>
-    <row r="295" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="295" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A295" s="116" t="s">
         <v>1665</v>
       </c>
@@ -48194,7 +48196,7 @@
       <c r="AU295" s="109"/>
       <c r="AV295" s="109"/>
     </row>
-    <row r="296" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="296" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A296" s="116" t="s">
         <v>1663</v>
       </c>
@@ -48306,7 +48308,7 @@
       <c r="AU296" s="109"/>
       <c r="AV296" s="109"/>
     </row>
-    <row r="297" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="297" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A297" s="116" t="s">
         <v>444</v>
       </c>
@@ -48412,7 +48414,7 @@
       <c r="AU297" s="109"/>
       <c r="AV297" s="109"/>
     </row>
-    <row r="298" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="298" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A298" s="116" t="s">
         <v>445</v>
       </c>
@@ -48528,7 +48530,7 @@
       <c r="AU298" s="109"/>
       <c r="AV298" s="109"/>
     </row>
-    <row r="299" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="299" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A299" s="119" t="s">
         <v>447</v>
       </c>
@@ -48630,7 +48632,7 @@
       <c r="AU299" s="109"/>
       <c r="AV299" s="109"/>
     </row>
-    <row r="300" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="300" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A300" s="116" t="s">
         <v>449</v>
       </c>
@@ -48744,7 +48746,7 @@
       <c r="AU300" s="109"/>
       <c r="AV300" s="109"/>
     </row>
-    <row r="301" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="301" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A301" s="116" t="s">
         <v>1658</v>
       </c>
@@ -48864,7 +48866,7 @@
         <v>1653</v>
       </c>
     </row>
-    <row r="302" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="302" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A302" s="116" t="s">
         <v>451</v>
       </c>
@@ -48976,7 +48978,7 @@
       <c r="AU302" s="109"/>
       <c r="AV302" s="109"/>
     </row>
-    <row r="303" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="303" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A303" s="116" t="s">
         <v>1651</v>
       </c>
@@ -49090,7 +49092,7 @@
         <v>1647</v>
       </c>
     </row>
-    <row r="304" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="304" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A304" s="116" t="s">
         <v>454</v>
       </c>
@@ -49204,7 +49206,7 @@
       <c r="AU304" s="109"/>
       <c r="AV304" s="109"/>
     </row>
-    <row r="305" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="305" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A305" s="119" t="s">
         <v>456</v>
       </c>
@@ -49316,7 +49318,7 @@
         <v>1639</v>
       </c>
     </row>
-    <row r="306" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="306" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A306" s="119" t="s">
         <v>459</v>
       </c>
@@ -49402,7 +49404,7 @@
       <c r="AU306" s="109"/>
       <c r="AV306" s="109"/>
     </row>
-    <row r="307" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="307" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A307" s="116" t="s">
         <v>461</v>
       </c>
@@ -49514,7 +49516,7 @@
       <c r="AU307" s="109"/>
       <c r="AV307" s="109"/>
     </row>
-    <row r="308" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="308" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A308" s="116" t="s">
         <v>1636</v>
       </c>
@@ -49630,7 +49632,7 @@
         <v>1633</v>
       </c>
     </row>
-    <row r="309" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="309" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A309" s="116" t="s">
         <v>464</v>
       </c>
@@ -49744,7 +49746,7 @@
       <c r="AU309" s="109"/>
       <c r="AV309" s="109"/>
     </row>
-    <row r="310" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="310" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A310" s="116" t="s">
         <v>1632</v>
       </c>
@@ -49862,7 +49864,7 @@
         <v>1627</v>
       </c>
     </row>
-    <row r="311" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="311" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A311" s="119" t="s">
         <v>467</v>
       </c>
@@ -49954,7 +49956,7 @@
       <c r="AU311" s="109"/>
       <c r="AV311" s="109"/>
     </row>
-    <row r="312" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="312" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A312" s="116" t="s">
         <v>1625</v>
       </c>
@@ -50070,7 +50072,7 @@
       <c r="AU312" s="109"/>
       <c r="AV312" s="109"/>
     </row>
-    <row r="313" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="313" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A313" s="116" t="s">
         <v>1622</v>
       </c>
@@ -50200,7 +50202,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="314" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="314" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A314" s="116" t="s">
         <v>1621</v>
       </c>
@@ -50322,7 +50324,7 @@
         <v>1616</v>
       </c>
     </row>
-    <row r="315" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="315" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A315" s="116" t="s">
         <v>469</v>
       </c>
@@ -50434,7 +50436,7 @@
       <c r="AU315" s="109"/>
       <c r="AV315" s="109"/>
     </row>
-    <row r="316" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="316" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A316" s="116" t="s">
         <v>1614</v>
       </c>
@@ -50546,7 +50548,7 @@
       <c r="AU316" s="109"/>
       <c r="AV316" s="109"/>
     </row>
-    <row r="317" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="317" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A317" s="116" t="s">
         <v>472</v>
       </c>
@@ -50658,7 +50660,7 @@
       <c r="AU317" s="109"/>
       <c r="AV317" s="109"/>
     </row>
-    <row r="318" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="318" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A318" s="116" t="s">
         <v>1611</v>
       </c>
@@ -50772,7 +50774,7 @@
       <c r="AU318" s="109"/>
       <c r="AV318" s="109"/>
     </row>
-    <row r="319" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="319" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A319" s="116" t="s">
         <v>1609</v>
       </c>
@@ -50882,7 +50884,7 @@
       <c r="AU319" s="109"/>
       <c r="AV319" s="109"/>
     </row>
-    <row r="320" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="320" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A320" s="119" t="s">
         <v>474</v>
       </c>
@@ -50970,7 +50972,7 @@
       <c r="AU320" s="109"/>
       <c r="AV320" s="109"/>
     </row>
-    <row r="321" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="321" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A321" s="119" t="s">
         <v>476</v>
       </c>
@@ -51058,7 +51060,7 @@
       <c r="AU321" s="109"/>
       <c r="AV321" s="109"/>
     </row>
-    <row r="322" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="322" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A322" s="116" t="s">
         <v>1607</v>
       </c>
@@ -51174,7 +51176,7 @@
       <c r="AU322" s="109"/>
       <c r="AV322" s="109"/>
     </row>
-    <row r="323" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="323" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A323" s="119" t="s">
         <v>479</v>
       </c>
@@ -51262,7 +51264,7 @@
       <c r="AU323" s="109"/>
       <c r="AV323" s="109"/>
     </row>
-    <row r="324" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="324" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A324" s="116" t="s">
         <v>1603</v>
       </c>
@@ -51374,7 +51376,7 @@
       <c r="AU324" s="109"/>
       <c r="AV324" s="109"/>
     </row>
-    <row r="325" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="325" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A325" s="116" t="s">
         <v>1601</v>
       </c>
@@ -51484,7 +51486,7 @@
       <c r="AU325" s="109"/>
       <c r="AV325" s="109"/>
     </row>
-    <row r="326" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="326" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A326" s="116" t="s">
         <v>1599</v>
       </c>
@@ -51594,7 +51596,7 @@
       <c r="AU326" s="109"/>
       <c r="AV326" s="109"/>
     </row>
-    <row r="327" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="327" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A327" s="116" t="s">
         <v>1596</v>
       </c>
@@ -51704,7 +51706,7 @@
       <c r="AU327" s="109"/>
       <c r="AV327" s="109"/>
     </row>
-    <row r="328" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="328" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A328" s="116" t="s">
         <v>1595</v>
       </c>
@@ -51808,7 +51810,7 @@
       <c r="AU328" s="109"/>
       <c r="AV328" s="109"/>
     </row>
-    <row r="329" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="329" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A329" s="116" t="s">
         <v>1593</v>
       </c>
@@ -51918,7 +51920,7 @@
       <c r="AU329" s="109"/>
       <c r="AV329" s="109"/>
     </row>
-    <row r="330" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="330" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A330" s="116" t="s">
         <v>1592</v>
       </c>
@@ -52028,7 +52030,7 @@
       <c r="AU330" s="109"/>
       <c r="AV330" s="109"/>
     </row>
-    <row r="331" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="331" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A331" s="116" t="s">
         <v>1591</v>
       </c>
@@ -52126,7 +52128,7 @@
       <c r="AU331" s="109"/>
       <c r="AV331" s="109"/>
     </row>
-    <row r="332" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="332" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A332" s="116" t="s">
         <v>1589</v>
       </c>
@@ -52238,7 +52240,7 @@
       <c r="AU332" s="109"/>
       <c r="AV332" s="109"/>
     </row>
-    <row r="333" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="333" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A333" s="116" t="s">
         <v>485</v>
       </c>
@@ -52348,7 +52350,7 @@
       <c r="AU333" s="109"/>
       <c r="AV333" s="109"/>
     </row>
-    <row r="334" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="334" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A334" s="116" t="s">
         <v>486</v>
       </c>
@@ -52460,7 +52462,7 @@
       <c r="AU334" s="109"/>
       <c r="AV334" s="109"/>
     </row>
-    <row r="335" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="335" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A335" s="116" t="s">
         <v>487</v>
       </c>
@@ -52570,7 +52572,7 @@
       <c r="AU335" s="109"/>
       <c r="AV335" s="109"/>
     </row>
-    <row r="336" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="336" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A336" s="116" t="s">
         <v>1580</v>
       </c>
@@ -52680,7 +52682,7 @@
       <c r="AU336" s="109"/>
       <c r="AV336" s="109"/>
     </row>
-    <row r="337" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="337" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A337" s="116" t="s">
         <v>490</v>
       </c>
@@ -52790,7 +52792,7 @@
       <c r="AU337" s="109"/>
       <c r="AV337" s="109"/>
     </row>
-    <row r="338" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="338" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A338" s="119" t="s">
         <v>492</v>
       </c>
@@ -52882,7 +52884,7 @@
       <c r="AU338" s="109"/>
       <c r="AV338" s="109"/>
     </row>
-    <row r="339" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="339" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A339" s="116" t="s">
         <v>1574</v>
       </c>
@@ -52998,7 +53000,7 @@
       <c r="AU339" s="109"/>
       <c r="AV339" s="109"/>
     </row>
-    <row r="340" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="340" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A340" s="116" t="s">
         <v>494</v>
       </c>
@@ -53104,7 +53106,7 @@
       <c r="AU340" s="109"/>
       <c r="AV340" s="109"/>
     </row>
-    <row r="341" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="341" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A341" s="116" t="s">
         <v>496</v>
       </c>
@@ -53220,7 +53222,7 @@
         <v>1565</v>
       </c>
     </row>
-    <row r="342" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="342" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A342" s="116" t="s">
         <v>498</v>
       </c>
@@ -53330,7 +53332,7 @@
       <c r="AU342" s="109"/>
       <c r="AV342" s="109"/>
     </row>
-    <row r="343" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="343" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A343" s="116" t="s">
         <v>501</v>
       </c>
@@ -53442,7 +53444,7 @@
       <c r="AU343" s="109"/>
       <c r="AV343" s="109"/>
     </row>
-    <row r="344" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="344" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A344" s="116" t="s">
         <v>1562</v>
       </c>
@@ -53552,7 +53554,7 @@
       <c r="AU344" s="109"/>
       <c r="AV344" s="109"/>
     </row>
-    <row r="345" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="345" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A345" s="116" t="s">
         <v>504</v>
       </c>
@@ -53670,7 +53672,7 @@
         <v>1556</v>
       </c>
     </row>
-    <row r="346" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="346" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A346" s="116" t="s">
         <v>506</v>
       </c>
@@ -53770,7 +53772,7 @@
       <c r="AU346" s="109"/>
       <c r="AV346" s="109"/>
     </row>
-    <row r="347" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="347" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A347" s="116" t="s">
         <v>1555</v>
       </c>
@@ -53884,7 +53886,7 @@
       <c r="AU347" s="109"/>
       <c r="AV347" s="109"/>
     </row>
-    <row r="348" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="348" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A348" s="119" t="s">
         <v>1553</v>
       </c>
@@ -54016,7 +54018,7 @@
       <c r="AU348" s="109"/>
       <c r="AV348" s="109"/>
     </row>
-    <row r="349" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="349" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A349" s="128" t="s">
         <v>514</v>
       </c>
@@ -54146,7 +54148,7 @@
       <c r="AU349" s="109"/>
       <c r="AV349" s="109"/>
     </row>
-    <row r="350" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="350" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A350" s="128" t="s">
         <v>517</v>
       </c>
@@ -54276,7 +54278,7 @@
       <c r="AU350" s="109"/>
       <c r="AV350" s="109"/>
     </row>
-    <row r="351" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="351" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A351" s="128" t="s">
         <v>1540</v>
       </c>
@@ -54406,7 +54408,7 @@
       <c r="AU351" s="109"/>
       <c r="AV351" s="109"/>
     </row>
-    <row r="352" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="352" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A352" s="128" t="s">
         <v>522</v>
       </c>
@@ -54536,7 +54538,7 @@
       <c r="AU352" s="109"/>
       <c r="AV352" s="109"/>
     </row>
-    <row r="353" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="353" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A353" s="128" t="s">
         <v>525</v>
       </c>
@@ -54666,7 +54668,7 @@
       <c r="AU353" s="109"/>
       <c r="AV353" s="109"/>
     </row>
-    <row r="354" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="354" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A354" s="128" t="s">
         <v>1534</v>
       </c>
@@ -54798,7 +54800,7 @@
       <c r="AU354" s="109"/>
       <c r="AV354" s="109"/>
     </row>
-    <row r="355" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="355" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A355" s="128" t="s">
         <v>529</v>
       </c>
@@ -54934,7 +54936,7 @@
         <v>1527</v>
       </c>
     </row>
-    <row r="356" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="356" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A356" s="128" t="s">
         <v>1526</v>
       </c>
@@ -55064,7 +55066,7 @@
       <c r="AU356" s="109"/>
       <c r="AV356" s="109"/>
     </row>
-    <row r="357" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="357" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A357" s="128" t="s">
         <v>533</v>
       </c>
@@ -55178,7 +55180,7 @@
       <c r="AU357" s="109"/>
       <c r="AV357" s="109"/>
     </row>
-    <row r="358" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="358" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A358" s="128" t="s">
         <v>536</v>
       </c>
@@ -55290,7 +55292,7 @@
       <c r="AU358" s="109"/>
       <c r="AV358" s="109"/>
     </row>
-    <row r="359" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="359" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A359" s="128" t="s">
         <v>1516</v>
       </c>
@@ -55424,7 +55426,7 @@
       <c r="AU359" s="109"/>
       <c r="AV359" s="109"/>
     </row>
-    <row r="360" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="360" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A360" s="128" t="s">
         <v>538</v>
       </c>
@@ -55554,7 +55556,7 @@
       <c r="AU360" s="109"/>
       <c r="AV360" s="109"/>
     </row>
-    <row r="361" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="361" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A361" s="128" t="s">
         <v>540</v>
       </c>
@@ -55662,7 +55664,7 @@
       <c r="AU361" s="109"/>
       <c r="AV361" s="109"/>
     </row>
-    <row r="362" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="362" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A362" s="128" t="s">
         <v>541</v>
       </c>
@@ -55792,7 +55794,7 @@
       <c r="AU362" s="109"/>
       <c r="AV362" s="109"/>
     </row>
-    <row r="363" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="363" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A363" s="128" t="s">
         <v>543</v>
       </c>
@@ -55928,7 +55930,7 @@
         <v>1493</v>
       </c>
     </row>
-    <row r="364" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="364" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A364" s="128" t="s">
         <v>545</v>
       </c>
@@ -56064,7 +56066,7 @@
         <v>1488</v>
       </c>
     </row>
-    <row r="365" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="365" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A365" s="128" t="s">
         <v>1487</v>
       </c>
@@ -56194,7 +56196,7 @@
       <c r="AU365" s="109"/>
       <c r="AV365" s="109"/>
     </row>
-    <row r="366" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="366" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A366" s="128" t="s">
         <v>548</v>
       </c>
@@ -56330,7 +56332,7 @@
         <v>1478</v>
       </c>
     </row>
-    <row r="367" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="367" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A367" s="128" t="s">
         <v>1477</v>
       </c>
@@ -56460,7 +56462,7 @@
       <c r="AU367" s="109"/>
       <c r="AV367" s="109"/>
     </row>
-    <row r="368" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="368" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A368" s="128" t="s">
         <v>552</v>
       </c>
@@ -56574,7 +56576,7 @@
       <c r="AU368" s="109"/>
       <c r="AV368" s="109"/>
     </row>
-    <row r="369" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="369" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A369" s="128" t="s">
         <v>553</v>
       </c>
@@ -56712,7 +56714,7 @@
         <v>1464</v>
       </c>
     </row>
-    <row r="370" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="370" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A370" s="128" t="s">
         <v>1463</v>
       </c>
@@ -56848,7 +56850,7 @@
         <v>1457</v>
       </c>
     </row>
-    <row r="371" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="371" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A371" s="128" t="s">
         <v>556</v>
       </c>
@@ -56978,7 +56980,7 @@
       <c r="AU371" s="109"/>
       <c r="AV371" s="109"/>
     </row>
-    <row r="372" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="372" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A372" s="128" t="s">
         <v>561</v>
       </c>
@@ -57110,7 +57112,7 @@
       <c r="AU372" s="109"/>
       <c r="AV372" s="109"/>
     </row>
-    <row r="373" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="373" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A373" s="128" t="s">
         <v>1451</v>
       </c>
@@ -57246,7 +57248,7 @@
         <v>1447</v>
       </c>
     </row>
-    <row r="374" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="374" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A374" s="128" t="s">
         <v>1446</v>
       </c>
@@ -57382,7 +57384,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="375" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="375" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A375" s="128" t="s">
         <v>1444</v>
       </c>
@@ -57518,7 +57520,7 @@
         <v>1438</v>
       </c>
     </row>
-    <row r="376" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="376" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A376" s="128" t="s">
         <v>569</v>
       </c>
@@ -57650,7 +57652,7 @@
       <c r="AU376" s="109"/>
       <c r="AV376" s="109"/>
     </row>
-    <row r="377" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="377" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A377" s="128" t="s">
         <v>1435</v>
       </c>
@@ -57780,7 +57782,7 @@
       <c r="AU377" s="109"/>
       <c r="AV377" s="109"/>
     </row>
-    <row r="378" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="378" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A378" s="128" t="s">
         <v>573</v>
       </c>
@@ -57910,7 +57912,7 @@
       <c r="AU378" s="109"/>
       <c r="AV378" s="109"/>
     </row>
-    <row r="379" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="379" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A379" s="128" t="s">
         <v>575</v>
       </c>
@@ -58040,7 +58042,7 @@
       <c r="AU379" s="109"/>
       <c r="AV379" s="109"/>
     </row>
-    <row r="380" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="380" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A380" s="128" t="s">
         <v>579</v>
       </c>
@@ -58170,7 +58172,7 @@
       <c r="AU380" s="109"/>
       <c r="AV380" s="109"/>
     </row>
-    <row r="381" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="381" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A381" s="128" t="s">
         <v>581</v>
       </c>
@@ -58304,7 +58306,7 @@
       <c r="AU381" s="109"/>
       <c r="AV381" s="109"/>
     </row>
-    <row r="382" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="382" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A382" s="128" t="s">
         <v>585</v>
       </c>
@@ -58434,7 +58436,7 @@
       <c r="AU382" s="109"/>
       <c r="AV382" s="109"/>
     </row>
-    <row r="383" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="383" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A383" s="128" t="s">
         <v>588</v>
       </c>
@@ -58564,7 +58566,7 @@
       <c r="AU383" s="109"/>
       <c r="AV383" s="109"/>
     </row>
-    <row r="384" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="384" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A384" s="128" t="s">
         <v>1413</v>
       </c>
@@ -58692,7 +58694,7 @@
       <c r="AU384" s="109"/>
       <c r="AV384" s="109"/>
     </row>
-    <row r="385" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="385" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A385" s="128" t="s">
         <v>1413</v>
       </c>
@@ -58820,7 +58822,7 @@
       <c r="AU385" s="109"/>
       <c r="AV385" s="109"/>
     </row>
-    <row r="386" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="386" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A386" s="128" t="s">
         <v>1409</v>
       </c>
@@ -58950,7 +58952,7 @@
       <c r="AU386" s="109"/>
       <c r="AV386" s="109"/>
     </row>
-    <row r="387" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="387" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A387" s="128" t="s">
         <v>591</v>
       </c>
@@ -59082,7 +59084,7 @@
       <c r="AU387" s="109"/>
       <c r="AV387" s="109"/>
     </row>
-    <row r="388" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="388" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A388" s="128" t="s">
         <v>595</v>
       </c>
@@ -59212,7 +59214,7 @@
       <c r="AU388" s="109"/>
       <c r="AV388" s="109"/>
     </row>
-    <row r="389" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="389" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A389" s="128" t="s">
         <v>597</v>
       </c>
@@ -59322,7 +59324,7 @@
       <c r="AU389" s="109"/>
       <c r="AV389" s="109"/>
     </row>
-    <row r="390" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="390" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A390" s="128" t="s">
         <v>598</v>
       </c>
@@ -59432,7 +59434,7 @@
       <c r="AU390" s="109"/>
       <c r="AV390" s="109"/>
     </row>
-    <row r="391" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="391" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A391" s="128" t="s">
         <v>1394</v>
       </c>
@@ -59568,7 +59570,7 @@
         <v>1386</v>
       </c>
     </row>
-    <row r="392" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="392" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A392" s="128" t="s">
         <v>1384</v>
       </c>
@@ -59700,7 +59702,7 @@
       <c r="AU392" s="109"/>
       <c r="AV392" s="109"/>
     </row>
-    <row r="393" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="393" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A393" s="128" t="s">
         <v>1384</v>
       </c>
@@ -59832,7 +59834,7 @@
       <c r="AU393" s="109"/>
       <c r="AV393" s="109"/>
     </row>
-    <row r="394" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="394" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A394" s="128" t="s">
         <v>602</v>
       </c>
@@ -59964,7 +59966,7 @@
       <c r="AU394" s="109"/>
       <c r="AV394" s="109"/>
     </row>
-    <row r="395" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="395" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A395" s="128" t="s">
         <v>605</v>
       </c>
@@ -60096,7 +60098,7 @@
       <c r="AU395" s="109"/>
       <c r="AV395" s="109"/>
     </row>
-    <row r="396" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="396" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A396" s="128" t="s">
         <v>1378</v>
       </c>
@@ -60226,7 +60228,7 @@
       <c r="AU396" s="109"/>
       <c r="AV396" s="109"/>
     </row>
-    <row r="397" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="397" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A397" s="128" t="s">
         <v>1378</v>
       </c>
@@ -60356,7 +60358,7 @@
       <c r="AU397" s="109"/>
       <c r="AV397" s="109"/>
     </row>
-    <row r="398" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="398" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A398" s="128" t="s">
         <v>1376</v>
       </c>
@@ -60486,7 +60488,7 @@
       <c r="AU398" s="109"/>
       <c r="AV398" s="109"/>
     </row>
-    <row r="399" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="399" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A399" s="128" t="s">
         <v>1373</v>
       </c>
@@ -60616,7 +60618,7 @@
       <c r="AU399" s="109"/>
       <c r="AV399" s="109"/>
     </row>
-    <row r="400" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="400" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A400" s="128" t="s">
         <v>612</v>
       </c>
@@ -60746,7 +60748,7 @@
       <c r="AU400" s="109"/>
       <c r="AV400" s="109"/>
     </row>
-    <row r="401" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="401" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A401" s="128" t="s">
         <v>612</v>
       </c>
@@ -60876,7 +60878,7 @@
       <c r="AU401" s="109"/>
       <c r="AV401" s="109"/>
     </row>
-    <row r="402" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="402" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A402" s="128" t="s">
         <v>615</v>
       </c>
@@ -61006,7 +61008,7 @@
       <c r="AU402" s="109"/>
       <c r="AV402" s="109"/>
     </row>
-    <row r="403" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="403" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A403" s="128" t="s">
         <v>618</v>
       </c>
@@ -61146,7 +61148,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="404" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="404" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A404" s="128" t="s">
         <v>1348</v>
       </c>
@@ -61274,7 +61276,7 @@
       <c r="AU404" s="109"/>
       <c r="AV404" s="109"/>
     </row>
-    <row r="405" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="405" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A405" s="128" t="s">
         <v>623</v>
       </c>
@@ -61406,7 +61408,7 @@
       <c r="AU405" s="109"/>
       <c r="AV405" s="109"/>
     </row>
-    <row r="406" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="406" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A406" s="128" t="s">
         <v>1342</v>
       </c>
@@ -61542,7 +61544,7 @@
         <v>1338</v>
       </c>
     </row>
-    <row r="407" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="407" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A407" s="128" t="s">
         <v>1337</v>
       </c>
@@ -61678,7 +61680,7 @@
         <v>1335</v>
       </c>
     </row>
-    <row r="408" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="408" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A408" s="128" t="s">
         <v>1334</v>
       </c>
@@ -61808,7 +61810,7 @@
       <c r="AU408" s="109"/>
       <c r="AV408" s="109"/>
     </row>
-    <row r="409" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="409" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A409" s="128" t="s">
         <v>1333</v>
       </c>
@@ -61938,7 +61940,7 @@
       <c r="AU409" s="109"/>
       <c r="AV409" s="109"/>
     </row>
-    <row r="410" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
+    <row r="410" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A410" s="128" t="s">
         <v>1332</v>
       </c>
@@ -62068,7 +62070,7 @@
       <c r="AU410" s="109"/>
       <c r="AV410" s="109"/>
     </row>
-    <row r="411" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="411" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A411" s="128" t="s">
         <v>1329</v>
       </c>
@@ -62204,7 +62206,7 @@
       <c r="AU411" s="109"/>
       <c r="AV411" s="109"/>
     </row>
-    <row r="412" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="412" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A412" s="128" t="s">
         <v>635</v>
       </c>
@@ -62334,7 +62336,7 @@
       <c r="AU412" s="109"/>
       <c r="AV412" s="109"/>
     </row>
-    <row r="413" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="413" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A413" s="128" t="s">
         <v>639</v>
       </c>
@@ -62464,7 +62466,7 @@
       <c r="AU413" s="109"/>
       <c r="AV413" s="109"/>
     </row>
-    <row r="414" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="414" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A414" s="128" t="s">
         <v>641</v>
       </c>
@@ -62594,7 +62596,7 @@
       <c r="AU414" s="109"/>
       <c r="AV414" s="109"/>
     </row>
-    <row r="415" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="415" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A415" s="128" t="s">
         <v>643</v>
       </c>
@@ -62724,7 +62726,7 @@
       <c r="AU415" s="109"/>
       <c r="AV415" s="109"/>
     </row>
-    <row r="416" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="416" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A416" s="128" t="s">
         <v>645</v>
       </c>
@@ -62854,7 +62856,7 @@
       <c r="AU416" s="109"/>
       <c r="AV416" s="109"/>
     </row>
-    <row r="417" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="417" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A417" s="128" t="s">
         <v>647</v>
       </c>
@@ -62986,7 +62988,7 @@
       <c r="AU417" s="109"/>
       <c r="AV417" s="109"/>
     </row>
-    <row r="418" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="418" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A418" s="128" t="s">
         <v>649</v>
       </c>
@@ -63118,7 +63120,7 @@
       <c r="AU418" s="109"/>
       <c r="AV418" s="109"/>
     </row>
-    <row r="419" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="419" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A419" s="128" t="s">
         <v>651</v>
       </c>
@@ -63250,7 +63252,7 @@
       <c r="AU419" s="109"/>
       <c r="AV419" s="109"/>
     </row>
-    <row r="420" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="420" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A420" s="128" t="s">
         <v>653</v>
       </c>
@@ -63382,7 +63384,7 @@
       <c r="AU420" s="109"/>
       <c r="AV420" s="109"/>
     </row>
-    <row r="421" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="421" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A421" s="128" t="s">
         <v>1307</v>
       </c>
@@ -63518,7 +63520,7 @@
       <c r="AU421" s="109"/>
       <c r="AV421" s="109"/>
     </row>
-    <row r="422" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="422" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A422" s="128" t="s">
         <v>1307</v>
       </c>
@@ -63654,7 +63656,7 @@
       <c r="AU422" s="109"/>
       <c r="AV422" s="109"/>
     </row>
-    <row r="423" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="423" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A423" s="128" t="s">
         <v>658</v>
       </c>
@@ -63790,7 +63792,7 @@
       <c r="AU423" s="109"/>
       <c r="AV423" s="109"/>
     </row>
-    <row r="424" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="424" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A424" s="128" t="s">
         <v>658</v>
       </c>
@@ -63926,7 +63928,7 @@
       <c r="AU424" s="109"/>
       <c r="AV424" s="109"/>
     </row>
-    <row r="425" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="425" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A425" s="128" t="s">
         <v>661</v>
       </c>
@@ -64056,7 +64058,7 @@
       <c r="AU425" s="109"/>
       <c r="AV425" s="109"/>
     </row>
-    <row r="426" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="426" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A426" s="128" t="s">
         <v>665</v>
       </c>
@@ -64192,7 +64194,7 @@
         <v>1290</v>
       </c>
     </row>
-    <row r="427" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="427" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A427" s="128" t="s">
         <v>667</v>
       </c>
@@ -64322,7 +64324,7 @@
       <c r="AU427" s="109"/>
       <c r="AV427" s="109"/>
     </row>
-    <row r="428" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="428" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A428" s="128" t="s">
         <v>669</v>
       </c>
@@ -64452,7 +64454,7 @@
       <c r="AU428" s="109"/>
       <c r="AV428" s="109"/>
     </row>
-    <row r="429" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="429" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A429" s="128" t="s">
         <v>671</v>
       </c>
@@ -64582,7 +64584,7 @@
       <c r="AU429" s="109"/>
       <c r="AV429" s="109"/>
     </row>
-    <row r="430" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="430" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A430" s="128" t="s">
         <v>673</v>
       </c>
@@ -64714,7 +64716,7 @@
       <c r="AU430" s="109"/>
       <c r="AV430" s="109"/>
     </row>
-    <row r="431" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="431" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A431" s="128" t="s">
         <v>674</v>
       </c>
@@ -64844,7 +64846,7 @@
       <c r="AU431" s="109"/>
       <c r="AV431" s="109"/>
     </row>
-    <row r="432" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="432" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A432" s="128" t="s">
         <v>1276</v>
       </c>
@@ -64974,7 +64976,7 @@
       <c r="AU432" s="109"/>
       <c r="AV432" s="109"/>
     </row>
-    <row r="433" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="433" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A433" s="128" t="s">
         <v>678</v>
       </c>
@@ -65104,7 +65106,7 @@
       <c r="AU433" s="109"/>
       <c r="AV433" s="109"/>
     </row>
-    <row r="434" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="434" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A434" s="128" t="s">
         <v>678</v>
       </c>
@@ -65234,7 +65236,7 @@
       <c r="AU434" s="109"/>
       <c r="AV434" s="109"/>
     </row>
-    <row r="435" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="435" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A435" s="128" t="s">
         <v>1268</v>
       </c>
@@ -65368,7 +65370,7 @@
       </c>
       <c r="AV435" s="109"/>
     </row>
-    <row r="436" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="436" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A436" s="128" t="s">
         <v>1265</v>
       </c>
@@ -65506,7 +65508,7 @@
         <v>1260</v>
       </c>
     </row>
-    <row r="437" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="437" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A437" s="128" t="s">
         <v>1259</v>
       </c>
@@ -65636,7 +65638,7 @@
       <c r="AU437" s="109"/>
       <c r="AV437" s="109"/>
     </row>
-    <row r="438" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="438" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A438" s="128" t="s">
         <v>688</v>
       </c>
@@ -65772,7 +65774,7 @@
         <v>1249</v>
       </c>
     </row>
-    <row r="439" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="439" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A439" s="128" t="s">
         <v>690</v>
       </c>
@@ -65906,7 +65908,7 @@
       <c r="AU439" s="109"/>
       <c r="AV439" s="109"/>
     </row>
-    <row r="440" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="440" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A440" s="128" t="s">
         <v>1244</v>
       </c>
@@ -66036,7 +66038,7 @@
       <c r="AU440" s="109"/>
       <c r="AV440" s="109"/>
     </row>
-    <row r="441" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="441" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A441" s="128" t="s">
         <v>693</v>
       </c>
@@ -66166,7 +66168,7 @@
       <c r="AU441" s="109"/>
       <c r="AV441" s="109"/>
     </row>
-    <row r="442" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="442" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A442" s="128" t="s">
         <v>1239</v>
       </c>
@@ -66296,7 +66298,7 @@
       <c r="AU442" s="109"/>
       <c r="AV442" s="109"/>
     </row>
-    <row r="443" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="443" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A443" s="128" t="s">
         <v>697</v>
       </c>
@@ -66428,7 +66430,7 @@
       <c r="AU443" s="109"/>
       <c r="AV443" s="109"/>
     </row>
-    <row r="444" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="444" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A444" s="128" t="s">
         <v>698</v>
       </c>
@@ -66558,7 +66560,7 @@
       <c r="AU444" s="109"/>
       <c r="AV444" s="109"/>
     </row>
-    <row r="445" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="445" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A445" s="128" t="s">
         <v>698</v>
       </c>
@@ -66688,7 +66690,7 @@
       <c r="AU445" s="109"/>
       <c r="AV445" s="109"/>
     </row>
-    <row r="446" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="446" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A446" s="128" t="s">
         <v>701</v>
       </c>
@@ -66818,7 +66820,7 @@
       <c r="AU446" s="109"/>
       <c r="AV446" s="109"/>
     </row>
-    <row r="447" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="447" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A447" s="128" t="s">
         <v>701</v>
       </c>
@@ -66948,7 +66950,7 @@
       <c r="AU447" s="109"/>
       <c r="AV447" s="109"/>
     </row>
-    <row r="448" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="448" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A448" s="128" t="s">
         <v>702</v>
       </c>
@@ -67078,7 +67080,7 @@
       <c r="AU448" s="109"/>
       <c r="AV448" s="109"/>
     </row>
-    <row r="449" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="449" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A449" s="128" t="s">
         <v>704</v>
       </c>
@@ -67214,7 +67216,7 @@
         <v>1216</v>
       </c>
     </row>
-    <row r="450" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="450" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A450" s="128" t="s">
         <v>706</v>
       </c>
@@ -67344,7 +67346,7 @@
       <c r="AU450" s="109"/>
       <c r="AV450" s="109"/>
     </row>
-    <row r="451" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="451" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A451" s="128" t="s">
         <v>1212</v>
       </c>
@@ -67474,7 +67476,7 @@
       <c r="AU451" s="109"/>
       <c r="AV451" s="109"/>
     </row>
-    <row r="452" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="452" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A452" s="128" t="s">
         <v>1208</v>
       </c>
@@ -67614,7 +67616,7 @@
         <v>1203</v>
       </c>
     </row>
-    <row r="453" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="453" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A453" s="128" t="s">
         <v>711</v>
       </c>
@@ -67750,7 +67752,7 @@
         <v>1195</v>
       </c>
     </row>
-    <row r="454" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="454" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A454" s="128" t="s">
         <v>1194</v>
       </c>
@@ -67886,7 +67888,7 @@
         <v>1186</v>
       </c>
     </row>
-    <row r="455" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="455" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A455" s="128" t="s">
         <v>714</v>
       </c>
@@ -68018,7 +68020,7 @@
       <c r="AU455" s="109"/>
       <c r="AV455" s="109"/>
     </row>
-    <row r="456" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="456" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A456" s="128" t="s">
         <v>718</v>
       </c>
@@ -68148,7 +68150,7 @@
       <c r="AU456" s="109"/>
       <c r="AV456" s="109"/>
     </row>
-    <row r="457" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="457" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A457" s="128" t="s">
         <v>722</v>
       </c>
@@ -68280,7 +68282,7 @@
       <c r="AU457" s="109"/>
       <c r="AV457" s="109"/>
     </row>
-    <row r="458" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="458" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A458" s="128" t="s">
         <v>725</v>
       </c>
@@ -68412,7 +68414,7 @@
       <c r="AU458" s="109"/>
       <c r="AV458" s="109"/>
     </row>
-    <row r="459" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="459" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A459" s="128" t="s">
         <v>727</v>
       </c>
@@ -68548,7 +68550,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="460" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="460" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A460" s="128" t="s">
         <v>727</v>
       </c>
@@ -68684,7 +68686,7 @@
         <v>1169</v>
       </c>
     </row>
-    <row r="461" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="461" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A461" s="128" t="s">
         <v>730</v>
       </c>
@@ -68814,7 +68816,7 @@
       <c r="AU461" s="109"/>
       <c r="AV461" s="109"/>
     </row>
-    <row r="462" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="462" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A462" s="128" t="s">
         <v>732</v>
       </c>
@@ -68944,7 +68946,7 @@
       <c r="AU462" s="109"/>
       <c r="AV462" s="109"/>
     </row>
-    <row r="463" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="463" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A463" s="128" t="s">
         <v>734</v>
       </c>
@@ -69074,7 +69076,7 @@
       <c r="AU463" s="109"/>
       <c r="AV463" s="109"/>
     </row>
-    <row r="464" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="464" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A464" s="128" t="s">
         <v>736</v>
       </c>
@@ -69210,7 +69212,7 @@
         <v>1148</v>
       </c>
     </row>
-    <row r="465" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="465" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A465" s="128" t="s">
         <v>738</v>
       </c>
@@ -69340,7 +69342,7 @@
       <c r="AU465" s="109"/>
       <c r="AV465" s="109"/>
     </row>
-    <row r="466" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="466" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A466" s="128" t="s">
         <v>740</v>
       </c>
@@ -69470,7 +69472,7 @@
       <c r="AU466" s="109"/>
       <c r="AV466" s="109"/>
     </row>
-    <row r="467" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="467" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A467" s="128" t="s">
         <v>744</v>
       </c>
@@ -69606,7 +69608,7 @@
         <v>1137</v>
       </c>
     </row>
-    <row r="468" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="468" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A468" s="128" t="s">
         <v>746</v>
       </c>
@@ -69742,7 +69744,7 @@
         <v>1130</v>
       </c>
     </row>
-    <row r="469" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="469" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A469" s="128" t="s">
         <v>1129</v>
       </c>
@@ -69870,7 +69872,7 @@
       <c r="AU469" s="109"/>
       <c r="AV469" s="109"/>
     </row>
-    <row r="470" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="470" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A470" s="128" t="s">
         <v>1127</v>
       </c>
@@ -70000,7 +70002,7 @@
       <c r="AU470" s="109"/>
       <c r="AV470" s="109"/>
     </row>
-    <row r="471" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="471" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A471" s="128" t="s">
         <v>1125</v>
       </c>
@@ -70130,7 +70132,7 @@
       <c r="AU471" s="109"/>
       <c r="AV471" s="109"/>
     </row>
-    <row r="472" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="472" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A472" s="128" t="s">
         <v>1123</v>
       </c>
@@ -70260,7 +70262,7 @@
       <c r="AU472" s="109"/>
       <c r="AV472" s="109"/>
     </row>
-    <row r="473" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="473" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A473" s="128" t="s">
         <v>752</v>
       </c>
@@ -70396,7 +70398,7 @@
         <v>1115</v>
       </c>
     </row>
-    <row r="474" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="474" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A474" s="128" t="s">
         <v>754</v>
       </c>
@@ -70526,7 +70528,7 @@
       <c r="AU474" s="109"/>
       <c r="AV474" s="109"/>
     </row>
-    <row r="475" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="475" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A475" s="128" t="s">
         <v>756</v>
       </c>
@@ -70658,7 +70660,7 @@
       <c r="AU475" s="109"/>
       <c r="AV475" s="109"/>
     </row>
-    <row r="476" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="476" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A476" s="128" t="s">
         <v>756</v>
       </c>
@@ -70790,7 +70792,7 @@
       <c r="AU476" s="109"/>
       <c r="AV476" s="109"/>
     </row>
-    <row r="477" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="477" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A477" s="128" t="s">
         <v>759</v>
       </c>
@@ -70920,7 +70922,7 @@
       <c r="AU477" s="109"/>
       <c r="AV477" s="109"/>
     </row>
-    <row r="478" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="478" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A478" s="128" t="s">
         <v>761</v>
       </c>
@@ -71050,7 +71052,7 @@
       <c r="AU478" s="109"/>
       <c r="AV478" s="109"/>
     </row>
-    <row r="479" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="479" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A479" s="128" t="s">
         <v>1096</v>
       </c>
@@ -71186,7 +71188,7 @@
         <v>1088</v>
       </c>
     </row>
-    <row r="480" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="480" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A480" s="128" t="s">
         <v>764</v>
       </c>
@@ -71316,7 +71318,7 @@
       <c r="AU480" s="109"/>
       <c r="AV480" s="109"/>
     </row>
-    <row r="481" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="481" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A481" s="128" t="s">
         <v>766</v>
       </c>
@@ -71448,7 +71450,7 @@
       <c r="AU481" s="109"/>
       <c r="AV481" s="109"/>
     </row>
-    <row r="482" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="482" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A482" s="128" t="s">
         <v>1079</v>
       </c>
@@ -71582,7 +71584,7 @@
       </c>
       <c r="AV482" s="109"/>
     </row>
-    <row r="483" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1">
+    <row r="483" spans="1:48" s="142" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A483" s="128" t="s">
         <v>769</v>
       </c>
@@ -71714,7 +71716,7 @@
       <c r="AU483" s="109"/>
       <c r="AV483" s="109"/>
     </row>
-    <row r="484" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="484" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A484" s="128" t="s">
         <v>769</v>
       </c>
@@ -71846,7 +71848,7 @@
       <c r="AU484" s="109"/>
       <c r="AV484" s="109"/>
     </row>
-    <row r="485" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="485" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A485" s="128" t="s">
         <v>772</v>
       </c>
@@ -71958,7 +71960,7 @@
       <c r="AU485" s="109"/>
       <c r="AV485" s="109"/>
     </row>
-    <row r="486" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1">
+    <row r="486" spans="1:48" s="142" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A486" s="128" t="s">
         <v>773</v>
       </c>
@@ -72090,7 +72092,7 @@
       <c r="AU486" s="109"/>
       <c r="AV486" s="109"/>
     </row>
-    <row r="487" spans="1:48" s="112" customFormat="1">
+    <row r="487" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A487" s="128" t="s">
         <v>1062</v>
       </c>
@@ -72225,7 +72227,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="488" spans="1:48" s="112" customFormat="1">
+    <row r="488" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A488" s="128" t="s">
         <v>1061</v>
       </c>
@@ -72360,7 +72362,7 @@
         <v>1054</v>
       </c>
     </row>
-    <row r="489" spans="1:48" s="112" customFormat="1">
+    <row r="489" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A489" s="128" t="s">
         <v>1053</v>
       </c>
@@ -72488,7 +72490,7 @@
         <v>1010</v>
       </c>
     </row>
-    <row r="490" spans="1:48" s="112" customFormat="1">
+    <row r="490" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A490" s="128" t="s">
         <v>777</v>
       </c>
@@ -72614,7 +72616,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="491" spans="1:48" s="112" customFormat="1">
+    <row r="491" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A491" s="128" t="s">
         <v>1034</v>
       </c>
@@ -72751,7 +72753,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="492" spans="1:48" s="112" customFormat="1">
+    <row r="492" spans="1:48" s="112" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A492" s="128" t="s">
         <v>1034</v>
       </c>
@@ -72886,26 +72888,26 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="1048574" spans="41:44">
+    <row r="1048574" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO1048574" s="111"/>
       <c r="AP1048574" s="111"/>
       <c r="AQ1048574" s="110"/>
       <c r="AR1048574" s="111"/>
     </row>
-    <row r="1048575" spans="41:44">
+    <row r="1048575" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO1048575" s="111"/>
       <c r="AP1048575" s="111"/>
       <c r="AQ1048575" s="110"/>
       <c r="AR1048575" s="111"/>
     </row>
-    <row r="1048576" spans="41:44">
+    <row r="1048576" spans="41:44" x14ac:dyDescent="0.25">
       <c r="AO1048576" s="109"/>
       <c r="AP1048576" s="111"/>
       <c r="AQ1048576" s="110"/>
       <c r="AR1048576" s="109"/>
     </row>
   </sheetData>
-  <autoFilter ref="A1:AV492">
+  <autoFilter ref="A1:AV492" xr:uid="{00000000-0009-0000-0000-000006000000}">
     <filterColumn colId="34">
       <filters blank="1"/>
     </filterColumn>
@@ -72914,102 +72916,102 @@
     <cfRule type="duplicateValues" dxfId="0" priority="1"/>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="F163" r:id="rId1"/>
-    <hyperlink ref="F164" r:id="rId2"/>
-    <hyperlink ref="AV97" r:id="rId3"/>
-    <hyperlink ref="AV107" r:id="rId4"/>
-    <hyperlink ref="AV491" r:id="rId5"/>
-    <hyperlink ref="AV492" r:id="rId6"/>
-    <hyperlink ref="AV313" r:id="rId7"/>
-    <hyperlink ref="AV314" r:id="rId8"/>
-    <hyperlink ref="AV487" r:id="rId9"/>
-    <hyperlink ref="AV488" r:id="rId10"/>
-    <hyperlink ref="AV126" r:id="rId11"/>
-    <hyperlink ref="AV127" r:id="rId12"/>
-    <hyperlink ref="AV128" r:id="rId13"/>
-    <hyperlink ref="AV139" r:id="rId14"/>
-    <hyperlink ref="AV140" r:id="rId15"/>
-    <hyperlink ref="AV141" r:id="rId16"/>
-    <hyperlink ref="AV426" r:id="rId17"/>
-    <hyperlink ref="AV241" r:id="rId18"/>
-    <hyperlink ref="AV436" r:id="rId19"/>
-    <hyperlink ref="AV407" r:id="rId20"/>
-    <hyperlink ref="AV454" r:id="rId21"/>
-    <hyperlink ref="AV310" r:id="rId22"/>
-    <hyperlink ref="AV205" r:id="rId23"/>
-    <hyperlink ref="AV206" r:id="rId24"/>
-    <hyperlink ref="AV355" r:id="rId25"/>
-    <hyperlink ref="AV252" r:id="rId26"/>
-    <hyperlink ref="AV254" r:id="rId27"/>
-    <hyperlink ref="AV238" r:id="rId28"/>
-    <hyperlink ref="AV464" r:id="rId29"/>
-    <hyperlink ref="AV459" r:id="rId30"/>
-    <hyperlink ref="AV460" r:id="rId31"/>
-    <hyperlink ref="AV341" r:id="rId32"/>
-    <hyperlink ref="AV345" r:id="rId33"/>
-    <hyperlink ref="AV473" r:id="rId34"/>
-    <hyperlink ref="AV369" r:id="rId35"/>
-    <hyperlink ref="AV240" r:id="rId36"/>
-    <hyperlink ref="AV257" r:id="rId37"/>
-    <hyperlink ref="AV4" r:id="rId38"/>
-    <hyperlink ref="AV208" r:id="rId39"/>
-    <hyperlink ref="AV209" r:id="rId40"/>
-    <hyperlink ref="AV189" r:id="rId41"/>
-    <hyperlink ref="AV364" r:id="rId42"/>
-    <hyperlink ref="AV5" r:id="rId43"/>
-    <hyperlink ref="AV286" r:id="rId44"/>
-    <hyperlink ref="AV287" r:id="rId45"/>
-    <hyperlink ref="AV109" r:id="rId46"/>
-    <hyperlink ref="AV366" r:id="rId47"/>
-    <hyperlink ref="AV374" r:id="rId48"/>
-    <hyperlink ref="AV375" r:id="rId49"/>
-    <hyperlink ref="AV7" r:id="rId50"/>
-    <hyperlink ref="AV45" r:id="rId51"/>
-    <hyperlink ref="AV199" r:id="rId52"/>
-    <hyperlink ref="AV305" r:id="rId53"/>
-    <hyperlink ref="AV68" r:id="rId54"/>
-    <hyperlink ref="AV452" r:id="rId55"/>
-    <hyperlink ref="AV49" r:id="rId56"/>
-    <hyperlink ref="AV292" r:id="rId57"/>
-    <hyperlink ref="AV146" r:id="rId58"/>
-    <hyperlink ref="AV406" r:id="rId59"/>
-    <hyperlink ref="AV89" r:id="rId60"/>
-    <hyperlink ref="AV373" r:id="rId61"/>
-    <hyperlink ref="AV370" r:id="rId62"/>
-    <hyperlink ref="AV308" r:id="rId63"/>
-    <hyperlink ref="AV301" r:id="rId64"/>
-    <hyperlink ref="AV26" r:id="rId65"/>
-    <hyperlink ref="AV242" r:id="rId66"/>
-    <hyperlink ref="AV467" r:id="rId67"/>
-    <hyperlink ref="AV270" r:id="rId68"/>
-    <hyperlink ref="AV271" r:id="rId69"/>
-    <hyperlink ref="AV272" r:id="rId70"/>
-    <hyperlink ref="AV403" r:id="rId71"/>
-    <hyperlink ref="AV266" r:id="rId72"/>
-    <hyperlink ref="AV267" r:id="rId73"/>
-    <hyperlink ref="AV449" r:id="rId74"/>
-    <hyperlink ref="AV214" r:id="rId75"/>
-    <hyperlink ref="AV78" r:id="rId76"/>
-    <hyperlink ref="AV79" r:id="rId77"/>
-    <hyperlink ref="AV468" r:id="rId78"/>
-    <hyperlink ref="AV479" r:id="rId79"/>
-    <hyperlink ref="AV183" r:id="rId80"/>
-    <hyperlink ref="AV391" r:id="rId81"/>
-    <hyperlink ref="AV244" r:id="rId82"/>
-    <hyperlink ref="AV255" r:id="rId83"/>
-    <hyperlink ref="AV438" r:id="rId84"/>
-    <hyperlink ref="AV204" r:id="rId85"/>
-    <hyperlink ref="AV73" r:id="rId86"/>
-    <hyperlink ref="AV74" r:id="rId87"/>
-    <hyperlink ref="AV303" r:id="rId88"/>
-    <hyperlink ref="AV75" r:id="rId89"/>
-    <hyperlink ref="AV67" r:id="rId90"/>
-    <hyperlink ref="AV363" r:id="rId91"/>
-    <hyperlink ref="AV207" r:id="rId92"/>
-    <hyperlink ref="AV210" r:id="rId93"/>
-    <hyperlink ref="AV70" r:id="rId94"/>
-    <hyperlink ref="AV453" r:id="rId95"/>
-    <hyperlink ref="AV84" r:id="rId96"/>
+    <hyperlink ref="F163" r:id="rId1" xr:uid="{00000000-0004-0000-0600-000000000000}"/>
+    <hyperlink ref="F164" r:id="rId2" xr:uid="{00000000-0004-0000-0600-000001000000}"/>
+    <hyperlink ref="AV97" r:id="rId3" xr:uid="{00000000-0004-0000-0600-000002000000}"/>
+    <hyperlink ref="AV107" r:id="rId4" xr:uid="{00000000-0004-0000-0600-000003000000}"/>
+    <hyperlink ref="AV491" r:id="rId5" xr:uid="{00000000-0004-0000-0600-000004000000}"/>
+    <hyperlink ref="AV492" r:id="rId6" xr:uid="{00000000-0004-0000-0600-000005000000}"/>
+    <hyperlink ref="AV313" r:id="rId7" xr:uid="{00000000-0004-0000-0600-000006000000}"/>
+    <hyperlink ref="AV314" r:id="rId8" xr:uid="{00000000-0004-0000-0600-000007000000}"/>
+    <hyperlink ref="AV487" r:id="rId9" xr:uid="{00000000-0004-0000-0600-000008000000}"/>
+    <hyperlink ref="AV488" r:id="rId10" xr:uid="{00000000-0004-0000-0600-000009000000}"/>
+    <hyperlink ref="AV126" r:id="rId11" xr:uid="{00000000-0004-0000-0600-00000A000000}"/>
+    <hyperlink ref="AV127" r:id="rId12" xr:uid="{00000000-0004-0000-0600-00000B000000}"/>
+    <hyperlink ref="AV128" r:id="rId13" xr:uid="{00000000-0004-0000-0600-00000C000000}"/>
+    <hyperlink ref="AV139" r:id="rId14" xr:uid="{00000000-0004-0000-0600-00000D000000}"/>
+    <hyperlink ref="AV140" r:id="rId15" xr:uid="{00000000-0004-0000-0600-00000E000000}"/>
+    <hyperlink ref="AV141" r:id="rId16" xr:uid="{00000000-0004-0000-0600-00000F000000}"/>
+    <hyperlink ref="AV426" r:id="rId17" xr:uid="{00000000-0004-0000-0600-000010000000}"/>
+    <hyperlink ref="AV241" r:id="rId18" xr:uid="{00000000-0004-0000-0600-000011000000}"/>
+    <hyperlink ref="AV436" r:id="rId19" xr:uid="{00000000-0004-0000-0600-000012000000}"/>
+    <hyperlink ref="AV407" r:id="rId20" xr:uid="{00000000-0004-0000-0600-000013000000}"/>
+    <hyperlink ref="AV454" r:id="rId21" xr:uid="{00000000-0004-0000-0600-000014000000}"/>
+    <hyperlink ref="AV310" r:id="rId22" xr:uid="{00000000-0004-0000-0600-000015000000}"/>
+    <hyperlink ref="AV205" r:id="rId23" xr:uid="{00000000-0004-0000-0600-000016000000}"/>
+    <hyperlink ref="AV206" r:id="rId24" xr:uid="{00000000-0004-0000-0600-000017000000}"/>
+    <hyperlink ref="AV355" r:id="rId25" xr:uid="{00000000-0004-0000-0600-000018000000}"/>
+    <hyperlink ref="AV252" r:id="rId26" xr:uid="{00000000-0004-0000-0600-000019000000}"/>
+    <hyperlink ref="AV254" r:id="rId27" xr:uid="{00000000-0004-0000-0600-00001A000000}"/>
+    <hyperlink ref="AV238" r:id="rId28" xr:uid="{00000000-0004-0000-0600-00001B000000}"/>
+    <hyperlink ref="AV464" r:id="rId29" xr:uid="{00000000-0004-0000-0600-00001C000000}"/>
+    <hyperlink ref="AV459" r:id="rId30" xr:uid="{00000000-0004-0000-0600-00001D000000}"/>
+    <hyperlink ref="AV460" r:id="rId31" xr:uid="{00000000-0004-0000-0600-00001E000000}"/>
+    <hyperlink ref="AV341" r:id="rId32" xr:uid="{00000000-0004-0000-0600-00001F000000}"/>
+    <hyperlink ref="AV345" r:id="rId33" xr:uid="{00000000-0004-0000-0600-000020000000}"/>
+    <hyperlink ref="AV473" r:id="rId34" xr:uid="{00000000-0004-0000-0600-000021000000}"/>
+    <hyperlink ref="AV369" r:id="rId35" xr:uid="{00000000-0004-0000-0600-000022000000}"/>
+    <hyperlink ref="AV240" r:id="rId36" xr:uid="{00000000-0004-0000-0600-000023000000}"/>
+    <hyperlink ref="AV257" r:id="rId37" xr:uid="{00000000-0004-0000-0600-000024000000}"/>
+    <hyperlink ref="AV4" r:id="rId38" xr:uid="{00000000-0004-0000-0600-000025000000}"/>
+    <hyperlink ref="AV208" r:id="rId39" xr:uid="{00000000-0004-0000-0600-000026000000}"/>
+    <hyperlink ref="AV209" r:id="rId40" xr:uid="{00000000-0004-0000-0600-000027000000}"/>
+    <hyperlink ref="AV189" r:id="rId41" xr:uid="{00000000-0004-0000-0600-000028000000}"/>
+    <hyperlink ref="AV364" r:id="rId42" xr:uid="{00000000-0004-0000-0600-000029000000}"/>
+    <hyperlink ref="AV5" r:id="rId43" xr:uid="{00000000-0004-0000-0600-00002A000000}"/>
+    <hyperlink ref="AV286" r:id="rId44" xr:uid="{00000000-0004-0000-0600-00002B000000}"/>
+    <hyperlink ref="AV287" r:id="rId45" xr:uid="{00000000-0004-0000-0600-00002C000000}"/>
+    <hyperlink ref="AV109" r:id="rId46" xr:uid="{00000000-0004-0000-0600-00002D000000}"/>
+    <hyperlink ref="AV366" r:id="rId47" xr:uid="{00000000-0004-0000-0600-00002E000000}"/>
+    <hyperlink ref="AV374" r:id="rId48" xr:uid="{00000000-0004-0000-0600-00002F000000}"/>
+    <hyperlink ref="AV375" r:id="rId49" xr:uid="{00000000-0004-0000-0600-000030000000}"/>
+    <hyperlink ref="AV7" r:id="rId50" xr:uid="{00000000-0004-0000-0600-000031000000}"/>
+    <hyperlink ref="AV45" r:id="rId51" xr:uid="{00000000-0004-0000-0600-000032000000}"/>
+    <hyperlink ref="AV199" r:id="rId52" xr:uid="{00000000-0004-0000-0600-000033000000}"/>
+    <hyperlink ref="AV305" r:id="rId53" xr:uid="{00000000-0004-0000-0600-000034000000}"/>
+    <hyperlink ref="AV68" r:id="rId54" xr:uid="{00000000-0004-0000-0600-000035000000}"/>
+    <hyperlink ref="AV452" r:id="rId55" xr:uid="{00000000-0004-0000-0600-000036000000}"/>
+    <hyperlink ref="AV49" r:id="rId56" xr:uid="{00000000-0004-0000-0600-000037000000}"/>
+    <hyperlink ref="AV292" r:id="rId57" xr:uid="{00000000-0004-0000-0600-000038000000}"/>
+    <hyperlink ref="AV146" r:id="rId58" xr:uid="{00000000-0004-0000-0600-000039000000}"/>
+    <hyperlink ref="AV406" r:id="rId59" xr:uid="{00000000-0004-0000-0600-00003A000000}"/>
+    <hyperlink ref="AV89" r:id="rId60" xr:uid="{00000000-0004-0000-0600-00003B000000}"/>
+    <hyperlink ref="AV373" r:id="rId61" xr:uid="{00000000-0004-0000-0600-00003C000000}"/>
+    <hyperlink ref="AV370" r:id="rId62" xr:uid="{00000000-0004-0000-0600-00003D000000}"/>
+    <hyperlink ref="AV308" r:id="rId63" xr:uid="{00000000-0004-0000-0600-00003E000000}"/>
+    <hyperlink ref="AV301" r:id="rId64" xr:uid="{00000000-0004-0000-0600-00003F000000}"/>
+    <hyperlink ref="AV26" r:id="rId65" xr:uid="{00000000-0004-0000-0600-000040000000}"/>
+    <hyperlink ref="AV242" r:id="rId66" xr:uid="{00000000-0004-0000-0600-000041000000}"/>
+    <hyperlink ref="AV467" r:id="rId67" xr:uid="{00000000-0004-0000-0600-000042000000}"/>
+    <hyperlink ref="AV270" r:id="rId68" xr:uid="{00000000-0004-0000-0600-000043000000}"/>
+    <hyperlink ref="AV271" r:id="rId69" xr:uid="{00000000-0004-0000-0600-000044000000}"/>
+    <hyperlink ref="AV272" r:id="rId70" xr:uid="{00000000-0004-0000-0600-000045000000}"/>
+    <hyperlink ref="AV403" r:id="rId71" xr:uid="{00000000-0004-0000-0600-000046000000}"/>
+    <hyperlink ref="AV266" r:id="rId72" xr:uid="{00000000-0004-0000-0600-000047000000}"/>
+    <hyperlink ref="AV267" r:id="rId73" xr:uid="{00000000-0004-0000-0600-000048000000}"/>
+    <hyperlink ref="AV449" r:id="rId74" xr:uid="{00000000-0004-0000-0600-000049000000}"/>
+    <hyperlink ref="AV214" r:id="rId75" xr:uid="{00000000-0004-0000-0600-00004A000000}"/>
+    <hyperlink ref="AV78" r:id="rId76" xr:uid="{00000000-0004-0000-0600-00004B000000}"/>
+    <hyperlink ref="AV79" r:id="rId77" xr:uid="{00000000-0004-0000-0600-00004C000000}"/>
+    <hyperlink ref="AV468" r:id="rId78" xr:uid="{00000000-0004-0000-0600-00004D000000}"/>
+    <hyperlink ref="AV479" r:id="rId79" xr:uid="{00000000-0004-0000-0600-00004E000000}"/>
+    <hyperlink ref="AV183" r:id="rId80" xr:uid="{00000000-0004-0000-0600-00004F000000}"/>
+    <hyperlink ref="AV391" r:id="rId81" xr:uid="{00000000-0004-0000-0600-000050000000}"/>
+    <hyperlink ref="AV244" r:id="rId82" xr:uid="{00000000-0004-0000-0600-000051000000}"/>
+    <hyperlink ref="AV255" r:id="rId83" xr:uid="{00000000-0004-0000-0600-000052000000}"/>
+    <hyperlink ref="AV438" r:id="rId84" xr:uid="{00000000-0004-0000-0600-000053000000}"/>
+    <hyperlink ref="AV204" r:id="rId85" xr:uid="{00000000-0004-0000-0600-000054000000}"/>
+    <hyperlink ref="AV73" r:id="rId86" xr:uid="{00000000-0004-0000-0600-000055000000}"/>
+    <hyperlink ref="AV74" r:id="rId87" xr:uid="{00000000-0004-0000-0600-000056000000}"/>
+    <hyperlink ref="AV303" r:id="rId88" xr:uid="{00000000-0004-0000-0600-000057000000}"/>
+    <hyperlink ref="AV75" r:id="rId89" xr:uid="{00000000-0004-0000-0600-000058000000}"/>
+    <hyperlink ref="AV67" r:id="rId90" xr:uid="{00000000-0004-0000-0600-000059000000}"/>
+    <hyperlink ref="AV363" r:id="rId91" xr:uid="{00000000-0004-0000-0600-00005A000000}"/>
+    <hyperlink ref="AV207" r:id="rId92" xr:uid="{00000000-0004-0000-0600-00005B000000}"/>
+    <hyperlink ref="AV210" r:id="rId93" xr:uid="{00000000-0004-0000-0600-00005C000000}"/>
+    <hyperlink ref="AV70" r:id="rId94" xr:uid="{00000000-0004-0000-0600-00005D000000}"/>
+    <hyperlink ref="AV453" r:id="rId95" xr:uid="{00000000-0004-0000-0600-00005E000000}"/>
+    <hyperlink ref="AV84" r:id="rId96" xr:uid="{00000000-0004-0000-0600-00005F000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" verticalDpi="300" r:id="rId97"/>
